--- a/DATOS/PONDERACIONES/IPC_INQUILINOS_CCAA/alquiler_ajustado_ponderaciones_IPC_CCAA_2022.xlsx
+++ b/DATOS/PONDERACIONES/IPC_INQUILINOS_CCAA/alquiler_ajustado_ponderaciones_IPC_CCAA_2022.xlsx
@@ -466,61 +466,61 @@
         </is>
       </c>
       <c r="B2">
-        <v>166.8490222679449</v>
+        <v>173.86344535275</v>
       </c>
       <c r="C2">
-        <v>158.4063333426331</v>
+        <v>167.8634278705515</v>
       </c>
       <c r="D2">
-        <v>150.6467933867</v>
+        <v>152.375664664564</v>
       </c>
       <c r="E2">
-        <v>132.6003947270815</v>
+        <v>136.6360589144274</v>
       </c>
       <c r="F2">
-        <v>149.546470964317</v>
+        <v>156.5004913418085</v>
       </c>
       <c r="G2">
-        <v>158.9958443920003</v>
+        <v>164.2510268069336</v>
       </c>
       <c r="H2">
-        <v>168.5080824742268</v>
+        <v>181.2621126597938</v>
       </c>
       <c r="I2">
-        <v>175.4245162582804</v>
+        <v>184.9967458703977</v>
       </c>
       <c r="J2">
-        <v>149.152157187542</v>
+        <v>157.8694207840038</v>
       </c>
       <c r="K2">
-        <v>150.2709089360777</v>
+        <v>156.48013666206</v>
       </c>
       <c r="L2">
-        <v>205.0254875314886</v>
+        <v>221.0297158865584</v>
       </c>
       <c r="M2">
-        <v>169.0363604744612</v>
+        <v>175.1402001755511</v>
       </c>
       <c r="N2">
-        <v>131.5600018477613</v>
+        <v>135.1378873579533</v>
       </c>
       <c r="O2">
-        <v>164.9911124173221</v>
+        <v>173.1412758017922</v>
       </c>
       <c r="P2">
-        <v>144.8224601685249</v>
+        <v>156.7884159399493</v>
       </c>
       <c r="Q2">
-        <v>144.7282807308546</v>
+        <v>151.4346734104607</v>
       </c>
       <c r="R2">
-        <v>161.5199179081291</v>
+        <v>172.043847606744</v>
       </c>
       <c r="S2">
-        <v>234.7699332949539</v>
+        <v>243.8628269861333</v>
       </c>
       <c r="T2">
-        <v>184.0057079130339</v>
+        <v>205.3796159712763</v>
       </c>
     </row>
     <row r="3">
@@ -530,61 +530,61 @@
         </is>
       </c>
       <c r="B3">
-        <v>13.17231118561539</v>
+        <v>13.72608226802687</v>
       </c>
       <c r="C3">
-        <v>11.09878514146484</v>
+        <v>11.76139917976125</v>
       </c>
       <c r="D3">
-        <v>9.703558845196493</v>
+        <v>9.814920021915739</v>
       </c>
       <c r="E3">
-        <v>11.45469049238494</v>
+        <v>11.80331150737057</v>
       </c>
       <c r="F3">
-        <v>15.30405307451061</v>
+        <v>16.01570274602813</v>
       </c>
       <c r="G3">
-        <v>9.978562323246862</v>
+        <v>10.30837701398907</v>
       </c>
       <c r="H3">
-        <v>9.497876288659793</v>
+        <v>10.21675101030927</v>
       </c>
       <c r="I3">
-        <v>11.82644069736897</v>
+        <v>12.47176330257787</v>
       </c>
       <c r="J3">
-        <v>10.91650515437912</v>
+        <v>11.55452511183237</v>
       </c>
       <c r="K3">
-        <v>11.88021755122519</v>
+        <v>12.37111081015363</v>
       </c>
       <c r="L3">
-        <v>14.75691066773642</v>
+        <v>15.90883070941196</v>
       </c>
       <c r="M3">
-        <v>12.31378981412785</v>
+        <v>12.75843615487597</v>
       </c>
       <c r="N3">
-        <v>9.79471792244442</v>
+        <v>10.06109355971208</v>
       </c>
       <c r="O3">
-        <v>12.99272117321416</v>
+        <v>13.63453029140908</v>
       </c>
       <c r="P3">
-        <v>9.065754130330795</v>
+        <v>9.814812065349379</v>
       </c>
       <c r="Q3">
-        <v>8.108714059115103</v>
+        <v>8.484454172467224</v>
       </c>
       <c r="R3">
-        <v>8.838549246946084</v>
+        <v>9.414430364998122</v>
       </c>
       <c r="S3">
-        <v>20.2609214390602</v>
+        <v>21.04564886196769</v>
       </c>
       <c r="T3">
-        <v>17.66363172243808</v>
+        <v>19.71542046688552</v>
       </c>
     </row>
     <row r="4">
@@ -594,61 +594,61 @@
         </is>
       </c>
       <c r="B4">
-        <v>9.940651602775603</v>
+        <v>10.35856196948148</v>
       </c>
       <c r="C4">
-        <v>7.842410414903588</v>
+        <v>8.310614021763506</v>
       </c>
       <c r="D4">
-        <v>8.067390898401671</v>
+        <v>8.159974883085276</v>
       </c>
       <c r="E4">
-        <v>9.936179171407465</v>
+        <v>10.2385846244503</v>
       </c>
       <c r="F4">
-        <v>8.268918641264159</v>
+        <v>8.653429411464089</v>
       </c>
       <c r="G4">
-        <v>8.894214768200332</v>
+        <v>9.188189250509746</v>
       </c>
       <c r="H4">
-        <v>7.731015463917526</v>
+        <v>8.316160123711336</v>
       </c>
       <c r="I4">
-        <v>9.319982460497789</v>
+        <v>9.828537444690772</v>
       </c>
       <c r="J4">
-        <v>9.091110798129963</v>
+        <v>9.622444777512449</v>
       </c>
       <c r="K4">
-        <v>8.105693534304537</v>
+        <v>8.440622612646168</v>
       </c>
       <c r="L4">
-        <v>9.489044367939599</v>
+        <v>10.2297563387504</v>
       </c>
       <c r="M4">
-        <v>10.82363497726377</v>
+        <v>11.2144723846647</v>
       </c>
       <c r="N4">
-        <v>7.551598733443639</v>
+        <v>7.756970847366519</v>
       </c>
       <c r="O4">
-        <v>12.38458379713496</v>
+        <v>12.99635239434283</v>
       </c>
       <c r="P4">
-        <v>7.515178275747876</v>
+        <v>8.136119880781546</v>
       </c>
       <c r="Q4">
-        <v>7.926273117530562</v>
+        <v>8.293559315801785</v>
       </c>
       <c r="R4">
-        <v>9.14444673840166</v>
+        <v>9.740258795849618</v>
       </c>
       <c r="S4">
-        <v>12.21245494593512</v>
+        <v>12.68545654785743</v>
       </c>
       <c r="T4">
-        <v>8.428592501459409</v>
+        <v>9.40764887546999</v>
       </c>
     </row>
     <row r="5">
@@ -658,61 +658,61 @@
         </is>
       </c>
       <c r="B5">
-        <v>17.72180848665686</v>
+        <v>18.46684289479185</v>
       </c>
       <c r="C5">
-        <v>13.85786971450773</v>
+        <v>14.68520521985148</v>
       </c>
       <c r="D5">
-        <v>12.20532667379407</v>
+        <v>12.34539894648497</v>
       </c>
       <c r="E5">
-        <v>12.30488957985283</v>
+        <v>12.67938621923965</v>
       </c>
       <c r="F5">
-        <v>11.97312065147898</v>
+        <v>12.5298795268684</v>
       </c>
       <c r="G5">
-        <v>13.51373483845113</v>
+        <v>13.96039520215226</v>
       </c>
       <c r="H5">
-        <v>12.8949587628866</v>
+        <v>13.87095167010309</v>
       </c>
       <c r="I5">
-        <v>16.0714959580442</v>
+        <v>16.94845462267072</v>
       </c>
       <c r="J5">
-        <v>11.24558241120678</v>
+        <v>11.90283543404413</v>
       </c>
       <c r="K5">
-        <v>14.44721530532992</v>
+        <v>15.0441774883114</v>
       </c>
       <c r="L5">
-        <v>19.09201956140771</v>
+        <v>20.58233690926088</v>
       </c>
       <c r="M5">
-        <v>12.66554640526777</v>
+        <v>13.12289454484836</v>
       </c>
       <c r="N5">
-        <v>13.9384737491916</v>
+        <v>14.31754233053089</v>
       </c>
       <c r="O5">
-        <v>20.10907590235231</v>
+        <v>21.10241579632392</v>
       </c>
       <c r="P5">
-        <v>11.18960886043345</v>
+        <v>12.11415029252677</v>
       </c>
       <c r="Q5">
-        <v>10.69500231341279</v>
+        <v>11.19058538025255</v>
       </c>
       <c r="R5">
-        <v>14.14757015420844</v>
+        <v>15.0693637982208</v>
       </c>
       <c r="S5">
-        <v>21.97561031571218</v>
+        <v>22.8267494952276</v>
       </c>
       <c r="T5">
-        <v>21.04502095482002</v>
+        <v>23.48958828957196</v>
       </c>
     </row>
     <row r="6">
@@ -722,61 +722,61 @@
         </is>
       </c>
       <c r="B6">
-        <v>37.00636929622146</v>
+        <v>38.56213706487748</v>
       </c>
       <c r="C6">
-        <v>37.23050692987051</v>
+        <v>39.45322376150459</v>
       </c>
       <c r="D6">
-        <v>36.37508541597838</v>
+        <v>36.79253764972164</v>
       </c>
       <c r="E6">
-        <v>28.02033189254814</v>
+        <v>28.87312460232134</v>
       </c>
       <c r="F6">
-        <v>25.93796222998885</v>
+        <v>27.14409646194266</v>
       </c>
       <c r="G6">
-        <v>37.55248047237033</v>
+        <v>38.79367728333212</v>
       </c>
       <c r="H6">
-        <v>33.82328350515464</v>
+        <v>36.38329826804122</v>
       </c>
       <c r="I6">
-        <v>39.22369815702352</v>
+        <v>41.36398192695348</v>
       </c>
       <c r="J6">
-        <v>28.94895440939056</v>
+        <v>30.64088881508141</v>
       </c>
       <c r="K6">
-        <v>32.77487798396785</v>
+        <v>34.12914330740654</v>
       </c>
       <c r="L6">
-        <v>41.73638586986994</v>
+        <v>44.99431569224934</v>
       </c>
       <c r="M6">
-        <v>42.42015153370508</v>
+        <v>43.95192732638606</v>
       </c>
       <c r="N6">
-        <v>29.27164400359473</v>
+        <v>30.06771111722365</v>
       </c>
       <c r="O6">
-        <v>39.10514566357853</v>
+        <v>41.03684563009264</v>
       </c>
       <c r="P6">
-        <v>40.88530742907606</v>
+        <v>44.26345595540348</v>
       </c>
       <c r="Q6">
-        <v>34.3303287906009</v>
+        <v>35.92112130556148</v>
       </c>
       <c r="R6">
-        <v>34.84436783535838</v>
+        <v>37.11467407523999</v>
       </c>
       <c r="S6">
-        <v>45.91137698571619</v>
+        <v>47.68957432252034</v>
       </c>
       <c r="T6">
-        <v>48.84966093573786</v>
+        <v>54.52398578880302</v>
       </c>
     </row>
     <row r="7">
@@ -786,61 +786,61 @@
         </is>
       </c>
       <c r="B7">
-        <v>11.03177270547538</v>
+        <v>11.49555439313395</v>
       </c>
       <c r="C7">
-        <v>9.983118870554586</v>
+        <v>10.57912596730412</v>
       </c>
       <c r="D7">
-        <v>11.25427182493675</v>
+        <v>11.38342948487752</v>
       </c>
       <c r="E7">
-        <v>9.239991557980895</v>
+        <v>9.521208692354225</v>
       </c>
       <c r="F7">
-        <v>10.31549025190785</v>
+        <v>10.79516810022497</v>
       </c>
       <c r="G7">
-        <v>11.58299773321059</v>
+        <v>11.96584274549723</v>
       </c>
       <c r="H7">
-        <v>10.76396907216495</v>
+        <v>11.57867175257732</v>
       </c>
       <c r="I7">
-        <v>12.65248481391876</v>
+        <v>13.34288141518025</v>
       </c>
       <c r="J7">
-        <v>9.967946993138707</v>
+        <v>10.55052805058523</v>
       </c>
       <c r="K7">
-        <v>9.200721887578014</v>
+        <v>9.580897783550691</v>
       </c>
       <c r="L7">
-        <v>12.17912328437544</v>
+        <v>13.1298220123946</v>
       </c>
       <c r="M7">
-        <v>14.46743301327335</v>
+        <v>14.98984660376601</v>
       </c>
       <c r="N7">
-        <v>8.956909367309743</v>
+        <v>9.200500092388062</v>
       </c>
       <c r="O7">
-        <v>11.2333300222932</v>
+        <v>11.78822945712937</v>
       </c>
       <c r="P7">
-        <v>11.25731316922398</v>
+        <v>12.18744866983111</v>
       </c>
       <c r="Q7">
-        <v>10.25154099847509</v>
+        <v>10.72657503577364</v>
       </c>
       <c r="R7">
-        <v>10.3136549279652</v>
+        <v>10.98564746488201</v>
       </c>
       <c r="S7">
-        <v>13.25613965925777</v>
+        <v>13.76956430007676</v>
       </c>
       <c r="T7">
-        <v>13.92680564012111</v>
+        <v>15.54452862639742</v>
       </c>
     </row>
     <row r="8">
@@ -850,61 +850,61 @@
         </is>
       </c>
       <c r="B8">
-        <v>260</v>
+        <v>228.89</v>
       </c>
       <c r="C8">
-        <v>263</v>
+        <v>219</v>
       </c>
       <c r="D8">
-        <v>282</v>
+        <v>273.76</v>
       </c>
       <c r="E8">
-        <v>333</v>
+        <v>312.7</v>
       </c>
       <c r="F8">
-        <v>317</v>
+        <v>285.24</v>
       </c>
       <c r="G8">
-        <v>312</v>
+        <v>289.26</v>
       </c>
       <c r="H8">
-        <v>295</v>
+        <v>241.64</v>
       </c>
       <c r="I8">
-        <v>251</v>
+        <v>210.13</v>
       </c>
       <c r="J8">
-        <v>331</v>
+        <v>291.9</v>
       </c>
       <c r="K8">
-        <v>288</v>
+        <v>258.58</v>
       </c>
       <c r="L8">
-        <v>196</v>
+        <v>133.24</v>
       </c>
       <c r="M8">
-        <v>252</v>
+        <v>224.99</v>
       </c>
       <c r="N8">
-        <v>326</v>
+        <v>307.67</v>
       </c>
       <c r="O8">
-        <v>253</v>
+        <v>216.1</v>
       </c>
       <c r="P8">
-        <v>280</v>
+        <v>220.51</v>
       </c>
       <c r="Q8">
-        <v>331</v>
+        <v>300</v>
       </c>
       <c r="R8">
-        <v>261</v>
+        <v>212.85</v>
       </c>
       <c r="S8">
-        <v>141</v>
+        <v>107.73</v>
       </c>
       <c r="T8">
-        <v>245</v>
+        <v>157.3</v>
       </c>
     </row>
     <row r="9">
@@ -914,61 +914,61 @@
         </is>
       </c>
       <c r="B9">
-        <v>8.240656111286443</v>
+        <v>8.587097748613633</v>
       </c>
       <c r="C9">
-        <v>7.277342583493754</v>
+        <v>7.711810797433682</v>
       </c>
       <c r="D9">
-        <v>8.129272081441187</v>
+        <v>8.222566234576387</v>
       </c>
       <c r="E9">
-        <v>8.700602956587336</v>
+        <v>8.965403916135642</v>
       </c>
       <c r="F9">
-        <v>10.14167769604392</v>
+        <v>10.61327313327138</v>
       </c>
       <c r="G9">
-        <v>9.027442752953091</v>
+        <v>9.325820729991106</v>
       </c>
       <c r="H9">
-        <v>6.575396907216495</v>
+        <v>7.073075175257729</v>
       </c>
       <c r="I9">
-        <v>7.011039869659829</v>
+        <v>7.393604888982921</v>
       </c>
       <c r="J9">
-        <v>6.729911164738328</v>
+        <v>7.123243790360556</v>
       </c>
       <c r="K9">
-        <v>5.529929709326365</v>
+        <v>5.758427647596565</v>
       </c>
       <c r="L9">
-        <v>8.886604391224076</v>
+        <v>9.580290077285298</v>
       </c>
       <c r="M9">
-        <v>7.841016179304936</v>
+        <v>8.124152338399892</v>
       </c>
       <c r="N9">
-        <v>5.918438137792598</v>
+        <v>6.079395068157193</v>
       </c>
       <c r="O9">
-        <v>8.362462635594774</v>
+        <v>8.775548139280779</v>
       </c>
       <c r="P9">
-        <v>10.3756853221474</v>
+        <v>11.23297632188984</v>
       </c>
       <c r="Q9">
-        <v>5.842893226552055</v>
+        <v>6.113640147363885</v>
       </c>
       <c r="R9">
-        <v>4.535591200470965</v>
+        <v>4.831110437687038</v>
       </c>
       <c r="S9">
-        <v>6.712729233413429</v>
+        <v>6.972720504188358</v>
       </c>
       <c r="T9">
-        <v>6.030578553897723</v>
+        <v>6.73108416870147</v>
       </c>
     </row>
     <row r="10">
@@ -978,61 +978,61 @@
         </is>
       </c>
       <c r="B10">
-        <v>25.06621362963813</v>
+        <v>26.12001079993279</v>
       </c>
       <c r="C10">
-        <v>29.95621053414716</v>
+        <v>31.74464101379775</v>
       </c>
       <c r="D10">
-        <v>25.58197574083612</v>
+        <v>25.87556276048026</v>
       </c>
       <c r="E10">
-        <v>25.22512817137299</v>
+        <v>25.99284946354521</v>
       </c>
       <c r="F10">
-        <v>21.23576271663731</v>
+        <v>22.2232412289073</v>
       </c>
       <c r="G10">
-        <v>24.78824210429303</v>
+        <v>25.60755115291457</v>
       </c>
       <c r="H10">
-        <v>24.72514948453608</v>
+        <v>26.59654519587627</v>
       </c>
       <c r="I10">
-        <v>22.85899098800752</v>
+        <v>24.10631670453604</v>
       </c>
       <c r="J10">
-        <v>24.34890437912014</v>
+        <v>25.77198683236918</v>
       </c>
       <c r="K10">
-        <v>24.45879874870084</v>
+        <v>25.46944180935643</v>
       </c>
       <c r="L10">
-        <v>26.15491109794874</v>
+        <v>28.19655565081847</v>
       </c>
       <c r="M10">
-        <v>19.16188257424133</v>
+        <v>19.85381098109996</v>
       </c>
       <c r="N10">
-        <v>31.39234690877938</v>
+        <v>32.24608833138758</v>
       </c>
       <c r="O10">
-        <v>29.12251326378784</v>
+        <v>30.5610952442882</v>
       </c>
       <c r="P10">
-        <v>23.26305331714317</v>
+        <v>25.18516309747213</v>
       </c>
       <c r="Q10">
-        <v>27.52398340062487</v>
+        <v>28.7993847241217</v>
       </c>
       <c r="R10">
-        <v>28.69998242056548</v>
+        <v>30.56994744566728</v>
       </c>
       <c r="S10">
-        <v>29.94165707181951</v>
+        <v>31.10132986667334</v>
       </c>
       <c r="T10">
-        <v>20.85387491552163</v>
+        <v>23.27623892888752</v>
       </c>
     </row>
     <row r="11">
@@ -1042,61 +1042,61 @@
         </is>
       </c>
       <c r="B11">
-        <v>44.44100613567339</v>
+        <v>46.30933005578258</v>
       </c>
       <c r="C11">
-        <v>55.20910715079146</v>
+        <v>58.50517324934619</v>
       </c>
       <c r="D11">
-        <v>50.24310054358421</v>
+        <v>50.81970659996183</v>
       </c>
       <c r="E11">
-        <v>40.09524958808588</v>
+        <v>41.31553979294067</v>
       </c>
       <c r="F11">
-        <v>29.94562386642511</v>
+        <v>31.33811729833971</v>
       </c>
       <c r="G11">
-        <v>44.92419147898431</v>
+        <v>46.40904048222865</v>
       </c>
       <c r="H11">
-        <v>57.86232989690722</v>
+        <v>62.24181063917523</v>
       </c>
       <c r="I11">
-        <v>62.71274874458662</v>
+        <v>66.13473811867372</v>
       </c>
       <c r="J11">
-        <v>46.68396845150007</v>
+        <v>49.41243357325442</v>
       </c>
       <c r="K11">
-        <v>45.40605560668413</v>
+        <v>47.28224402796032</v>
       </c>
       <c r="L11">
-        <v>55.41792068801348</v>
+        <v>59.74382703425691</v>
       </c>
       <c r="M11">
-        <v>49.47375635034889</v>
+        <v>51.26023517257205</v>
       </c>
       <c r="N11">
-        <v>42.59662111655174</v>
+        <v>43.75507225166508</v>
       </c>
       <c r="O11">
-        <v>38.81599355268804</v>
+        <v>40.73341010167623</v>
       </c>
       <c r="P11">
-        <v>49.83110718622364</v>
+        <v>53.94840241748538</v>
       </c>
       <c r="Q11">
-        <v>43.41137790542686</v>
+        <v>45.4229664182344</v>
       </c>
       <c r="R11">
-        <v>60.30183684649474</v>
+        <v>64.23084015388137</v>
       </c>
       <c r="S11">
-        <v>40.05599219062876</v>
+        <v>41.60740413496195</v>
       </c>
       <c r="T11">
-        <v>38.27028056233824</v>
+        <v>42.71571580116878</v>
       </c>
     </row>
     <row r="12">
@@ -1106,61 +1106,61 @@
         </is>
       </c>
       <c r="B12">
-        <v>9.054257878622691</v>
+        <v>9.434903774033438</v>
       </c>
       <c r="C12">
-        <v>10.21995996970345</v>
+        <v>10.83010683356635</v>
       </c>
       <c r="D12">
-        <v>9.620313920393334</v>
+        <v>9.730719751457457</v>
       </c>
       <c r="E12">
-        <v>8.842070509666009</v>
+        <v>9.111177003438451</v>
       </c>
       <c r="F12">
-        <v>7.38204719843388</v>
+        <v>7.725317797295171</v>
       </c>
       <c r="G12">
-        <v>8.204564023597806</v>
+        <v>8.475743944959166</v>
       </c>
       <c r="H12">
-        <v>8.719469072164948</v>
+        <v>9.379427752577316</v>
       </c>
       <c r="I12">
-        <v>8.786383990400291</v>
+        <v>9.265822593454574</v>
       </c>
       <c r="J12">
-        <v>7.653858847369837</v>
+        <v>8.101192002724341</v>
       </c>
       <c r="K12">
-        <v>8.714204954102271</v>
+        <v>9.074277861054085</v>
       </c>
       <c r="L12">
-        <v>9.492322952846893</v>
+        <v>10.23329084901688</v>
       </c>
       <c r="M12">
-        <v>10.63197766611751</v>
+        <v>11.01589439975633</v>
       </c>
       <c r="N12">
-        <v>8.19693775564197</v>
+        <v>8.419860410035021</v>
       </c>
       <c r="O12">
-        <v>9.84570587108858</v>
+        <v>10.33206001652789</v>
       </c>
       <c r="P12">
-        <v>10.71935828089929</v>
+        <v>11.6050452588586</v>
       </c>
       <c r="Q12">
-        <v>9.972754840548152</v>
+        <v>10.43487053570061</v>
       </c>
       <c r="R12">
-        <v>10.2056466778957</v>
+        <v>10.87060187077889</v>
       </c>
       <c r="S12">
-        <v>8.215993567280735</v>
+        <v>8.534207893221863</v>
       </c>
       <c r="T12">
-        <v>10.41982872076212</v>
+        <v>11.63018498408773</v>
       </c>
     </row>
     <row r="13">
@@ -1170,61 +1170,61 @@
         </is>
       </c>
       <c r="B13">
-        <v>3.857215461732989</v>
+        <v>4.019374884725575</v>
       </c>
       <c r="C13">
-        <v>4.16718486991187</v>
+        <v>4.415972026324519</v>
       </c>
       <c r="D13">
-        <v>3.93019180375974</v>
+        <v>3.975295954822386</v>
       </c>
       <c r="E13">
-        <v>3.369436547464939</v>
+        <v>3.471984616300828</v>
       </c>
       <c r="F13">
-        <v>3.48907335500619</v>
+        <v>3.651317820240446</v>
       </c>
       <c r="G13">
-        <v>2.789238290412071</v>
+        <v>2.881429102510866</v>
       </c>
       <c r="H13">
-        <v>3.530087628865979</v>
+        <v>3.797272701030926</v>
       </c>
       <c r="I13">
-        <v>3.792606629645642</v>
+        <v>3.999554337193862</v>
       </c>
       <c r="J13">
-        <v>2.938491145903404</v>
+        <v>3.110232556672947</v>
       </c>
       <c r="K13">
-        <v>3.322340861032537</v>
+        <v>3.459620732003854</v>
       </c>
       <c r="L13">
-        <v>3.782667336792023</v>
+        <v>4.077941219947579</v>
       </c>
       <c r="M13">
-        <v>3.725387092160194</v>
+        <v>3.859909425528171</v>
       </c>
       <c r="N13">
-        <v>2.809206050578265</v>
+        <v>2.885604784861795</v>
       </c>
       <c r="O13">
-        <v>3.869130626677495</v>
+        <v>4.060256356429033</v>
       </c>
       <c r="P13">
-        <v>4.190307981013357</v>
+        <v>4.536532177944586</v>
       </c>
       <c r="Q13">
-        <v>3.572289298142222</v>
+        <v>3.737821388190667</v>
       </c>
       <c r="R13">
-        <v>3.482699587905349</v>
+        <v>3.70961702384262</v>
       </c>
       <c r="S13">
-        <v>3.638114695968495</v>
+        <v>3.779022816963689</v>
       </c>
       <c r="T13">
-        <v>4.845789054114279</v>
+        <v>5.408670776029274</v>
       </c>
     </row>
     <row r="14">
@@ -1234,61 +1234,61 @@
         </is>
       </c>
       <c r="B14">
-        <v>7.752343400974658</v>
+        <v>8.078256108007526</v>
       </c>
       <c r="C14">
-        <v>7.003947231100048</v>
+        <v>7.422093334449306</v>
       </c>
       <c r="D14">
-        <v>6.851867660125462</v>
+        <v>6.930501907367012</v>
       </c>
       <c r="E14">
-        <v>7.740993002945304</v>
+        <v>7.976588442165377</v>
       </c>
       <c r="F14">
-        <v>5.101825922530488</v>
+        <v>5.339064562793401</v>
       </c>
       <c r="G14">
-        <v>6.316573865336762</v>
+        <v>6.525351321292807</v>
       </c>
       <c r="H14">
-        <v>6.986768041237113</v>
+        <v>7.515582144329893</v>
       </c>
       <c r="I14">
-        <v>6.427679705794271</v>
+        <v>6.778413043011642</v>
       </c>
       <c r="J14">
-        <v>5.962064232140454</v>
+        <v>6.310519705199787</v>
       </c>
       <c r="K14">
-        <v>8.017302319664049</v>
+        <v>8.348579053153539</v>
       </c>
       <c r="L14">
-        <v>7.155511560172125</v>
+        <v>7.714068656585561</v>
       </c>
       <c r="M14">
-        <v>6.922754443572062</v>
+        <v>7.172732515124043</v>
       </c>
       <c r="N14">
-        <v>5.531376246188993</v>
+        <v>5.68180670107422</v>
       </c>
       <c r="O14">
-        <v>8.156690366204453</v>
+        <v>8.55961121561937</v>
       </c>
       <c r="P14">
-        <v>7.231850461787541</v>
+        <v>7.829382106192739</v>
       </c>
       <c r="Q14">
-        <v>6.039000156270268</v>
+        <v>6.31883424422898</v>
       </c>
       <c r="R14">
-        <v>5.860391694330428</v>
+        <v>6.242229123399454</v>
       </c>
       <c r="S14">
-        <v>7.173204720664797</v>
+        <v>7.451030705596714</v>
       </c>
       <c r="T14">
-        <v>6.315717893512272</v>
+        <v>7.049344991871245</v>
       </c>
     </row>
     <row r="15">
@@ -1298,61 +1298,61 @@
         </is>
       </c>
       <c r="B15">
-        <v>1.583983310312604</v>
+        <v>1.65057482488534</v>
       </c>
       <c r="C15">
-        <v>1.74927332715416</v>
+        <v>1.853707555640976</v>
       </c>
       <c r="D15">
-        <v>1.42547725216028</v>
+        <v>1.441836489705964</v>
       </c>
       <c r="E15">
-        <v>1.294114512645789</v>
+        <v>1.333500606508922</v>
       </c>
       <c r="F15">
-        <v>1.741687291341391</v>
+        <v>1.822677025416066</v>
       </c>
       <c r="G15">
-        <v>1.74550033499606</v>
+        <v>1.803193180370785</v>
       </c>
       <c r="H15">
-        <v>1.622953608247423</v>
+        <v>1.745791628865979</v>
       </c>
       <c r="I15">
-        <v>1.326723312308417</v>
+        <v>1.399117413475366</v>
       </c>
       <c r="J15">
-        <v>1.418266724404682</v>
+        <v>1.50115794850666</v>
       </c>
       <c r="K15">
-        <v>1.634141711989839</v>
+        <v>1.701664814752116</v>
       </c>
       <c r="L15">
-        <v>1.529459859253286</v>
+        <v>1.648849039311416</v>
       </c>
       <c r="M15">
-        <v>2.395331535289778</v>
+        <v>2.481826060380923</v>
       </c>
       <c r="N15">
-        <v>1.130050897424053</v>
+        <v>1.160783587260526</v>
       </c>
       <c r="O15">
-        <v>2.018710107513228</v>
+        <v>2.118429522462676</v>
       </c>
       <c r="P15">
-        <v>2.009051771718733</v>
+        <v>2.175049674356994</v>
       </c>
       <c r="Q15">
-        <v>1.479343215470144</v>
+        <v>1.547892751613006</v>
       </c>
       <c r="R15">
-        <v>1.148815023466501</v>
+        <v>1.223666773642295</v>
       </c>
       <c r="S15">
-        <v>1.474596599252436</v>
+        <v>1.531709322019757</v>
       </c>
       <c r="T15">
-        <v>2.225824540259827</v>
+        <v>2.484373960366829</v>
       </c>
     </row>
     <row r="16">
@@ -1362,61 +1362,61 @@
         </is>
       </c>
       <c r="B16">
-        <v>1.439915895779624</v>
+        <v>1.500450738371116</v>
       </c>
       <c r="C16">
-        <v>1.40962339075418</v>
+        <v>1.493780011097713</v>
       </c>
       <c r="D16">
-        <v>1.619960970284474</v>
+        <v>1.638552165820886</v>
       </c>
       <c r="E16">
-        <v>1.597259269242945</v>
+        <v>1.645871507872078</v>
       </c>
       <c r="F16">
-        <v>1.631985924115799</v>
+        <v>1.707874464306015</v>
       </c>
       <c r="G16">
-        <v>1.320168212550081</v>
+        <v>1.363802842133496</v>
       </c>
       <c r="H16">
-        <v>1.426716494845361</v>
+        <v>1.534701731958762</v>
       </c>
       <c r="I16">
-        <v>1.241745650642962</v>
+        <v>1.309502853235455</v>
       </c>
       <c r="J16">
-        <v>1.140519894389883</v>
+        <v>1.207178082537334</v>
       </c>
       <c r="K16">
-        <v>1.22140587503219</v>
+        <v>1.271874640261751</v>
       </c>
       <c r="L16">
-        <v>1.296680330835315</v>
+        <v>1.397898810391564</v>
       </c>
       <c r="M16">
-        <v>1.614077837243787</v>
+        <v>1.6723615837464</v>
       </c>
       <c r="N16">
-        <v>1.255297615548071</v>
+        <v>1.289436495804742</v>
       </c>
       <c r="O16">
-        <v>1.473298850727729</v>
+        <v>1.546076263835966</v>
       </c>
       <c r="P16">
-        <v>1.258417043823822</v>
+        <v>1.362393752069765</v>
       </c>
       <c r="Q16">
-        <v>1.229938932030604</v>
+        <v>1.286931617969242</v>
       </c>
       <c r="R16">
-        <v>1.367852733397655</v>
+        <v>1.45697602042485</v>
       </c>
       <c r="S16">
-        <v>1.197773786877586</v>
+        <v>1.244164862418235</v>
       </c>
       <c r="T16">
-        <v>1.0805280238025</v>
+        <v>1.206041014117041</v>
       </c>
     </row>
     <row r="17">
@@ -1426,61 +1426,61 @@
         </is>
       </c>
       <c r="B17">
-        <v>21.68745363406467</v>
+        <v>22.59920590778866</v>
       </c>
       <c r="C17">
-        <v>21.63402554540504</v>
+        <v>22.92560916005609</v>
       </c>
       <c r="D17">
-        <v>18.70506093519467</v>
+        <v>18.91972625846208</v>
       </c>
       <c r="E17">
-        <v>22.18601487592426</v>
+        <v>22.8612414156263</v>
       </c>
       <c r="F17">
-        <v>20.58539032522843</v>
+        <v>21.54262604518343</v>
       </c>
       <c r="G17">
-        <v>17.57184500503789</v>
+        <v>18.15263534721022</v>
       </c>
       <c r="H17">
-        <v>19.88536082474227</v>
+        <v>21.39044288659793</v>
       </c>
       <c r="I17">
-        <v>19.71711419994419</v>
+        <v>20.79299999080095</v>
       </c>
       <c r="J17">
-        <v>18.63927334185389</v>
+        <v>19.72865389143012</v>
       </c>
       <c r="K17">
-        <v>22.37612641035348</v>
+        <v>23.30071298197231</v>
       </c>
       <c r="L17">
-        <v>22.25667364317456</v>
+        <v>23.99402294397758</v>
       </c>
       <c r="M17">
-        <v>20.33799651573322</v>
+        <v>21.07239395676257</v>
       </c>
       <c r="N17">
-        <v>21.76320939334638</v>
+        <v>22.35507827788649</v>
       </c>
       <c r="O17">
-        <v>22.17827288637022</v>
+        <v>23.2738261253355</v>
       </c>
       <c r="P17">
-        <v>19.25083710490488</v>
+        <v>20.84143752069765</v>
       </c>
       <c r="Q17">
-        <v>18.18054731363238</v>
+        <v>19.02299419961535</v>
       </c>
       <c r="R17">
-        <v>17.56455842913444</v>
+        <v>18.70898804802865</v>
       </c>
       <c r="S17">
-        <v>29.76337959718329</v>
+        <v>30.91614751243158</v>
       </c>
       <c r="T17">
-        <v>25.77470063795553</v>
+        <v>28.76866255311936</v>
       </c>
     </row>
     <row r="18">
@@ -1490,61 +1490,61 @@
         </is>
       </c>
       <c r="B18">
-        <v>22.58901234922105</v>
+        <v>23.53866663865925</v>
       </c>
       <c r="C18">
-        <v>21.9561599021252</v>
+        <v>23.26697541867</v>
       </c>
       <c r="D18">
-        <v>21.46098362270454</v>
+        <v>21.70727680522694</v>
       </c>
       <c r="E18">
-        <v>20.49537308395943</v>
+        <v>21.11914530825385</v>
       </c>
       <c r="F18">
-        <v>23.64491871635779</v>
+        <v>24.74442474627218</v>
       </c>
       <c r="G18">
-        <v>19.9649615867733</v>
+        <v>20.62484999735939</v>
       </c>
       <c r="H18">
-        <v>19.46890206185567</v>
+        <v>20.94246321649484</v>
       </c>
       <c r="I18">
-        <v>22.30931566300034</v>
+        <v>23.52664774730851</v>
       </c>
       <c r="J18">
-        <v>20.04207062256155</v>
+        <v>21.21343827778152</v>
       </c>
       <c r="K18">
-        <v>23.04453931445304</v>
+        <v>23.9967448574744</v>
       </c>
       <c r="L18">
-        <v>22.22880567146255</v>
+        <v>23.96397960671253</v>
       </c>
       <c r="M18">
-        <v>22.68714556640945</v>
+        <v>23.50636990029811</v>
       </c>
       <c r="N18">
-        <v>20.82279759455078</v>
+        <v>21.3890911849189</v>
       </c>
       <c r="O18">
-        <v>22.09642295021868</v>
+        <v>23.18793299956683</v>
       </c>
       <c r="P18">
-        <v>23.30058505353792</v>
+        <v>25.2257958935865</v>
       </c>
       <c r="Q18">
-        <v>17.44941694848086</v>
+        <v>18.25798484893363</v>
       </c>
       <c r="R18">
-        <v>23.34035624928456</v>
+        <v>24.8611115312914</v>
       </c>
       <c r="S18">
-        <v>26.83568719963957</v>
+        <v>27.87506241865238</v>
       </c>
       <c r="T18">
-        <v>19.50479460510155</v>
+        <v>21.77045087909811</v>
       </c>
     </row>
     <row r="19">
@@ -1554,61 +1554,61 @@
         </is>
       </c>
       <c r="B19">
-        <v>8.962509683051687</v>
+        <v>9.339298434727011</v>
       </c>
       <c r="C19">
-        <v>10.22072151664605</v>
+        <v>10.83091384599806</v>
       </c>
       <c r="D19">
-        <v>10.78795290988896</v>
+        <v>10.91175894328379</v>
       </c>
       <c r="E19">
-        <v>9.203056679590896</v>
+        <v>9.483149708969748</v>
       </c>
       <c r="F19">
-        <v>9.405111373243512</v>
+        <v>9.842455937246756</v>
       </c>
       <c r="G19">
-        <v>9.249014428130142</v>
+        <v>9.554715864315725</v>
       </c>
       <c r="H19">
-        <v>8.813226804123712</v>
+        <v>9.480281814432985</v>
       </c>
       <c r="I19">
-        <v>8.668487054395966</v>
+        <v>9.141492482851454</v>
       </c>
       <c r="J19">
-        <v>9.182521147248755</v>
+        <v>9.719197644793493</v>
       </c>
       <c r="K19">
-        <v>10.31693491212896</v>
+        <v>10.74323298111047</v>
       </c>
       <c r="L19">
-        <v>8.365309390964114</v>
+        <v>9.01830294491549</v>
       </c>
       <c r="M19">
-        <v>10.80208315111078</v>
+        <v>11.19214233013685</v>
       </c>
       <c r="N19">
-        <v>9.636213601202725</v>
+        <v>9.898278579407538</v>
       </c>
       <c r="O19">
-        <v>7.977691440415104</v>
+        <v>8.371770174218739</v>
       </c>
       <c r="P19">
-        <v>12.91459690179196</v>
+        <v>13.98166547080252</v>
       </c>
       <c r="Q19">
-        <v>8.311653982900152</v>
+        <v>8.696797889432148</v>
       </c>
       <c r="R19">
-        <v>12.88394915864009</v>
+        <v>13.72341079867868</v>
       </c>
       <c r="S19">
-        <v>9.615337363169136</v>
+        <v>9.987749789330529</v>
       </c>
       <c r="T19">
-        <v>7.466543427635254</v>
+        <v>8.333849200620168</v>
       </c>
     </row>
     <row r="20">
@@ -1618,61 +1618,61 @@
         </is>
       </c>
       <c r="B20">
-        <v>0.5702036617305304</v>
+        <v>0.5941753318878775</v>
       </c>
       <c r="C20">
-        <v>0.8034320244439003</v>
+        <v>0.8513981154554765</v>
       </c>
       <c r="D20">
-        <v>1.400430106644286</v>
+        <v>1.4165018950548</v>
       </c>
       <c r="E20">
-        <v>1.006301215002972</v>
+        <v>1.036927773720454</v>
       </c>
       <c r="F20">
-        <v>0.6261526090343897</v>
+        <v>0.6552691637385367</v>
       </c>
       <c r="G20">
-        <v>1.372889447158126</v>
+        <v>1.418266636152858</v>
       </c>
       <c r="H20">
-        <v>0.4876855670103093</v>
+        <v>0.5245974845360823</v>
       </c>
       <c r="I20">
-        <v>0.622403954360498</v>
+        <v>0.6563661033788071</v>
       </c>
       <c r="J20">
-        <v>1.62640105778286</v>
+        <v>1.721456784777345</v>
       </c>
       <c r="K20">
-        <v>1.265236229399374</v>
+        <v>1.317516074720905</v>
       </c>
       <c r="L20">
-        <v>1.291762453474372</v>
+        <v>1.392597044991849</v>
       </c>
       <c r="M20">
-        <v>1.012935829190664</v>
+        <v>1.049512562808899</v>
       </c>
       <c r="N20">
-        <v>1.205765015160041</v>
+        <v>1.238556814459572</v>
       </c>
       <c r="O20">
-        <v>0.697636838973878</v>
+        <v>0.7320984177665633</v>
       </c>
       <c r="P20">
-        <v>1.465209552194871</v>
+        <v>1.586272491444973</v>
       </c>
       <c r="Q20">
-        <v>0.8807729352152495</v>
+        <v>0.9215860308679742</v>
       </c>
       <c r="R20">
-        <v>0.6540919200013082</v>
+        <v>0.696709681771353</v>
       </c>
       <c r="S20">
-        <v>0.7095264317180617</v>
+        <v>0.7370071585903083</v>
       </c>
       <c r="T20">
-        <v>0.4960318705760012</v>
+        <v>0.5536504070654253</v>
       </c>
     </row>
     <row r="21">
@@ -1682,61 +1682,61 @@
         </is>
       </c>
       <c r="B21">
-        <v>25.64324153732023</v>
+        <v>26.72129727276081</v>
       </c>
       <c r="C21">
-        <v>23.47773069344171</v>
+        <v>24.87938625722928</v>
       </c>
       <c r="D21">
-        <v>22.29269618998566</v>
+        <v>22.54853437467295</v>
       </c>
       <c r="E21">
-        <v>22.09751054468785</v>
+        <v>22.77004347430878</v>
       </c>
       <c r="F21">
-        <v>22.53437045983377</v>
+        <v>23.58223518282692</v>
       </c>
       <c r="G21">
-        <v>19.22045226021376</v>
+        <v>19.85573290614001</v>
       </c>
       <c r="H21">
-        <v>22.80711340206186</v>
+        <v>24.53333690721648</v>
       </c>
       <c r="I21">
-        <v>24.74687309311575</v>
+        <v>26.09721315094704</v>
       </c>
       <c r="J21">
-        <v>19.89932984662989</v>
+        <v>21.06235495425805</v>
       </c>
       <c r="K21">
-        <v>23.7056471594914</v>
+        <v>24.68516982723331</v>
       </c>
       <c r="L21">
-        <v>25.81639720627049</v>
+        <v>27.83161746580474</v>
       </c>
       <c r="M21">
-        <v>24.04952886250935</v>
+        <v>24.91794834723713</v>
       </c>
       <c r="N21">
-        <v>19.52645868153834</v>
+        <v>20.05749723885673</v>
       </c>
       <c r="O21">
-        <v>23.82292113614417</v>
+        <v>24.99971603564044</v>
       </c>
       <c r="P21">
-        <v>26.78367737425029</v>
+        <v>28.99667871729773</v>
       </c>
       <c r="Q21">
-        <v>18.76135180931351</v>
+        <v>19.63071190810083</v>
       </c>
       <c r="R21">
-        <v>22.6696476754264</v>
+        <v>24.14670252735033</v>
       </c>
       <c r="S21">
-        <v>18.29091055099453</v>
+        <v>18.99933731936657</v>
       </c>
       <c r="T21">
-        <v>19.51032362276721</v>
+        <v>21.77662214159725</v>
       </c>
     </row>
     <row r="22">
@@ -1746,61 +1746,61 @@
         </is>
       </c>
       <c r="B22">
-        <v>69.56712147977522</v>
+        <v>72.49176087063444</v>
       </c>
       <c r="C22">
-        <v>61.96326698471843</v>
+        <v>65.66256650619417</v>
       </c>
       <c r="D22">
-        <v>65.0238631210229</v>
+        <v>65.77009798469592</v>
       </c>
       <c r="E22">
-        <v>68.53162152589496</v>
+        <v>70.61736652885696</v>
       </c>
       <c r="F22">
-        <v>69.09690207477448</v>
+        <v>72.30995860463517</v>
       </c>
       <c r="G22">
-        <v>70.7518968439954</v>
+        <v>73.09041157398444</v>
       </c>
       <c r="H22">
-        <v>61.1111443298969</v>
+        <v>65.73652115463914</v>
       </c>
       <c r="I22">
-        <v>74.81555823349819</v>
+        <v>78.89795057662644</v>
       </c>
       <c r="J22">
-        <v>60.11144558051931</v>
+        <v>63.62468552401456</v>
       </c>
       <c r="K22">
-        <v>68.11017916888537</v>
+        <v>70.92450707780196</v>
       </c>
       <c r="L22">
-        <v>70.33630166243421</v>
+        <v>75.82673237429286</v>
       </c>
       <c r="M22">
-        <v>79.69095603299866</v>
+        <v>82.56856662451108</v>
       </c>
       <c r="N22">
-        <v>59.44195089994373</v>
+        <v>61.05852502456682</v>
       </c>
       <c r="O22">
-        <v>75.04338725549931</v>
+        <v>78.7503497584818</v>
       </c>
       <c r="P22">
-        <v>58.58409684659822</v>
+        <v>63.42460784854843</v>
       </c>
       <c r="Q22">
-        <v>54.87919184779889</v>
+        <v>57.42217383177762</v>
       </c>
       <c r="R22">
-        <v>62.90385377998724</v>
+        <v>67.00239310272931</v>
       </c>
       <c r="S22">
-        <v>58.81185756240821</v>
+        <v>61.08970447870776</v>
       </c>
       <c r="T22">
-        <v>59.94481967137654</v>
+        <v>66.9079464067139</v>
       </c>
     </row>
     <row r="23">
@@ -1810,61 +1810,61 @@
         </is>
       </c>
       <c r="B23">
-        <v>6.57857309730596</v>
+        <v>6.855139866302161</v>
       </c>
       <c r="C23">
-        <v>6.510464812294694</v>
+        <v>6.899149278700349</v>
       </c>
       <c r="D23">
-        <v>6.62570666973104</v>
+        <v>6.701745420369736</v>
       </c>
       <c r="E23">
-        <v>7.959814735293596</v>
+        <v>8.202069966367748</v>
       </c>
       <c r="F23">
-        <v>11.95744902758961</v>
+        <v>12.51347916099554</v>
       </c>
       <c r="G23">
-        <v>6.194032617328876</v>
+        <v>6.398759800058613</v>
       </c>
       <c r="H23">
-        <v>5.072365979381443</v>
+        <v>5.45628292783505</v>
       </c>
       <c r="I23">
-        <v>4.457882197098623</v>
+        <v>4.701131389882895</v>
       </c>
       <c r="J23">
-        <v>6.188480635342392</v>
+        <v>6.550169114926682</v>
       </c>
       <c r="K23">
-        <v>5.629278512558648</v>
+        <v>5.861881565703981</v>
       </c>
       <c r="L23">
-        <v>4.21544054455501</v>
+        <v>4.544496575122513</v>
       </c>
       <c r="M23">
-        <v>5.54651640208809</v>
+        <v>5.746799033131405</v>
       </c>
       <c r="N23">
-        <v>12.74261525410917</v>
+        <v>13.08916145234035</v>
       </c>
       <c r="O23">
-        <v>4.380883965793201</v>
+        <v>4.597289077356479</v>
       </c>
       <c r="P23">
-        <v>4.769474187732274</v>
+        <v>5.163551992493653</v>
       </c>
       <c r="Q23">
-        <v>6.34101849402445</v>
+        <v>6.634847452641427</v>
       </c>
       <c r="R23">
-        <v>4.119419551601773</v>
+        <v>4.387822868800184</v>
       </c>
       <c r="S23">
-        <v>14.49064398111067</v>
+        <v>15.05188231085636</v>
       </c>
       <c r="T23">
-        <v>13.4765856302034</v>
+        <v>15.04201153718199</v>
       </c>
     </row>
     <row r="24">
@@ -1874,61 +1874,61 @@
         </is>
       </c>
       <c r="B24">
-        <v>2.330859117233577</v>
+        <v>2.428849694445925</v>
       </c>
       <c r="C24">
-        <v>2.348610770981032</v>
+        <v>2.488826339397811</v>
       </c>
       <c r="D24">
-        <v>2.890735264845964</v>
+        <v>2.92391027679907</v>
       </c>
       <c r="E24">
-        <v>1.7979620046452</v>
+        <v>1.852682587395271</v>
       </c>
       <c r="F24">
-        <v>2.368552246916207</v>
+        <v>2.478691660330642</v>
       </c>
       <c r="G24">
-        <v>1.468357628745665</v>
+        <v>1.516890263160893</v>
       </c>
       <c r="H24">
-        <v>2.359932989690722</v>
+        <v>2.538551463917524</v>
       </c>
       <c r="I24">
-        <v>1.881757588952158</v>
+        <v>1.984437739366676</v>
       </c>
       <c r="J24">
-        <v>2.453313139042109</v>
+        <v>2.596698107258174</v>
       </c>
       <c r="K24">
-        <v>3.163821079404556</v>
+        <v>3.294550877376582</v>
       </c>
       <c r="L24">
-        <v>3.215472147829925</v>
+        <v>3.466470943847097</v>
       </c>
       <c r="M24">
-        <v>2.398410367597348</v>
+        <v>2.485016068170616</v>
       </c>
       <c r="N24">
-        <v>1.804401871278231</v>
+        <v>1.853474106145485</v>
       </c>
       <c r="O24">
-        <v>2.36599862165154</v>
+        <v>2.482873252359628</v>
       </c>
       <c r="P24">
-        <v>2.983405085182324</v>
+        <v>3.229908930345514</v>
       </c>
       <c r="Q24">
-        <v>2.00753365683662</v>
+        <v>2.100558385329797</v>
       </c>
       <c r="R24">
-        <v>2.784044823469771</v>
+        <v>2.965440978070678</v>
       </c>
       <c r="S24">
-        <v>0.9245344413295955</v>
+        <v>0.9603426611934319</v>
       </c>
       <c r="T24">
-        <v>2.823748307817205</v>
+        <v>3.151751919202063</v>
       </c>
     </row>
     <row r="25">
@@ -1938,61 +1938,61 @@
         </is>
       </c>
       <c r="B25">
-        <v>24.08428046216335</v>
+        <v>25.09679663132268</v>
       </c>
       <c r="C25">
-        <v>24.59796624600756</v>
+        <v>26.06650154427668</v>
       </c>
       <c r="D25">
-        <v>25.01178483997201</v>
+        <v>25.29882816459787</v>
       </c>
       <c r="E25">
-        <v>24.5170935214817</v>
+        <v>25.26326593300505</v>
       </c>
       <c r="F25">
-        <v>23.51812103216198</v>
+        <v>24.61173087693718</v>
       </c>
       <c r="G25">
-        <v>21.88002481145469</v>
+        <v>22.60321051525191</v>
       </c>
       <c r="H25">
-        <v>23.80501546391753</v>
+        <v>25.60676812371133</v>
       </c>
       <c r="I25">
-        <v>23.35660792568811</v>
+        <v>24.63108665188687</v>
       </c>
       <c r="J25">
-        <v>22.78860003531549</v>
+        <v>24.12048981316428</v>
       </c>
       <c r="K25">
-        <v>24.54134591609236</v>
+        <v>25.5553998442545</v>
       </c>
       <c r="L25">
-        <v>27.53765428260056</v>
+        <v>29.68723535570505</v>
       </c>
       <c r="M25">
-        <v>23.61849233944949</v>
+        <v>24.47134725668015</v>
       </c>
       <c r="N25">
-        <v>23.60016125916531</v>
+        <v>24.24198760320166</v>
       </c>
       <c r="O25">
-        <v>21.99697910255793</v>
+        <v>23.08357686545537</v>
       </c>
       <c r="P25">
-        <v>21.85156566214078</v>
+        <v>23.65705127497517</v>
       </c>
       <c r="Q25">
-        <v>21.35925615352481</v>
+        <v>22.34899747005586</v>
       </c>
       <c r="R25">
-        <v>25.65082643783421</v>
+        <v>27.32212182752531</v>
       </c>
       <c r="S25">
-        <v>32.61581919136296</v>
+        <v>33.87906518029968</v>
       </c>
       <c r="T25">
-        <v>24.48170036385854</v>
+        <v>27.32546873724978</v>
       </c>
     </row>
     <row r="26">
@@ -2002,61 +2002,61 @@
         </is>
       </c>
       <c r="B26">
-        <v>5.256185881803241</v>
+        <v>5.477158777455807</v>
       </c>
       <c r="C26">
-        <v>5.869242286624777</v>
+        <v>6.219644811199392</v>
       </c>
       <c r="D26">
-        <v>5.517002140273044</v>
+        <v>5.580317039487319</v>
       </c>
       <c r="E26">
-        <v>4.603618993289222</v>
+        <v>4.743729136563241</v>
       </c>
       <c r="F26">
-        <v>5.508575797113693</v>
+        <v>5.764728604311836</v>
       </c>
       <c r="G26">
-        <v>4.551837404199929</v>
+        <v>4.70228621607712</v>
       </c>
       <c r="H26">
-        <v>4.857958762886598</v>
+        <v>5.225647670103091</v>
       </c>
       <c r="I26">
-        <v>4.518361794139802</v>
+        <v>4.764911121945534</v>
       </c>
       <c r="J26">
-        <v>5.468448346898964</v>
+        <v>5.788054221882149</v>
       </c>
       <c r="K26">
-        <v>5.358991327294348</v>
+        <v>5.580426053205866</v>
       </c>
       <c r="L26">
-        <v>5.362945262108386</v>
+        <v>5.781575168389384</v>
       </c>
       <c r="M26">
-        <v>4.903040449805875</v>
+        <v>5.08008740508563</v>
       </c>
       <c r="N26">
-        <v>5.25611650974694</v>
+        <v>5.399061043313202</v>
       </c>
       <c r="O26">
-        <v>4.553763270188043</v>
+        <v>4.77870820281179</v>
       </c>
       <c r="P26">
-        <v>5.818890973985356</v>
+        <v>6.299676840710897</v>
       </c>
       <c r="Q26">
-        <v>5.333835168572722</v>
+        <v>5.580993449926615</v>
       </c>
       <c r="R26">
-        <v>5.312042117054505</v>
+        <v>5.65815149179899</v>
       </c>
       <c r="S26">
-        <v>5.938700398811907</v>
+        <v>6.168712694817112</v>
       </c>
       <c r="T26">
-        <v>5.247037764707605</v>
+        <v>5.856528111680925</v>
       </c>
     </row>
     <row r="27">
@@ -2066,61 +2066,61 @@
         </is>
       </c>
       <c r="B27">
-        <v>9.184676801252545</v>
+        <v>9.570805578667366</v>
       </c>
       <c r="C27">
-        <v>9.603868493139363</v>
+        <v>10.17723377631186</v>
       </c>
       <c r="D27">
-        <v>8.522659602192396</v>
+        <v>8.620468397627027</v>
       </c>
       <c r="E27">
-        <v>10.97871838030251</v>
+        <v>11.31285328752911</v>
       </c>
       <c r="F27">
-        <v>12.84075873771776</v>
+        <v>13.43786341928426</v>
       </c>
       <c r="G27">
-        <v>8.888515175269731</v>
+        <v>9.182301272777924</v>
       </c>
       <c r="H27">
-        <v>7.473</v>
+        <v>8.038615999999996</v>
       </c>
       <c r="I27">
-        <v>8.36838576274859</v>
+        <v>8.825015837679876</v>
       </c>
       <c r="J27">
-        <v>10.16975291773174</v>
+        <v>10.76412861142877</v>
       </c>
       <c r="K27">
-        <v>9.875709344832647</v>
+        <v>10.28377587422166</v>
       </c>
       <c r="L27">
-        <v>8.039909838915049</v>
+        <v>8.66750280096767</v>
       </c>
       <c r="M27">
-        <v>10.01621120460343</v>
+        <v>10.37789284181779</v>
       </c>
       <c r="N27">
-        <v>8.636362681941492</v>
+        <v>8.871235868825744</v>
       </c>
       <c r="O27">
-        <v>9.867889498643668</v>
+        <v>10.35533946182968</v>
       </c>
       <c r="P27">
-        <v>8.794936895168711</v>
+        <v>9.521618556132028</v>
       </c>
       <c r="Q27">
-        <v>8.610255823620916</v>
+        <v>9.00923628779468</v>
       </c>
       <c r="R27">
-        <v>7.31812541904466</v>
+        <v>7.794942386469559</v>
       </c>
       <c r="S27">
-        <v>12.10943027466293</v>
+        <v>12.57844161952676</v>
       </c>
       <c r="T27">
-        <v>10.49170595041564</v>
+        <v>11.71041139657651</v>
       </c>
     </row>
     <row r="28">
@@ -2130,61 +2130,61 @@
         </is>
       </c>
       <c r="B28">
-        <v>16.55865367669059</v>
+        <v>17.25478842788227</v>
       </c>
       <c r="C28">
-        <v>20.24115618738808</v>
+        <v>21.44958342245603</v>
       </c>
       <c r="D28">
-        <v>19.50804295320744</v>
+        <v>19.73192355757294</v>
       </c>
       <c r="E28">
-        <v>17.86324033529861</v>
+        <v>18.40690417159031</v>
       </c>
       <c r="F28">
-        <v>19.60377679252151</v>
+        <v>20.51536676460128</v>
       </c>
       <c r="G28">
-        <v>17.15007512817353</v>
+        <v>17.71692499505532</v>
       </c>
       <c r="H28">
-        <v>16.28259278350515</v>
+        <v>17.51498874226803</v>
       </c>
       <c r="I28">
-        <v>15.62976523028773</v>
+        <v>16.48262037709929</v>
       </c>
       <c r="J28">
-        <v>21.84074503060675</v>
+        <v>23.11723700474237</v>
       </c>
       <c r="K28">
-        <v>20.36066061536915</v>
+        <v>21.20196768742555</v>
       </c>
       <c r="L28">
-        <v>16.32571354587725</v>
+        <v>17.6000938719211</v>
       </c>
       <c r="M28">
-        <v>16.85044921933284</v>
+        <v>17.45891263298816</v>
       </c>
       <c r="N28">
-        <v>22.39015059254344</v>
+        <v>22.99906967319821</v>
       </c>
       <c r="O28">
-        <v>17.20378564530978</v>
+        <v>18.05361120128291</v>
       </c>
       <c r="P28">
-        <v>22.87964087279685</v>
+        <v>24.7700711999117</v>
       </c>
       <c r="Q28">
-        <v>19.44396791659049</v>
+        <v>20.34495895607376</v>
       </c>
       <c r="R28">
-        <v>20.74664764272048</v>
+        <v>22.09840824352832</v>
       </c>
       <c r="S28">
-        <v>22.15120019022827</v>
+        <v>23.00914015568682</v>
       </c>
       <c r="T28">
-        <v>18.26787436732764</v>
+        <v>20.38985129714834</v>
       </c>
     </row>
     <row r="29">
@@ -2194,61 +2194,61 @@
         </is>
       </c>
       <c r="B29">
-        <v>7.533967530524667</v>
+        <v>7.850699597922806</v>
       </c>
       <c r="C29">
-        <v>7.198903248405866</v>
+        <v>7.628688516967413</v>
       </c>
       <c r="D29">
-        <v>7.588548410595891</v>
+        <v>7.67563704416596</v>
       </c>
       <c r="E29">
-        <v>6.198787609038393</v>
+        <v>6.387446362356951</v>
       </c>
       <c r="F29">
-        <v>7.789509419557511</v>
+        <v>8.151727309989646</v>
       </c>
       <c r="G29">
-        <v>6.281663858636841</v>
+        <v>6.489287457685392</v>
       </c>
       <c r="H29">
-        <v>6.777448453608248</v>
+        <v>7.290419587628862</v>
       </c>
       <c r="I29">
-        <v>5.946905187542865</v>
+        <v>6.271404540032686</v>
       </c>
       <c r="J29">
-        <v>6.600530362908651</v>
+        <v>6.986301270516618</v>
       </c>
       <c r="K29">
-        <v>7.270725283609684</v>
+        <v>7.571153286199288</v>
       </c>
       <c r="L29">
-        <v>6.807981559998817</v>
+        <v>7.339410568339021</v>
       </c>
       <c r="M29">
-        <v>7.482332215472984</v>
+        <v>7.752516430900692</v>
       </c>
       <c r="N29">
-        <v>7.700904143184699</v>
+        <v>7.910336743992674</v>
       </c>
       <c r="O29">
-        <v>7.813991568112021</v>
+        <v>8.199983922681408</v>
       </c>
       <c r="P29">
-        <v>7.643963645729846</v>
+        <v>8.275546141958277</v>
       </c>
       <c r="Q29">
-        <v>6.531659028489193</v>
+        <v>6.83432185342666</v>
       </c>
       <c r="R29">
-        <v>6.933676472993081</v>
+        <v>7.385444432633973</v>
       </c>
       <c r="S29">
-        <v>8.837725061740755</v>
+        <v>9.180019721582564</v>
       </c>
       <c r="T29">
-        <v>7.848045646565523</v>
+        <v>8.759666313060617</v>
       </c>
     </row>
     <row r="30">
@@ -2258,61 +2258,61 @@
         </is>
       </c>
       <c r="B30">
-        <v>3.525102158756962</v>
+        <v>3.673299358971732</v>
       </c>
       <c r="C30">
-        <v>5.192227054652617</v>
+        <v>5.502210759407999</v>
       </c>
       <c r="D30">
-        <v>5.523632267027279</v>
+        <v>5.58702325571851</v>
       </c>
       <c r="E30">
-        <v>3.667006228078698</v>
+        <v>3.778610765455007</v>
       </c>
       <c r="F30">
-        <v>4.148706251440598</v>
+        <v>4.341624129252829</v>
       </c>
       <c r="G30">
-        <v>4.641605992856869</v>
+        <v>4.795021865353331</v>
       </c>
       <c r="H30">
-        <v>4.402252577319588</v>
+        <v>4.735450020618555</v>
       </c>
       <c r="I30">
-        <v>4.081990018019896</v>
+        <v>4.304728245037883</v>
       </c>
       <c r="J30">
-        <v>6.326299315552267</v>
+        <v>6.696042668673486</v>
       </c>
       <c r="K30">
-        <v>4.768012049243485</v>
+        <v>4.965027378581609</v>
       </c>
       <c r="L30">
-        <v>3.719554577326587</v>
+        <v>4.009901897317901</v>
       </c>
       <c r="M30">
-        <v>3.880868123692499</v>
+        <v>4.021004818907652</v>
       </c>
       <c r="N30">
-        <v>6.382629364286133</v>
+        <v>6.556210367620501</v>
       </c>
       <c r="O30">
-        <v>5.601748433997488</v>
+        <v>5.878461308447966</v>
       </c>
       <c r="P30">
-        <v>7.47985428855282</v>
+        <v>8.097877249144499</v>
       </c>
       <c r="Q30">
-        <v>5.821027645538178</v>
+        <v>6.090761363044431</v>
       </c>
       <c r="R30">
-        <v>6.475207887033736</v>
+        <v>6.897104043678763</v>
       </c>
       <c r="S30">
-        <v>4.417518730810305</v>
+        <v>4.588614013900012</v>
       </c>
       <c r="T30">
-        <v>5.777033600944065</v>
+        <v>6.44808770266962</v>
       </c>
     </row>
     <row r="31">
@@ -2322,61 +2322,61 @@
         </is>
       </c>
       <c r="B31">
-        <v>2.013910805261022</v>
+        <v>2.098576704114631</v>
       </c>
       <c r="C31">
-        <v>2.561843914909271</v>
+        <v>2.714789820276989</v>
       </c>
       <c r="D31">
-        <v>2.053129251561086</v>
+        <v>2.076691626258667</v>
       </c>
       <c r="E31">
-        <v>3.557595361904553</v>
+        <v>3.665870003353822</v>
       </c>
       <c r="F31">
-        <v>3.186326075325171</v>
+        <v>3.334492570423748</v>
       </c>
       <c r="G31">
-        <v>1.946410985799688</v>
+        <v>2.010744395417544</v>
       </c>
       <c r="H31">
-        <v>2.20730412371134</v>
+        <v>2.37437043298969</v>
       </c>
       <c r="I31">
-        <v>1.7431904109211</v>
+        <v>1.838309492488984</v>
       </c>
       <c r="J31">
-        <v>3.985491221579443</v>
+        <v>4.21842501345352</v>
       </c>
       <c r="K31">
-        <v>2.257263249909969</v>
+        <v>2.350533874646418</v>
       </c>
       <c r="L31">
-        <v>1.654046085730509</v>
+        <v>1.783160429437533</v>
       </c>
       <c r="M31">
-        <v>2.45228993297983</v>
+        <v>2.540841204490238</v>
       </c>
       <c r="N31">
-        <v>4.687199213861569</v>
+        <v>4.81467156043439</v>
       </c>
       <c r="O31">
-        <v>1.399863393993637</v>
+        <v>1.469013272492117</v>
       </c>
       <c r="P31">
-        <v>3.55300437870258</v>
+        <v>3.846571365492881</v>
       </c>
       <c r="Q31">
-        <v>3.238839187680592</v>
+        <v>3.388919927319006</v>
       </c>
       <c r="R31">
-        <v>1.672239619957155</v>
+        <v>1.781195421988193</v>
       </c>
       <c r="S31">
-        <v>1.579413003938059</v>
+        <v>1.64058537953878</v>
       </c>
       <c r="T31">
-        <v>1.788242285006476</v>
+        <v>1.995962614006565</v>
       </c>
     </row>
     <row r="32">
@@ -2386,61 +2386,61 @@
         </is>
       </c>
       <c r="B32">
-        <v>1.141165573011234</v>
+        <v>1.189140790546882</v>
       </c>
       <c r="C32">
-        <v>1.452270019539827</v>
+        <v>1.538972707273549</v>
       </c>
       <c r="D32">
-        <v>1.163955585743278</v>
+        <v>1.177313516142337</v>
       </c>
       <c r="E32">
-        <v>2.016783736993492</v>
+        <v>2.078164111597641</v>
       </c>
       <c r="F32">
-        <v>1.805798479979725</v>
+        <v>1.889769431259602</v>
       </c>
       <c r="G32">
-        <v>1.10287123207098</v>
+        <v>1.139323691107745</v>
       </c>
       <c r="H32">
-        <v>1.251556701030928</v>
+        <v>1.346284453608247</v>
       </c>
       <c r="I32">
-        <v>0.9883437946856124</v>
+        <v>1.042273849276802</v>
       </c>
       <c r="J32">
-        <v>2.259241936297592</v>
+        <v>2.391284327492265</v>
       </c>
       <c r="K32">
-        <v>1.279115841615649</v>
+        <v>1.33196919563297</v>
       </c>
       <c r="L32">
-        <v>0.9376752834864731</v>
+        <v>1.010869936212357</v>
       </c>
       <c r="M32">
-        <v>1.390092786868039</v>
+        <v>1.440288517046256</v>
       </c>
       <c r="N32">
-        <v>2.657070206529316</v>
+        <v>2.729331477873058</v>
       </c>
       <c r="O32">
-        <v>0.7932559232630607</v>
+        <v>0.8324408544121997</v>
       </c>
       <c r="P32">
-        <v>2.014203186518012</v>
+        <v>2.180626724804063</v>
       </c>
       <c r="Q32">
-        <v>1.836025505759019</v>
+        <v>1.921102920824086</v>
       </c>
       <c r="R32">
-        <v>0.9479045722882699</v>
+        <v>1.009665878317607</v>
       </c>
       <c r="S32">
-        <v>0.8949708400080095</v>
+        <v>0.9296340295855023</v>
       </c>
       <c r="T32">
-        <v>1.013389952148104</v>
+        <v>1.13110425519895</v>
       </c>
     </row>
     <row r="33">
@@ -2450,61 +2450,61 @@
         </is>
       </c>
       <c r="B33">
-        <v>3.042855444846567</v>
+        <v>3.170778732534644</v>
       </c>
       <c r="C33">
-        <v>4.157284759658058</v>
+        <v>4.405480864712271</v>
       </c>
       <c r="D33">
-        <v>4.294848775242602</v>
+        <v>4.344137847537866</v>
       </c>
       <c r="E33">
-        <v>3.892796805406236</v>
+        <v>4.011273229918599</v>
       </c>
       <c r="F33">
-        <v>4.316820034981117</v>
+        <v>4.517555326798102</v>
       </c>
       <c r="G33">
-        <v>3.148312645039832</v>
+        <v>3.252371699615713</v>
       </c>
       <c r="H33">
-        <v>4.911742268041237</v>
+        <v>5.283501938144327</v>
       </c>
       <c r="I33">
-        <v>3.212308723858118</v>
+        <v>3.387591844744741</v>
       </c>
       <c r="J33">
-        <v>6.576623040831428</v>
+        <v>6.960996674458499</v>
       </c>
       <c r="K33">
-        <v>2.998726744621497</v>
+        <v>3.122634807580436</v>
       </c>
       <c r="L33">
-        <v>2.709750425879616</v>
+        <v>2.921272735243054</v>
       </c>
       <c r="M33">
-        <v>4.195678727141574</v>
+        <v>4.347183115403731</v>
       </c>
       <c r="N33">
-        <v>5.273806724171237</v>
+        <v>5.417232358079335</v>
       </c>
       <c r="O33">
-        <v>2.712522183115539</v>
+        <v>2.846514242763414</v>
       </c>
       <c r="P33">
-        <v>5.747507083195348</v>
+        <v>6.222394855944366</v>
       </c>
       <c r="Q33">
-        <v>7.282605076434546</v>
+        <v>7.620065102397882</v>
       </c>
       <c r="R33">
-        <v>6.210096727772235</v>
+        <v>6.614719403607464</v>
       </c>
       <c r="S33">
-        <v>2.555011847550393</v>
+        <v>2.653970222600453</v>
       </c>
       <c r="T33">
-        <v>2.891676239138122</v>
+        <v>3.227570287048603</v>
       </c>
     </row>
     <row r="34">
@@ -2514,61 +2514,61 @@
         </is>
       </c>
       <c r="B34">
-        <v>1.969174081800781</v>
+        <v>2.051959224618109</v>
       </c>
       <c r="C34">
-        <v>1.846751335807069</v>
+        <v>1.957005146900029</v>
       </c>
       <c r="D34">
-        <v>3.127946466497443</v>
+        <v>3.163843790848332</v>
       </c>
       <c r="E34">
-        <v>2.066959420844056</v>
+        <v>2.12986688147844</v>
       </c>
       <c r="F34">
-        <v>2.526693178890763</v>
+        <v>2.644186261411365</v>
       </c>
       <c r="G34">
-        <v>1.439147214976343</v>
+        <v>1.4867143772853</v>
       </c>
       <c r="H34">
-        <v>1.885329896907216</v>
+        <v>2.028026639175257</v>
       </c>
       <c r="I34">
-        <v>1.532660168056232</v>
+        <v>1.616291437840555</v>
       </c>
       <c r="J34">
-        <v>2.215646231333244</v>
+        <v>2.345140652327459</v>
       </c>
       <c r="K34">
-        <v>2.349306994081055</v>
+        <v>2.446380887010641</v>
       </c>
       <c r="L34">
-        <v>1.72453566123736</v>
+        <v>1.859152400166784</v>
       </c>
       <c r="M34">
-        <v>1.955058515307209</v>
+        <v>2.025654946454866</v>
       </c>
       <c r="N34">
-        <v>2.337231129738038</v>
+        <v>2.400794106901388</v>
       </c>
       <c r="O34">
-        <v>2.128863292614366</v>
+        <v>2.234024009478449</v>
       </c>
       <c r="P34">
-        <v>2.627957464032086</v>
+        <v>2.845092449497738</v>
       </c>
       <c r="Q34">
-        <v>2.654618194966055</v>
+        <v>2.777627408783615</v>
       </c>
       <c r="R34">
-        <v>2.469083702637733</v>
+        <v>2.629958371490246</v>
       </c>
       <c r="S34">
-        <v>1.168210185556001</v>
+        <v>1.213456230810305</v>
       </c>
       <c r="T34">
-        <v>1.322225081758322</v>
+        <v>1.475813346222169</v>
       </c>
     </row>
     <row r="35">
@@ -2578,61 +2578,61 @@
         </is>
       </c>
       <c r="B35">
-        <v>96.44706803342855</v>
+        <v>100.5017549071042</v>
       </c>
       <c r="C35">
-        <v>89.46881945757606</v>
+        <v>94.8102415147448</v>
       </c>
       <c r="D35">
-        <v>94.74966808325519</v>
+        <v>95.83704588967024</v>
       </c>
       <c r="E35">
-        <v>76.8796009265325</v>
+        <v>79.21941486777477</v>
       </c>
       <c r="F35">
-        <v>84.88107671753217</v>
+        <v>88.82810892331378</v>
       </c>
       <c r="G35">
-        <v>77.71608695607151</v>
+        <v>80.28478436505563</v>
       </c>
       <c r="H35">
-        <v>82.55695360824743</v>
+        <v>88.80551962886594</v>
       </c>
       <c r="I35">
-        <v>88.6194520847579</v>
+        <v>93.45506891613846</v>
       </c>
       <c r="J35">
-        <v>76.08434935423112</v>
+        <v>80.53113270213913</v>
       </c>
       <c r="K35">
-        <v>90.21017434672561</v>
+        <v>93.93767902268161</v>
       </c>
       <c r="L35">
-        <v>96.90349481247533</v>
+        <v>104.4677526911208</v>
       </c>
       <c r="M35">
-        <v>80.00114838798638</v>
+        <v>82.88995990932263</v>
       </c>
       <c r="N35">
-        <v>87.86446461117224</v>
+        <v>90.25401303301611</v>
       </c>
       <c r="O35">
-        <v>91.90064933934509</v>
+        <v>96.44031996936091</v>
       </c>
       <c r="P35">
-        <v>90.14607940537955</v>
+        <v>97.59439921624906</v>
       </c>
       <c r="Q35">
-        <v>94.43676109952986</v>
+        <v>98.81275451370838</v>
       </c>
       <c r="R35">
-        <v>94.52459076711745</v>
+        <v>100.6833986770454</v>
       </c>
       <c r="S35">
-        <v>96.24564790248299</v>
+        <v>99.9733460465058</v>
       </c>
       <c r="T35">
-        <v>89.9120954192324</v>
+        <v>100.3561891520359</v>
       </c>
     </row>
     <row r="36">
@@ -2642,61 +2642,61 @@
         </is>
       </c>
       <c r="B36">
-        <v>7.539275277375882</v>
+        <v>7.8562304853207</v>
       </c>
       <c r="C36">
-        <v>12.25100566561993</v>
+        <v>12.98240898894052</v>
       </c>
       <c r="D36">
-        <v>6.83050391836182</v>
+        <v>6.908892988399843</v>
       </c>
       <c r="E36">
-        <v>6.320045511677256</v>
+        <v>6.512394722902216</v>
       </c>
       <c r="F36">
-        <v>6.056370286701232</v>
+        <v>6.337995938686052</v>
       </c>
       <c r="G36">
-        <v>5.128208739306792</v>
+        <v>5.297707964207718</v>
       </c>
       <c r="H36">
-        <v>10.76033505154639</v>
+        <v>11.57476268041236</v>
       </c>
       <c r="I36">
-        <v>9.238832621429877</v>
+        <v>9.742959576353559</v>
       </c>
       <c r="J36">
-        <v>6.62584399804924</v>
+        <v>7.013094372225216</v>
       </c>
       <c r="K36">
-        <v>6.498580540841129</v>
+        <v>6.767103349143864</v>
       </c>
       <c r="L36">
-        <v>11.67176226997148</v>
+        <v>12.58285654865732</v>
       </c>
       <c r="M36">
-        <v>8.179687733137683</v>
+        <v>8.47505319526609</v>
       </c>
       <c r="N36">
-        <v>9.242783232406373</v>
+        <v>9.494148539008757</v>
       </c>
       <c r="O36">
-        <v>5.843473479080541</v>
+        <v>6.132126988288134</v>
       </c>
       <c r="P36">
-        <v>12.35088493947088</v>
+        <v>13.37137680759466</v>
       </c>
       <c r="Q36">
-        <v>8.371101031281631</v>
+        <v>8.758999584300661</v>
       </c>
       <c r="R36">
-        <v>12.83938631420582</v>
+        <v>13.67594443467809</v>
       </c>
       <c r="S36">
-        <v>7.226956723067681</v>
+        <v>7.506864581247495</v>
       </c>
       <c r="T36">
-        <v>6.33941368350794</v>
+        <v>7.075793259724687</v>
       </c>
     </row>
     <row r="37">
@@ -2706,61 +2706,61 @@
         </is>
       </c>
       <c r="B37">
-        <v>24.45203149399753</v>
+        <v>25.48000811531951</v>
       </c>
       <c r="C37">
-        <v>24.25374702795198</v>
+        <v>25.70173192514314</v>
       </c>
       <c r="D37">
-        <v>25.07292934226106</v>
+        <v>25.36067438095218</v>
       </c>
       <c r="E37">
-        <v>24.75821555776358</v>
+        <v>25.51172646604333</v>
       </c>
       <c r="F37">
-        <v>26.03626605256763</v>
+        <v>27.24697148423608</v>
       </c>
       <c r="G37">
-        <v>27.9493788334267</v>
+        <v>28.87317080242689</v>
       </c>
       <c r="H37">
-        <v>22.66029896907217</v>
+        <v>24.37541039175257</v>
       </c>
       <c r="I37">
-        <v>26.15551180901159</v>
+        <v>27.58271577114015</v>
       </c>
       <c r="J37">
-        <v>19.9155024468586</v>
+        <v>21.07947276923854</v>
       </c>
       <c r="K37">
-        <v>28.57373851787328</v>
+        <v>29.75441181449665</v>
       </c>
       <c r="L37">
-        <v>26.26556333856997</v>
+        <v>28.31584537231206</v>
       </c>
       <c r="M37">
-        <v>31.1500858718436</v>
+        <v>32.27490381221592</v>
       </c>
       <c r="N37">
-        <v>18.41905125857739</v>
+        <v>18.91997293449686</v>
       </c>
       <c r="O37">
-        <v>28.5633328588647</v>
+        <v>29.97429267478451</v>
       </c>
       <c r="P37">
-        <v>23.35945836552968</v>
+        <v>25.28953361298158</v>
       </c>
       <c r="Q37">
-        <v>21.79793437261573</v>
+        <v>22.80800308046489</v>
       </c>
       <c r="R37">
-        <v>26.17727224411702</v>
+        <v>27.88286853444752</v>
       </c>
       <c r="S37">
-        <v>37.14173779368576</v>
+        <v>38.58027751009544</v>
       </c>
       <c r="T37">
-        <v>26.66408262245963</v>
+        <v>29.76135420655196</v>
       </c>
     </row>
     <row r="38">
@@ -2770,61 +2770,61 @@
         </is>
       </c>
       <c r="B38">
-        <v>4.127152301594783</v>
+        <v>4.300660015246964</v>
       </c>
       <c r="C38">
-        <v>4.958432143274156</v>
+        <v>5.254457942872615</v>
       </c>
       <c r="D38">
-        <v>4.540163465149255</v>
+        <v>4.592267848091915</v>
       </c>
       <c r="E38">
-        <v>3.532507519979271</v>
+        <v>3.640018618413422</v>
       </c>
       <c r="F38">
-        <v>3.572417900236023</v>
+        <v>3.738537947837043</v>
       </c>
       <c r="G38">
-        <v>3.257317359837545</v>
+        <v>3.364979273736828</v>
       </c>
       <c r="H38">
-        <v>4.453855670103093</v>
+        <v>4.790958845360823</v>
       </c>
       <c r="I38">
-        <v>4.066678727629724</v>
+        <v>4.28858147742709</v>
       </c>
       <c r="J38">
-        <v>3.645866616776537</v>
+        <v>3.858950898863179</v>
       </c>
       <c r="K38">
-        <v>4.603648220366545</v>
+        <v>4.793871999359782</v>
       </c>
       <c r="L38">
-        <v>4.426089624848737</v>
+        <v>4.771588859743646</v>
       </c>
       <c r="M38">
-        <v>4.859936797499889</v>
+        <v>5.035427296029932</v>
       </c>
       <c r="N38">
-        <v>3.267736408456028</v>
+        <v>3.356605263599942</v>
       </c>
       <c r="O38">
-        <v>4.906406453046549</v>
+        <v>5.148771109160896</v>
       </c>
       <c r="P38">
-        <v>5.155094381278287</v>
+        <v>5.581034054531407</v>
       </c>
       <c r="Q38">
-        <v>3.959720061731863</v>
+        <v>4.143204847850978</v>
       </c>
       <c r="R38">
-        <v>4.675322153358081</v>
+        <v>4.979945646841426</v>
       </c>
       <c r="S38">
-        <v>4.049317514350554</v>
+        <v>4.206151965692162</v>
       </c>
       <c r="T38">
-        <v>5.433444646006866</v>
+        <v>6.064587818794683</v>
       </c>
     </row>
     <row r="39">
@@ -2834,61 +2834,61 @@
         </is>
       </c>
       <c r="B39">
-        <v>2.940491755573134</v>
+        <v>3.064111618432432</v>
       </c>
       <c r="C39">
-        <v>4.362140887217688</v>
+        <v>4.622567208842625</v>
       </c>
       <c r="D39">
-        <v>3.577321724284404</v>
+        <v>3.61837622429569</v>
       </c>
       <c r="E39">
-        <v>4.899098020409209</v>
+        <v>5.048201003639053</v>
       </c>
       <c r="F39">
-        <v>3.314548452601838</v>
+        <v>3.46867738211082</v>
       </c>
       <c r="G39">
-        <v>2.43301373224961</v>
+        <v>2.513430494271931</v>
       </c>
       <c r="H39">
-        <v>2.953731958762886</v>
+        <v>3.177293855670102</v>
       </c>
       <c r="I39">
-        <v>2.740720979840816</v>
+        <v>2.890271402332262</v>
       </c>
       <c r="J39">
-        <v>4.308943226153639</v>
+        <v>4.560781313063369</v>
       </c>
       <c r="K39">
-        <v>3.292390118881628</v>
+        <v>3.428432418456765</v>
       </c>
       <c r="L39">
-        <v>2.672046699445719</v>
+        <v>2.880625867178571</v>
       </c>
       <c r="M39">
-        <v>2.219838093758264</v>
+        <v>2.299995616368439</v>
       </c>
       <c r="N39">
-        <v>4.697813342516147</v>
+        <v>4.82557434929407</v>
       </c>
       <c r="O39">
-        <v>3.458351040571165</v>
+        <v>3.629185248599379</v>
       </c>
       <c r="P39">
-        <v>3.865032932258896</v>
+        <v>4.184381278286788</v>
       </c>
       <c r="Q39">
-        <v>2.81382695672335</v>
+        <v>2.944213557109634</v>
       </c>
       <c r="R39">
-        <v>3.571069974325848</v>
+        <v>3.803745237199719</v>
       </c>
       <c r="S39">
-        <v>2.487821844546789</v>
+        <v>2.584177878036977</v>
       </c>
       <c r="T39">
-        <v>1.495204348726704</v>
+        <v>1.66888570155231</v>
       </c>
     </row>
     <row r="40">
@@ -2898,61 +2898,61 @@
         </is>
       </c>
       <c r="B40">
-        <v>7.739453158621707</v>
+        <v>8.06482395289836</v>
       </c>
       <c r="C40">
-        <v>7.181387668726047</v>
+        <v>7.610127231038051</v>
       </c>
       <c r="D40">
-        <v>8.351012987332785</v>
+        <v>8.446851910752871</v>
       </c>
       <c r="E40">
-        <v>9.230932059507877</v>
+        <v>9.511873470014637</v>
       </c>
       <c r="F40">
-        <v>6.250128545697082</v>
+        <v>6.540764098568737</v>
       </c>
       <c r="G40">
-        <v>7.391659581871069</v>
+        <v>7.635971120957915</v>
       </c>
       <c r="H40">
-        <v>7.034010309278352</v>
+        <v>7.566400082474225</v>
       </c>
       <c r="I40">
-        <v>7.72531156636136</v>
+        <v>8.146851598026496</v>
       </c>
       <c r="J40">
-        <v>10.13951718686937</v>
+        <v>10.7321257399435</v>
       </c>
       <c r="K40">
-        <v>8.240106621030566</v>
+        <v>8.580589678320905</v>
       </c>
       <c r="L40">
-        <v>8.160397834258154</v>
+        <v>8.797396053260691</v>
       </c>
       <c r="M40">
-        <v>7.683226023541953</v>
+        <v>7.96066443917814</v>
       </c>
       <c r="N40">
-        <v>9.276748444101022</v>
+        <v>9.529037463359732</v>
       </c>
       <c r="O40">
-        <v>8.569764810333721</v>
+        <v>8.99309054192852</v>
       </c>
       <c r="P40">
-        <v>7.189167310593517</v>
+        <v>7.783172259631309</v>
       </c>
       <c r="Q40">
-        <v>7.987086764725408</v>
+        <v>8.357190934690264</v>
       </c>
       <c r="R40">
-        <v>7.340029190037775</v>
+        <v>7.818273311147816</v>
       </c>
       <c r="S40">
-        <v>6.829191905286343</v>
+        <v>7.093693901431718</v>
       </c>
       <c r="T40">
-        <v>6.258058137856144</v>
+        <v>6.984987540094531</v>
       </c>
     </row>
     <row r="41">
@@ -2962,61 +2962,61 @@
         </is>
       </c>
       <c r="B41">
-        <v>1.352717197509663</v>
+        <v>1.409586159691454</v>
       </c>
       <c r="C41">
-        <v>1.41876195406539</v>
+        <v>1.503464160278249</v>
       </c>
       <c r="D41">
-        <v>0.9341111915965041</v>
+        <v>0.9448313534610657</v>
       </c>
       <c r="E41">
-        <v>0.8564710479492058</v>
+        <v>0.8825375581041817</v>
       </c>
       <c r="F41">
-        <v>0.9075294925026309</v>
+        <v>0.9497302782740565</v>
       </c>
       <c r="G41">
-        <v>2.025492837711754</v>
+        <v>2.092440086446588</v>
       </c>
       <c r="H41">
-        <v>1.169427835051546</v>
+        <v>1.257939422680412</v>
       </c>
       <c r="I41">
-        <v>0.735707503247772</v>
+        <v>0.7758521836986882</v>
       </c>
       <c r="J41">
-        <v>0.620184060944437</v>
+        <v>0.6564309918606218</v>
       </c>
       <c r="K41">
-        <v>0.9109408649313048</v>
+        <v>0.9485811461760788</v>
       </c>
       <c r="L41">
-        <v>0.8262033966384309</v>
+        <v>0.8906965871521473</v>
       </c>
       <c r="M41">
-        <v>0.7081314307411939</v>
+        <v>0.7337017916293219</v>
       </c>
       <c r="N41">
-        <v>0.95739440464292</v>
+        <v>0.9834315551430752</v>
       </c>
       <c r="O41">
-        <v>1.357790996906396</v>
+        <v>1.424862600368037</v>
       </c>
       <c r="P41">
-        <v>0.5644478787209773</v>
+        <v>0.6110853847002983</v>
       </c>
       <c r="Q41">
-        <v>0.7857943176862195</v>
+        <v>0.8222063114803493</v>
       </c>
       <c r="R41">
-        <v>0.8111948291933083</v>
+        <v>0.8640487277395302</v>
       </c>
       <c r="S41">
-        <v>0.7122140318382059</v>
+        <v>0.7397988523728473</v>
       </c>
       <c r="T41">
-        <v>0.8791138088393142</v>
+        <v>0.9812307373627682</v>
       </c>
     </row>
     <row r="42">
@@ -3026,61 +3026,61 @@
         </is>
       </c>
       <c r="B42">
-        <v>6.005336437374735</v>
+        <v>6.257804027329773</v>
       </c>
       <c r="C42">
-        <v>6.058105928389788</v>
+        <v>6.419783894263808</v>
       </c>
       <c r="D42">
-        <v>6.790723157836417</v>
+        <v>6.8686556910127</v>
       </c>
       <c r="E42">
-        <v>7.461542319277582</v>
+        <v>7.688632737690376</v>
       </c>
       <c r="F42">
-        <v>4.502030135491858</v>
+        <v>4.711377832568318</v>
       </c>
       <c r="G42">
-        <v>5.641172103060736</v>
+        <v>5.827625960071785</v>
       </c>
       <c r="H42">
-        <v>4.883396907216495</v>
+        <v>5.25301117525773</v>
       </c>
       <c r="I42">
-        <v>4.443336471227959</v>
+        <v>4.68579196065264</v>
       </c>
       <c r="J42">
-        <v>5.087337506726759</v>
+        <v>5.38466919060272</v>
       </c>
       <c r="K42">
-        <v>6.014985630989866</v>
+        <v>6.263526188944533</v>
       </c>
       <c r="L42">
-        <v>4.53346328056266</v>
+        <v>4.88734407097076</v>
       </c>
       <c r="M42">
-        <v>6.434759522822153</v>
+        <v>6.66711628045775</v>
       </c>
       <c r="N42">
-        <v>4.505343809579802</v>
+        <v>4.627870444638551</v>
       </c>
       <c r="O42">
-        <v>7.283879364812792</v>
+        <v>7.643685453918001</v>
       </c>
       <c r="P42">
-        <v>5.291974831659124</v>
+        <v>5.72922425212496</v>
       </c>
       <c r="Q42">
-        <v>4.812477721273082</v>
+        <v>5.035477436309653</v>
       </c>
       <c r="R42">
-        <v>3.994039345227387</v>
+        <v>4.254273437883273</v>
       </c>
       <c r="S42">
-        <v>5.80073692597784</v>
+        <v>6.025405747313441</v>
       </c>
       <c r="T42">
-        <v>5.93026637624939</v>
+        <v>6.619119834788557</v>
       </c>
     </row>
   </sheetData>

--- a/DATOS/PONDERACIONES/IPC_INQUILINOS_CCAA/alquiler_ajustado_ponderaciones_IPC_CCAA_2022.xlsx
+++ b/DATOS/PONDERACIONES/IPC_INQUILINOS_CCAA/alquiler_ajustado_ponderaciones_IPC_CCAA_2022.xlsx
@@ -466,61 +466,61 @@
         </is>
       </c>
       <c r="B2">
-        <v>173.86344535275</v>
+        <v>169.133076356618</v>
       </c>
       <c r="C2">
-        <v>167.8634278705515</v>
+        <v>168.3262700429088</v>
       </c>
       <c r="D2">
-        <v>152.375664664564</v>
+        <v>143.0100297140115</v>
       </c>
       <c r="E2">
-        <v>136.6360589144274</v>
+        <v>136.6377181729679</v>
       </c>
       <c r="F2">
-        <v>156.5004913418085</v>
+        <v>154.8555277118209</v>
       </c>
       <c r="G2">
-        <v>164.2510268069336</v>
+        <v>163.9064060085066</v>
       </c>
       <c r="H2">
-        <v>181.2621126597938</v>
+        <v>186.160698888949</v>
       </c>
       <c r="I2">
-        <v>184.9967458703977</v>
+        <v>183.411791564493</v>
       </c>
       <c r="J2">
-        <v>157.8694207840038</v>
+        <v>156.6854716259103</v>
       </c>
       <c r="K2">
-        <v>156.48013666206</v>
+        <v>156.5668671112442</v>
       </c>
       <c r="L2">
-        <v>221.0297158865584</v>
+        <v>214.9148508295991</v>
       </c>
       <c r="M2">
-        <v>175.1402001755511</v>
+        <v>172.7946724290136</v>
       </c>
       <c r="N2">
-        <v>135.1378873579533</v>
+        <v>134.5052430063757</v>
       </c>
       <c r="O2">
-        <v>173.1412758017922</v>
+        <v>172.9929966235734</v>
       </c>
       <c r="P2">
-        <v>156.7884159399493</v>
+        <v>156.9567414040546</v>
       </c>
       <c r="Q2">
-        <v>151.4346734104607</v>
+        <v>147.768613135091</v>
       </c>
       <c r="R2">
-        <v>172.043847606744</v>
+        <v>171.563130205028</v>
       </c>
       <c r="S2">
-        <v>243.8628269861333</v>
+        <v>231.602819593435</v>
       </c>
       <c r="T2">
-        <v>205.3796159712763</v>
+        <v>203.9724167030224</v>
       </c>
     </row>
     <row r="3">
@@ -530,61 +530,61 @@
         </is>
       </c>
       <c r="B3">
-        <v>13.72608226802687</v>
+        <v>13.35263151840382</v>
       </c>
       <c r="C3">
-        <v>11.76139917976125</v>
+        <v>11.79382834920797</v>
       </c>
       <c r="D3">
-        <v>9.814920021915739</v>
+        <v>9.211654676386395</v>
       </c>
       <c r="E3">
-        <v>11.80331150737057</v>
+        <v>11.80345484248709</v>
       </c>
       <c r="F3">
-        <v>16.01570274602813</v>
+        <v>15.84736302836954</v>
       </c>
       <c r="G3">
-        <v>10.30837701398907</v>
+        <v>10.28674864924695</v>
       </c>
       <c r="H3">
-        <v>10.21675101030927</v>
+        <v>10.4928574457437</v>
       </c>
       <c r="I3">
-        <v>12.47176330257787</v>
+        <v>12.36491182875523</v>
       </c>
       <c r="J3">
-        <v>11.55452511183237</v>
+        <v>11.46787140644479</v>
       </c>
       <c r="K3">
-        <v>12.37111081015363</v>
+        <v>12.37796760374008</v>
       </c>
       <c r="L3">
-        <v>15.90883070941196</v>
+        <v>15.46870729608779</v>
       </c>
       <c r="M3">
-        <v>12.75843615487597</v>
+        <v>12.58757152200645</v>
       </c>
       <c r="N3">
-        <v>10.06109355971208</v>
+        <v>10.0139928233036</v>
       </c>
       <c r="O3">
-        <v>13.63453029140908</v>
+        <v>13.62285360173674</v>
       </c>
       <c r="P3">
-        <v>9.814812065349379</v>
+        <v>9.825349086124174</v>
       </c>
       <c r="Q3">
-        <v>8.484454172467224</v>
+        <v>8.279055239056719</v>
       </c>
       <c r="R3">
-        <v>9.414430364998122</v>
+        <v>9.388124975025427</v>
       </c>
       <c r="S3">
-        <v>21.04564886196769</v>
+        <v>19.98759580065988</v>
       </c>
       <c r="T3">
-        <v>19.71542046688552</v>
+        <v>19.580336344135</v>
       </c>
     </row>
     <row r="4">
@@ -594,61 +594,61 @@
         </is>
       </c>
       <c r="B4">
-        <v>10.35856196948148</v>
+        <v>10.07673262757737</v>
       </c>
       <c r="C4">
-        <v>8.310614021763506</v>
+        <v>8.333528498706167</v>
       </c>
       <c r="D4">
-        <v>8.159974883085276</v>
+        <v>7.658429271265367</v>
       </c>
       <c r="E4">
-        <v>10.2385846244503</v>
+        <v>10.23870895809338</v>
       </c>
       <c r="F4">
-        <v>8.653429411464089</v>
+        <v>8.56247393564111</v>
       </c>
       <c r="G4">
-        <v>9.188189250509746</v>
+        <v>9.168911190718187</v>
       </c>
       <c r="H4">
-        <v>8.316160123711336</v>
+        <v>8.54090332494458</v>
       </c>
       <c r="I4">
-        <v>9.828537444690772</v>
+        <v>9.744331732474501</v>
       </c>
       <c r="J4">
-        <v>9.622444777512449</v>
+        <v>9.55028079960868</v>
       </c>
       <c r="K4">
-        <v>8.440622612646168</v>
+        <v>8.445300899655653</v>
       </c>
       <c r="L4">
-        <v>10.2297563387504</v>
+        <v>9.946746521151315</v>
       </c>
       <c r="M4">
-        <v>11.2144723846647</v>
+        <v>11.06428495702305</v>
       </c>
       <c r="N4">
-        <v>7.756970847366519</v>
+        <v>7.720656798894384</v>
       </c>
       <c r="O4">
-        <v>12.99635239434283</v>
+        <v>12.98522224386917</v>
       </c>
       <c r="P4">
-        <v>8.136119880781546</v>
+        <v>8.144854685242313</v>
       </c>
       <c r="Q4">
-        <v>8.293559315801785</v>
+        <v>8.092781728579922</v>
       </c>
       <c r="R4">
-        <v>9.740258795849618</v>
+        <v>9.713042990312156</v>
       </c>
       <c r="S4">
-        <v>12.68545654785743</v>
+        <v>12.04770542777659</v>
       </c>
       <c r="T4">
-        <v>9.40764887546999</v>
+        <v>9.343190498960988</v>
       </c>
     </row>
     <row r="5">
@@ -658,61 +658,61 @@
         </is>
       </c>
       <c r="B5">
-        <v>18.46684289479185</v>
+        <v>17.96440846466349</v>
       </c>
       <c r="C5">
-        <v>14.68520521985148</v>
+        <v>14.7256960663193</v>
       </c>
       <c r="D5">
-        <v>12.34539894648497</v>
+        <v>11.58659996039856</v>
       </c>
       <c r="E5">
-        <v>12.67938621923965</v>
+        <v>12.67954019308843</v>
       </c>
       <c r="F5">
-        <v>12.5298795268684</v>
+        <v>12.39817900674154</v>
       </c>
       <c r="G5">
-        <v>13.96039520215226</v>
+        <v>13.93110441088935</v>
       </c>
       <c r="H5">
-        <v>13.87095167010309</v>
+        <v>14.24581242748583</v>
       </c>
       <c r="I5">
-        <v>16.94845462267072</v>
+        <v>16.8032492245636</v>
       </c>
       <c r="J5">
-        <v>11.90283543404413</v>
+        <v>11.8135695589869</v>
       </c>
       <c r="K5">
-        <v>15.0441774883114</v>
+        <v>15.05251585188265</v>
       </c>
       <c r="L5">
-        <v>20.58233690926088</v>
+        <v>20.01291929836551</v>
       </c>
       <c r="M5">
-        <v>13.12289454484836</v>
+        <v>12.94714898078611</v>
       </c>
       <c r="N5">
-        <v>14.31754233053089</v>
+        <v>14.25051514473591</v>
       </c>
       <c r="O5">
-        <v>21.10241579632392</v>
+        <v>21.08434356682104</v>
       </c>
       <c r="P5">
-        <v>12.11415029252677</v>
+        <v>12.127155844997</v>
       </c>
       <c r="Q5">
-        <v>11.19058538025255</v>
+        <v>10.91967410480456</v>
       </c>
       <c r="R5">
-        <v>15.0693637982208</v>
+        <v>15.0272576403351</v>
       </c>
       <c r="S5">
-        <v>22.8267494952276</v>
+        <v>21.67915303281689</v>
       </c>
       <c r="T5">
-        <v>23.48958828957196</v>
+        <v>23.3286447056805</v>
       </c>
     </row>
     <row r="6">
@@ -722,61 +722,61 @@
         </is>
       </c>
       <c r="B6">
-        <v>38.56213706487748</v>
+        <v>37.51296231036716</v>
       </c>
       <c r="C6">
-        <v>39.45322376150459</v>
+        <v>39.5620063356717</v>
       </c>
       <c r="D6">
-        <v>36.79253764972164</v>
+        <v>34.53111698724044</v>
       </c>
       <c r="E6">
-        <v>28.87312460232134</v>
+        <v>28.87347522703175</v>
       </c>
       <c r="F6">
-        <v>27.14409646194266</v>
+        <v>26.85878712479015</v>
       </c>
       <c r="G6">
-        <v>38.79367728333212</v>
+        <v>38.71228291826057</v>
       </c>
       <c r="H6">
-        <v>36.38329826804122</v>
+        <v>37.36655241449149</v>
       </c>
       <c r="I6">
-        <v>41.36398192695348</v>
+        <v>41.00959720004363</v>
       </c>
       <c r="J6">
-        <v>30.64088881508141</v>
+        <v>30.41109602597953</v>
       </c>
       <c r="K6">
-        <v>34.12914330740654</v>
+        <v>34.14805967591479</v>
       </c>
       <c r="L6">
-        <v>44.99431569224934</v>
+        <v>43.74953207713786</v>
       </c>
       <c r="M6">
-        <v>43.95192732638606</v>
+        <v>43.36331052136639</v>
       </c>
       <c r="N6">
-        <v>30.06771111722365</v>
+        <v>29.92694994376536</v>
       </c>
       <c r="O6">
-        <v>41.03684563009264</v>
+        <v>41.00170144094106</v>
       </c>
       <c r="P6">
-        <v>44.26345595540348</v>
+        <v>44.31097647356123</v>
       </c>
       <c r="Q6">
-        <v>35.92112130556148</v>
+        <v>35.05151203511313</v>
       </c>
       <c r="R6">
-        <v>37.11467407523999</v>
+        <v>37.01096987462383</v>
       </c>
       <c r="S6">
-        <v>47.68957432252034</v>
+        <v>45.29201934878923</v>
       </c>
       <c r="T6">
-        <v>54.52398578880302</v>
+        <v>54.15040386081354</v>
       </c>
     </row>
     <row r="7">
@@ -786,61 +786,61 @@
         </is>
       </c>
       <c r="B7">
-        <v>11.49555439313395</v>
+        <v>11.18279046518865</v>
       </c>
       <c r="C7">
-        <v>10.57912596730412</v>
+        <v>10.60829530875307</v>
       </c>
       <c r="D7">
-        <v>11.38342948487752</v>
+        <v>10.68375709771902</v>
       </c>
       <c r="E7">
-        <v>9.521208692354225</v>
+        <v>9.521324314445236</v>
       </c>
       <c r="F7">
-        <v>10.79516810022497</v>
+        <v>10.6817009874241</v>
       </c>
       <c r="G7">
-        <v>11.96584274549723</v>
+        <v>11.94073679419227</v>
       </c>
       <c r="H7">
-        <v>11.57867175257732</v>
+        <v>11.89158392802757</v>
       </c>
       <c r="I7">
-        <v>13.34288141518025</v>
+        <v>13.2285666619522</v>
       </c>
       <c r="J7">
-        <v>10.55052805058523</v>
+        <v>10.47140386845484</v>
       </c>
       <c r="K7">
-        <v>9.580897783550691</v>
+        <v>9.586208077790461</v>
       </c>
       <c r="L7">
-        <v>13.1298220123946</v>
+        <v>12.7665808549527</v>
       </c>
       <c r="M7">
-        <v>14.98984660376601</v>
+        <v>14.78909828276242</v>
       </c>
       <c r="N7">
-        <v>9.200500092388062</v>
+        <v>9.157428200937511</v>
       </c>
       <c r="O7">
-        <v>11.78822945712937</v>
+        <v>11.77813395004439</v>
       </c>
       <c r="P7">
-        <v>12.18744866983111</v>
+        <v>12.20053291423342</v>
       </c>
       <c r="Q7">
-        <v>10.72657503577364</v>
+        <v>10.46689692016246</v>
       </c>
       <c r="R7">
-        <v>10.98564746488201</v>
+        <v>10.95495184874143</v>
       </c>
       <c r="S7">
-        <v>13.76956430007676</v>
+        <v>13.07731053512399</v>
       </c>
       <c r="T7">
-        <v>15.54452862639742</v>
+        <v>15.43802219826447</v>
       </c>
     </row>
     <row r="8">
@@ -850,61 +850,61 @@
         </is>
       </c>
       <c r="B8">
-        <v>228.89</v>
+        <v>249.869883547152</v>
       </c>
       <c r="C8">
-        <v>219</v>
+        <v>216.846584326338</v>
       </c>
       <c r="D8">
-        <v>273.76</v>
+        <v>318.397696849181</v>
       </c>
       <c r="E8">
-        <v>312.7</v>
+        <v>312.691653679095</v>
       </c>
       <c r="F8">
-        <v>285.24</v>
+        <v>292.752782829557</v>
       </c>
       <c r="G8">
-        <v>289.26</v>
+        <v>290.751228341372</v>
       </c>
       <c r="H8">
-        <v>241.64</v>
+        <v>221.145414572131</v>
       </c>
       <c r="I8">
-        <v>210.13</v>
+        <v>216.897188534668</v>
       </c>
       <c r="J8">
-        <v>291.9</v>
+        <v>297.210429307225</v>
       </c>
       <c r="K8">
-        <v>258.58</v>
+        <v>258.169061647019</v>
       </c>
       <c r="L8">
-        <v>133.24</v>
+        <v>157.219221144592</v>
       </c>
       <c r="M8">
-        <v>224.99</v>
+        <v>235.369155996293</v>
       </c>
       <c r="N8">
-        <v>307.67</v>
+        <v>310.911124102877</v>
       </c>
       <c r="O8">
-        <v>216.1</v>
+        <v>216.771336440531</v>
       </c>
       <c r="P8">
-        <v>220.51</v>
+        <v>219.673152359</v>
       </c>
       <c r="Q8">
-        <v>300</v>
+        <v>316.946199539144</v>
       </c>
       <c r="R8">
-        <v>212.85</v>
+        <v>215.049420136346</v>
       </c>
       <c r="S8">
-        <v>107.73</v>
+        <v>152.588156249066</v>
       </c>
       <c r="T8">
-        <v>157.3</v>
+        <v>163.073926578592</v>
       </c>
     </row>
     <row r="9">
@@ -914,61 +914,61 @@
         </is>
       </c>
       <c r="B9">
-        <v>8.587097748613633</v>
+        <v>8.353465308658341</v>
       </c>
       <c r="C9">
-        <v>7.711810797433682</v>
+        <v>7.733074221561092</v>
       </c>
       <c r="D9">
-        <v>8.222566234576387</v>
+        <v>7.717173500905244</v>
       </c>
       <c r="E9">
-        <v>8.965403916135642</v>
+        <v>8.965512788735859</v>
       </c>
       <c r="F9">
-        <v>10.61327313327138</v>
+        <v>10.50171790331862</v>
       </c>
       <c r="G9">
-        <v>9.325820729991106</v>
+        <v>9.306253900800234</v>
       </c>
       <c r="H9">
-        <v>7.073075175257729</v>
+        <v>7.264224159140135</v>
       </c>
       <c r="I9">
-        <v>7.393604888982921</v>
+        <v>7.330260391490182</v>
       </c>
       <c r="J9">
-        <v>7.123243790360556</v>
+        <v>7.069822687992471</v>
       </c>
       <c r="K9">
-        <v>5.758427647596565</v>
+        <v>5.761619305190456</v>
       </c>
       <c r="L9">
-        <v>9.580290077285298</v>
+        <v>9.315247972905119</v>
       </c>
       <c r="M9">
-        <v>8.124152338399892</v>
+        <v>8.015351362337775</v>
       </c>
       <c r="N9">
-        <v>6.079395068157193</v>
+        <v>6.050934545160479</v>
       </c>
       <c r="O9">
-        <v>8.775548139280779</v>
+        <v>8.768032709695969</v>
       </c>
       <c r="P9">
-        <v>11.23297632188984</v>
+        <v>11.24503586048094</v>
       </c>
       <c r="Q9">
-        <v>6.113640147363885</v>
+        <v>5.965635910438527</v>
       </c>
       <c r="R9">
-        <v>4.831110437687038</v>
+        <v>4.817611559992112</v>
       </c>
       <c r="S9">
-        <v>6.972720504188358</v>
+        <v>6.622172591720219</v>
       </c>
       <c r="T9">
-        <v>6.73108416870147</v>
+        <v>6.684964807381422</v>
       </c>
     </row>
     <row r="10">
@@ -978,61 +978,61 @@
         </is>
       </c>
       <c r="B10">
-        <v>26.12001079993279</v>
+        <v>25.40935371490867</v>
       </c>
       <c r="C10">
-        <v>31.74464101379775</v>
+        <v>31.83216906439171</v>
       </c>
       <c r="D10">
-        <v>25.87556276048026</v>
+        <v>24.28514426755192</v>
       </c>
       <c r="E10">
-        <v>25.99284946354521</v>
+        <v>25.99316511124324</v>
       </c>
       <c r="F10">
-        <v>22.2232412289073</v>
+        <v>21.9896545912644</v>
       </c>
       <c r="G10">
-        <v>25.60755115291457</v>
+        <v>25.55382305820714</v>
       </c>
       <c r="H10">
-        <v>26.59654519587627</v>
+        <v>27.31531354811409</v>
       </c>
       <c r="I10">
-        <v>24.10631670453604</v>
+        <v>23.89978652866405</v>
       </c>
       <c r="J10">
-        <v>25.77198683236918</v>
+        <v>25.57870860305123</v>
       </c>
       <c r="K10">
-        <v>25.46944180935643</v>
+        <v>25.4835584645161</v>
       </c>
       <c r="L10">
-        <v>28.19655565081847</v>
+        <v>27.41648799256616</v>
       </c>
       <c r="M10">
-        <v>19.85381098109996</v>
+        <v>19.58792305540384</v>
       </c>
       <c r="N10">
-        <v>32.24608833138758</v>
+        <v>32.09512914412954</v>
       </c>
       <c r="O10">
-        <v>30.5610952442882</v>
+        <v>30.53492254764318</v>
       </c>
       <c r="P10">
-        <v>25.18516309747213</v>
+        <v>25.21220147426505</v>
       </c>
       <c r="Q10">
-        <v>28.7993847241217</v>
+        <v>28.10218455249378</v>
       </c>
       <c r="R10">
-        <v>30.56994744566728</v>
+        <v>30.48453023423484</v>
       </c>
       <c r="S10">
-        <v>31.10132986667334</v>
+        <v>29.537735534562</v>
       </c>
       <c r="T10">
-        <v>23.27623892888752</v>
+        <v>23.11675715055459</v>
       </c>
     </row>
     <row r="11">
@@ -1042,61 +1042,61 @@
         </is>
       </c>
       <c r="B11">
-        <v>46.30933005578258</v>
+        <v>45.0493744700465</v>
       </c>
       <c r="C11">
-        <v>58.50517324934619</v>
+        <v>58.66648689475649</v>
       </c>
       <c r="D11">
-        <v>50.81970659996183</v>
+        <v>47.69611845117711</v>
       </c>
       <c r="E11">
-        <v>41.31553979294067</v>
+        <v>41.31604151380999</v>
       </c>
       <c r="F11">
-        <v>31.33811729833971</v>
+        <v>31.00872495748457</v>
       </c>
       <c r="G11">
-        <v>46.40904048222865</v>
+        <v>46.31166805846892</v>
       </c>
       <c r="H11">
-        <v>62.24181063917523</v>
+        <v>63.92388789183867</v>
       </c>
       <c r="I11">
-        <v>66.13473811867372</v>
+        <v>65.56813064967257</v>
       </c>
       <c r="J11">
-        <v>49.41243357325442</v>
+        <v>49.04186269994736</v>
       </c>
       <c r="K11">
-        <v>47.28224402796032</v>
+        <v>47.30845061462657</v>
       </c>
       <c r="L11">
-        <v>59.74382703425691</v>
+        <v>58.09099298506372</v>
       </c>
       <c r="M11">
-        <v>51.26023517257205</v>
+        <v>50.57374341470726</v>
       </c>
       <c r="N11">
-        <v>43.75507225166508</v>
+        <v>43.5502340685761</v>
       </c>
       <c r="O11">
-        <v>40.73341010167623</v>
+        <v>40.69852577644554</v>
       </c>
       <c r="P11">
-        <v>53.94840241748538</v>
+        <v>54.0063205348426</v>
       </c>
       <c r="Q11">
-        <v>45.4229664182344</v>
+        <v>44.32332834311548</v>
       </c>
       <c r="R11">
-        <v>64.23084015388137</v>
+        <v>64.05136914681935</v>
       </c>
       <c r="S11">
-        <v>41.60740413496195</v>
+        <v>39.51562537314753</v>
       </c>
       <c r="T11">
-        <v>42.71571580116878</v>
+        <v>42.42304058248128</v>
       </c>
     </row>
     <row r="12">
@@ -1106,61 +1106,61 @@
         </is>
       </c>
       <c r="B12">
-        <v>9.434903774033438</v>
+        <v>9.17820475254778</v>
       </c>
       <c r="C12">
-        <v>10.83010683356635</v>
+        <v>10.85996819310903</v>
       </c>
       <c r="D12">
-        <v>9.730719751457457</v>
+        <v>9.132629700799418</v>
       </c>
       <c r="E12">
-        <v>9.111177003438451</v>
+        <v>9.111287646253952</v>
       </c>
       <c r="F12">
-        <v>7.725317797295171</v>
+        <v>7.644117625348795</v>
       </c>
       <c r="G12">
-        <v>8.475743944959166</v>
+        <v>8.457960691469934</v>
       </c>
       <c r="H12">
-        <v>9.379427752577316</v>
+        <v>9.632905630286746</v>
       </c>
       <c r="I12">
-        <v>9.265822593454574</v>
+        <v>9.18643792456135</v>
       </c>
       <c r="J12">
-        <v>8.101192002724341</v>
+        <v>8.040436731668379</v>
       </c>
       <c r="K12">
-        <v>9.074277861054085</v>
+        <v>9.079307356884669</v>
       </c>
       <c r="L12">
-        <v>10.23329084901688</v>
+        <v>9.950183247944491</v>
       </c>
       <c r="M12">
-        <v>11.01589439975633</v>
+        <v>10.86836638539037</v>
       </c>
       <c r="N12">
-        <v>8.419860410035021</v>
+        <v>8.380443062068267</v>
       </c>
       <c r="O12">
-        <v>10.33206001652789</v>
+        <v>10.32321158127487</v>
       </c>
       <c r="P12">
-        <v>11.6050452588586</v>
+        <v>11.61750424453971</v>
       </c>
       <c r="Q12">
-        <v>10.43487053570061</v>
+        <v>10.18225425246758</v>
       </c>
       <c r="R12">
-        <v>10.87060187077889</v>
+        <v>10.84022771001056</v>
       </c>
       <c r="S12">
-        <v>8.534207893221863</v>
+        <v>8.10515745878368</v>
       </c>
       <c r="T12">
-        <v>11.63018498408773</v>
+        <v>11.55049845959079</v>
       </c>
     </row>
     <row r="13">
@@ -1170,61 +1170,61 @@
         </is>
       </c>
       <c r="B13">
-        <v>4.019374884725575</v>
+        <v>3.910018220937153</v>
       </c>
       <c r="C13">
-        <v>4.415972026324519</v>
+        <v>4.428147984552355</v>
       </c>
       <c r="D13">
-        <v>3.975295954822386</v>
+        <v>3.730957918199318</v>
       </c>
       <c r="E13">
-        <v>3.471984616300828</v>
+        <v>3.472026778817611</v>
       </c>
       <c r="F13">
-        <v>3.651317820240446</v>
+        <v>3.612939122740364</v>
       </c>
       <c r="G13">
-        <v>2.881429102510866</v>
+        <v>2.875383475781937</v>
       </c>
       <c r="H13">
-        <v>3.797272701030926</v>
+        <v>3.899893527240371</v>
       </c>
       <c r="I13">
-        <v>3.999554337193862</v>
+        <v>3.965288270303818</v>
       </c>
       <c r="J13">
-        <v>3.110232556672947</v>
+        <v>3.086907221097121</v>
       </c>
       <c r="K13">
-        <v>3.459620732003854</v>
+        <v>3.461538256275587</v>
       </c>
       <c r="L13">
-        <v>4.077941219947579</v>
+        <v>3.965123537627479</v>
       </c>
       <c r="M13">
-        <v>3.859909425528171</v>
+        <v>3.808216412458509</v>
       </c>
       <c r="N13">
-        <v>2.885604784861795</v>
+        <v>2.872095904386311</v>
       </c>
       <c r="O13">
-        <v>4.060256356429033</v>
+        <v>4.056779129678212</v>
       </c>
       <c r="P13">
-        <v>4.536532177944586</v>
+        <v>4.541402524262605</v>
       </c>
       <c r="Q13">
-        <v>3.737821388190667</v>
+        <v>3.647333006639295</v>
       </c>
       <c r="R13">
-        <v>3.70961702384262</v>
+        <v>3.699251774042236</v>
       </c>
       <c r="S13">
-        <v>3.779022816963689</v>
+        <v>3.589035485783505</v>
       </c>
       <c r="T13">
-        <v>5.408670776029274</v>
+        <v>5.371612192964639</v>
       </c>
     </row>
     <row r="14">
@@ -1234,61 +1234,61 @@
         </is>
       </c>
       <c r="B14">
-        <v>8.078256108007526</v>
+        <v>7.85846791642647</v>
       </c>
       <c r="C14">
-        <v>7.422093334449306</v>
+        <v>7.442557933831873</v>
       </c>
       <c r="D14">
-        <v>6.930501907367012</v>
+        <v>6.504524760482073</v>
       </c>
       <c r="E14">
-        <v>7.976588442165377</v>
+        <v>7.976685306950575</v>
       </c>
       <c r="F14">
-        <v>5.339064562793401</v>
+        <v>5.282946099850244</v>
       </c>
       <c r="G14">
-        <v>6.525351321292807</v>
+        <v>6.511660254478328</v>
       </c>
       <c r="H14">
-        <v>7.515582144329893</v>
+        <v>7.718689824451654</v>
       </c>
       <c r="I14">
-        <v>6.778413043011642</v>
+        <v>6.720339183986852</v>
       </c>
       <c r="J14">
-        <v>6.310519705199787</v>
+        <v>6.263193665394229</v>
       </c>
       <c r="K14">
-        <v>8.348579053153539</v>
+        <v>8.353206324235833</v>
       </c>
       <c r="L14">
-        <v>7.714068656585561</v>
+        <v>7.500656226107885</v>
       </c>
       <c r="M14">
-        <v>7.172732515124043</v>
+        <v>7.076673225961121</v>
       </c>
       <c r="N14">
-        <v>5.68180670107422</v>
+        <v>5.655207477226144</v>
       </c>
       <c r="O14">
-        <v>8.55961121561937</v>
+        <v>8.552280715650213</v>
       </c>
       <c r="P14">
-        <v>7.829382106192739</v>
+        <v>7.837787602024697</v>
       </c>
       <c r="Q14">
-        <v>6.31883424422898</v>
+        <v>6.16586249286115</v>
       </c>
       <c r="R14">
-        <v>6.242229123399454</v>
+        <v>6.224787359530191</v>
       </c>
       <c r="S14">
-        <v>7.451030705596714</v>
+        <v>7.076436132644306</v>
       </c>
       <c r="T14">
-        <v>7.049344991871245</v>
+        <v>7.001045003251061</v>
       </c>
     </row>
     <row r="15">
@@ -1298,61 +1298,61 @@
         </is>
       </c>
       <c r="B15">
-        <v>1.65057482488534</v>
+        <v>1.605667006789407</v>
       </c>
       <c r="C15">
-        <v>1.853707555640976</v>
+        <v>1.858818698924847</v>
       </c>
       <c r="D15">
-        <v>1.441836489705964</v>
+        <v>1.35321528991859</v>
       </c>
       <c r="E15">
-        <v>1.333500606508922</v>
+        <v>1.333516800054665</v>
       </c>
       <c r="F15">
-        <v>1.822677025416066</v>
+        <v>1.803519019007797</v>
       </c>
       <c r="G15">
-        <v>1.803193180370785</v>
+        <v>1.799409837973371</v>
       </c>
       <c r="H15">
-        <v>1.745791628865979</v>
+        <v>1.792971432227249</v>
       </c>
       <c r="I15">
-        <v>1.399117413475366</v>
+        <v>1.387130515227396</v>
       </c>
       <c r="J15">
-        <v>1.50115794850666</v>
+        <v>1.489899943755179</v>
       </c>
       <c r="K15">
-        <v>1.701664814752116</v>
+        <v>1.702607976976361</v>
       </c>
       <c r="L15">
-        <v>1.648849039311416</v>
+        <v>1.603233049016874</v>
       </c>
       <c r="M15">
-        <v>2.481826060380923</v>
+        <v>2.448588734622083</v>
       </c>
       <c r="N15">
-        <v>1.160783587260526</v>
+        <v>1.155349410404267</v>
       </c>
       <c r="O15">
-        <v>2.118429522462676</v>
+        <v>2.116615287311348</v>
       </c>
       <c r="P15">
-        <v>2.175049674356994</v>
+        <v>2.177384771906729</v>
       </c>
       <c r="Q15">
-        <v>1.547892751613006</v>
+        <v>1.510420038135821</v>
       </c>
       <c r="R15">
-        <v>1.223666773642295</v>
+        <v>1.220247657410158</v>
       </c>
       <c r="S15">
-        <v>1.531709322019757</v>
+        <v>1.45470386840671</v>
       </c>
       <c r="T15">
-        <v>2.484373960366829</v>
+        <v>2.467351778284328</v>
       </c>
     </row>
     <row r="16">
@@ -1362,61 +1362,61 @@
         </is>
       </c>
       <c r="B16">
-        <v>1.500450738371116</v>
+        <v>1.459627403491184</v>
       </c>
       <c r="C16">
-        <v>1.493780011097713</v>
+        <v>1.497898742581581</v>
       </c>
       <c r="D16">
-        <v>1.638552165820886</v>
+        <v>1.537840011643917</v>
       </c>
       <c r="E16">
-        <v>1.645871507872078</v>
+        <v>1.645891494736291</v>
       </c>
       <c r="F16">
-        <v>1.707874464306015</v>
+        <v>1.689923138055977</v>
       </c>
       <c r="G16">
-        <v>1.363802842133496</v>
+        <v>1.360941399903941</v>
       </c>
       <c r="H16">
-        <v>1.534701731958762</v>
+        <v>1.576176856901966</v>
       </c>
       <c r="I16">
-        <v>1.309502853235455</v>
+        <v>1.298283725158012</v>
       </c>
       <c r="J16">
-        <v>1.207178082537334</v>
+        <v>1.198124793639514</v>
       </c>
       <c r="K16">
-        <v>1.271874640261751</v>
+        <v>1.272579587619345</v>
       </c>
       <c r="L16">
-        <v>1.397898810391564</v>
+        <v>1.359225446701337</v>
       </c>
       <c r="M16">
-        <v>1.6723615837464</v>
+        <v>1.649964838207747</v>
       </c>
       <c r="N16">
-        <v>1.289436495804742</v>
+        <v>1.283400033849198</v>
       </c>
       <c r="O16">
-        <v>1.546076263835966</v>
+        <v>1.544752195286721</v>
       </c>
       <c r="P16">
-        <v>1.362393752069765</v>
+        <v>1.363856395589929</v>
       </c>
       <c r="Q16">
-        <v>1.286931617969242</v>
+        <v>1.255776475124471</v>
       </c>
       <c r="R16">
-        <v>1.45697602042485</v>
+        <v>1.452905001689544</v>
       </c>
       <c r="S16">
-        <v>1.244164862418235</v>
+        <v>1.181615475127443</v>
       </c>
       <c r="T16">
-        <v>1.206041014117041</v>
+        <v>1.197777584348106</v>
       </c>
     </row>
     <row r="17">
@@ -1426,61 +1426,61 @@
         </is>
       </c>
       <c r="B17">
-        <v>22.59920590778866</v>
+        <v>21.98434070281982</v>
       </c>
       <c r="C17">
-        <v>22.92560916005609</v>
+        <v>22.98882089641142</v>
       </c>
       <c r="D17">
-        <v>18.91972625846208</v>
+        <v>17.75684208078705</v>
       </c>
       <c r="E17">
-        <v>22.8612414156263</v>
+        <v>22.86151903421664</v>
       </c>
       <c r="F17">
-        <v>21.54262604518343</v>
+        <v>21.31619329705003</v>
       </c>
       <c r="G17">
-        <v>18.15263534721022</v>
+        <v>18.11454867092866</v>
       </c>
       <c r="H17">
-        <v>21.39044288659793</v>
+        <v>21.96851696629535</v>
       </c>
       <c r="I17">
-        <v>20.79299999080095</v>
+        <v>20.61485656069334</v>
       </c>
       <c r="J17">
-        <v>19.72865389143012</v>
+        <v>19.5806979221925</v>
       </c>
       <c r="K17">
-        <v>23.30071298197231</v>
+        <v>23.31362760069866</v>
       </c>
       <c r="L17">
-        <v>23.99402294397758</v>
+        <v>23.33021983547921</v>
       </c>
       <c r="M17">
-        <v>21.07239395676257</v>
+        <v>20.79018641867586</v>
       </c>
       <c r="N17">
-        <v>22.35507827788649</v>
+        <v>22.25042358571923</v>
       </c>
       <c r="O17">
-        <v>23.2738261253355</v>
+        <v>23.25389428761574</v>
       </c>
       <c r="P17">
-        <v>20.84143752069765</v>
+        <v>20.86381254516781</v>
       </c>
       <c r="Q17">
-        <v>19.02299419961535</v>
+        <v>18.56246926313155</v>
       </c>
       <c r="R17">
-        <v>18.70898804802865</v>
+        <v>18.65671221109351</v>
       </c>
       <c r="S17">
-        <v>30.91614751243158</v>
+        <v>29.36186307416533</v>
       </c>
       <c r="T17">
-        <v>28.76866255311936</v>
+        <v>28.57154834243229</v>
       </c>
     </row>
     <row r="18">
@@ -1490,61 +1490,61 @@
         </is>
       </c>
       <c r="B18">
-        <v>23.53866663865925</v>
+        <v>22.89824116767029</v>
       </c>
       <c r="C18">
-        <v>23.26697541867</v>
+        <v>23.33112838863833</v>
       </c>
       <c r="D18">
-        <v>21.70727680522694</v>
+        <v>20.37305830796299</v>
       </c>
       <c r="E18">
-        <v>21.11914530825385</v>
+        <v>21.11940177146348</v>
       </c>
       <c r="F18">
-        <v>24.74442474627218</v>
+        <v>24.48433815866087</v>
       </c>
       <c r="G18">
-        <v>20.62484999735939</v>
+        <v>20.5815762814399</v>
       </c>
       <c r="H18">
-        <v>20.94246321649484</v>
+        <v>21.50843070088281</v>
       </c>
       <c r="I18">
-        <v>23.52664774730851</v>
+        <v>23.32508386857561</v>
       </c>
       <c r="J18">
-        <v>21.21343827778152</v>
+        <v>21.05434709809314</v>
       </c>
       <c r="K18">
-        <v>23.9967448574744</v>
+        <v>24.01004525779896</v>
       </c>
       <c r="L18">
-        <v>23.96397960671253</v>
+        <v>23.30100765773721</v>
       </c>
       <c r="M18">
-        <v>23.50636990029811</v>
+        <v>23.19156585892863</v>
       </c>
       <c r="N18">
-        <v>21.3890911849189</v>
+        <v>21.28895873510729</v>
       </c>
       <c r="O18">
-        <v>23.18793299956683</v>
+        <v>23.16807472121092</v>
       </c>
       <c r="P18">
-        <v>25.2257958935865</v>
+        <v>25.25287789308089</v>
       </c>
       <c r="Q18">
-        <v>18.25798484893363</v>
+        <v>17.81597991402978</v>
       </c>
       <c r="R18">
-        <v>24.8611115312914</v>
+        <v>24.7916456997296</v>
       </c>
       <c r="S18">
-        <v>27.87506241865238</v>
+        <v>26.47366608634447</v>
       </c>
       <c r="T18">
-        <v>21.77045087909811</v>
+        <v>21.62128630693868</v>
       </c>
     </row>
     <row r="19">
@@ -1554,61 +1554,61 @@
         </is>
       </c>
       <c r="B19">
-        <v>9.339298434727011</v>
+        <v>9.085200584131542</v>
       </c>
       <c r="C19">
-        <v>10.83091384599806</v>
+        <v>10.8607774306793</v>
       </c>
       <c r="D19">
-        <v>10.91175894328379</v>
+        <v>10.24107736721852</v>
       </c>
       <c r="E19">
-        <v>9.483149708969748</v>
+        <v>9.483264868886323</v>
       </c>
       <c r="F19">
-        <v>9.842455937246756</v>
+        <v>9.739002702642106</v>
       </c>
       <c r="G19">
-        <v>9.554715864315725</v>
+        <v>9.53466878227359</v>
       </c>
       <c r="H19">
-        <v>9.480281814432985</v>
+        <v>9.736485260719938</v>
       </c>
       <c r="I19">
-        <v>9.141492482851454</v>
+        <v>9.063173008609233</v>
       </c>
       <c r="J19">
-        <v>9.719197644793493</v>
+        <v>9.646308064203707</v>
       </c>
       <c r="K19">
-        <v>10.74323298111047</v>
+        <v>10.74918750953828</v>
       </c>
       <c r="L19">
-        <v>9.01830294491549</v>
+        <v>8.768808412790044</v>
       </c>
       <c r="M19">
-        <v>11.19214233013685</v>
+        <v>11.04225395298403</v>
       </c>
       <c r="N19">
-        <v>9.898278579407538</v>
+        <v>9.851940056910019</v>
       </c>
       <c r="O19">
-        <v>8.371770174218739</v>
+        <v>8.364600542391079</v>
       </c>
       <c r="P19">
-        <v>13.98166547080252</v>
+        <v>13.99667595684659</v>
       </c>
       <c r="Q19">
-        <v>8.696797889432148</v>
+        <v>8.486258357452256</v>
       </c>
       <c r="R19">
-        <v>13.72341079867868</v>
+        <v>13.68506544385436</v>
       </c>
       <c r="S19">
-        <v>9.987749789330529</v>
+        <v>9.485623705716415</v>
       </c>
       <c r="T19">
-        <v>8.333849200620168</v>
+        <v>8.276748176054562</v>
       </c>
     </row>
     <row r="20">
@@ -1618,61 +1618,61 @@
         </is>
       </c>
       <c r="B20">
-        <v>0.5941753318878775</v>
+        <v>0.5780093772645448</v>
       </c>
       <c r="C20">
-        <v>0.8513981154554765</v>
+        <v>0.8537456366415815</v>
       </c>
       <c r="D20">
-        <v>1.4165018950548</v>
+        <v>1.329437863635783</v>
       </c>
       <c r="E20">
-        <v>1.036927773720454</v>
+        <v>1.036940365793719</v>
       </c>
       <c r="F20">
-        <v>0.6552691637385367</v>
+        <v>0.6483816841340916</v>
       </c>
       <c r="G20">
-        <v>1.418266636152858</v>
+        <v>1.415290921540688</v>
       </c>
       <c r="H20">
-        <v>0.5245974845360823</v>
+        <v>0.5387746668269073</v>
       </c>
       <c r="I20">
-        <v>0.6563661033788071</v>
+        <v>0.6507427056433194</v>
       </c>
       <c r="J20">
-        <v>1.721456784777345</v>
+        <v>1.708546638525398</v>
       </c>
       <c r="K20">
-        <v>1.317516074720905</v>
+        <v>1.318246319232479</v>
       </c>
       <c r="L20">
-        <v>1.392597044991849</v>
+        <v>1.354070356511572</v>
       </c>
       <c r="M20">
-        <v>1.049512562808899</v>
+        <v>1.03545718983376</v>
       </c>
       <c r="N20">
-        <v>1.238556814459572</v>
+        <v>1.232758544351202</v>
       </c>
       <c r="O20">
-        <v>0.7320984177665633</v>
+        <v>0.7314714444971391</v>
       </c>
       <c r="P20">
-        <v>1.586272491444973</v>
+        <v>1.587975487496812</v>
       </c>
       <c r="Q20">
-        <v>0.9215860308679742</v>
+        <v>0.8992754869085792</v>
       </c>
       <c r="R20">
-        <v>0.696709681771353</v>
+        <v>0.694762966020511</v>
       </c>
       <c r="S20">
-        <v>0.7370071585903083</v>
+        <v>0.6999547167546261</v>
       </c>
       <c r="T20">
-        <v>0.5536504070654253</v>
+        <v>0.5498569612358262</v>
       </c>
     </row>
     <row r="21">
@@ -1682,61 +1682,61 @@
         </is>
       </c>
       <c r="B21">
-        <v>26.72129727276081</v>
+        <v>25.99428075759261</v>
       </c>
       <c r="C21">
-        <v>24.87938625722928</v>
+        <v>24.94798505405054</v>
       </c>
       <c r="D21">
-        <v>22.54853437467295</v>
+        <v>21.16260872776562</v>
       </c>
       <c r="E21">
-        <v>22.77004347430878</v>
+        <v>22.77031998542454</v>
       </c>
       <c r="F21">
-        <v>23.58223518282692</v>
+        <v>23.33436427292133</v>
       </c>
       <c r="G21">
-        <v>19.85573290614001</v>
+        <v>19.81407290156963</v>
       </c>
       <c r="H21">
-        <v>24.53333690721648</v>
+        <v>25.19634731002735</v>
       </c>
       <c r="I21">
-        <v>26.09721315094704</v>
+        <v>25.87362602696224</v>
       </c>
       <c r="J21">
-        <v>21.06235495425805</v>
+        <v>20.90439683107167</v>
       </c>
       <c r="K21">
-        <v>24.68516982723331</v>
+        <v>24.69885179296374</v>
       </c>
       <c r="L21">
-        <v>27.83161746580474</v>
+        <v>27.06164595117068</v>
       </c>
       <c r="M21">
-        <v>24.91794834723713</v>
+        <v>24.58424004282358</v>
       </c>
       <c r="N21">
-        <v>20.05749723885673</v>
+        <v>19.96359860995976</v>
       </c>
       <c r="O21">
-        <v>24.99971603564044</v>
+        <v>24.97830613593685</v>
       </c>
       <c r="P21">
-        <v>28.99667871729773</v>
+        <v>29.02780907455875</v>
       </c>
       <c r="Q21">
-        <v>19.63071190810083</v>
+        <v>19.15547482082922</v>
       </c>
       <c r="R21">
-        <v>24.14670252735033</v>
+        <v>24.07923286621203</v>
       </c>
       <c r="S21">
-        <v>18.99933731936657</v>
+        <v>18.04416092421616</v>
       </c>
       <c r="T21">
-        <v>21.77662214159725</v>
+        <v>21.62741528580596</v>
       </c>
     </row>
     <row r="22">
@@ -1746,61 +1746,61 @@
         </is>
       </c>
       <c r="B22">
-        <v>72.49176087063444</v>
+        <v>70.51944991474758</v>
       </c>
       <c r="C22">
-        <v>65.66256650619417</v>
+        <v>65.84361490553771</v>
       </c>
       <c r="D22">
-        <v>65.77009798469592</v>
+        <v>61.72759730230197</v>
       </c>
       <c r="E22">
-        <v>70.61736652885696</v>
+        <v>70.61822408043928</v>
       </c>
       <c r="F22">
-        <v>72.30995860463517</v>
+        <v>71.54991465224431</v>
       </c>
       <c r="G22">
-        <v>73.09041157398444</v>
+        <v>72.93705803651409</v>
       </c>
       <c r="H22">
-        <v>65.73652115463914</v>
+        <v>67.51304252777946</v>
       </c>
       <c r="I22">
-        <v>78.89795057662644</v>
+        <v>78.22199465153632</v>
       </c>
       <c r="J22">
-        <v>63.62468552401456</v>
+        <v>63.14752919769099</v>
       </c>
       <c r="K22">
-        <v>70.92450707780196</v>
+        <v>70.96381759023018</v>
       </c>
       <c r="L22">
-        <v>75.82673237429286</v>
+        <v>73.72895907571545</v>
       </c>
       <c r="M22">
-        <v>82.56856662451108</v>
+        <v>81.46278472055357</v>
       </c>
       <c r="N22">
-        <v>61.05852502456682</v>
+        <v>60.77268119699437</v>
       </c>
       <c r="O22">
-        <v>78.7503497584818</v>
+        <v>78.6829075088359</v>
       </c>
       <c r="P22">
-        <v>63.42460784854843</v>
+        <v>63.49269946416811</v>
       </c>
       <c r="Q22">
-        <v>57.42217383177762</v>
+        <v>56.03204866645659</v>
       </c>
       <c r="R22">
-        <v>67.00239310272931</v>
+        <v>66.81517794351758</v>
       </c>
       <c r="S22">
-        <v>61.08970447870776</v>
+        <v>58.01846874432788</v>
       </c>
       <c r="T22">
-        <v>66.9079464067139</v>
+        <v>66.44951331062191</v>
       </c>
     </row>
     <row r="23">
@@ -1810,61 +1810,61 @@
         </is>
       </c>
       <c r="B23">
-        <v>6.855139866302161</v>
+        <v>6.668629464291477</v>
       </c>
       <c r="C23">
-        <v>6.899149278700349</v>
+        <v>6.918171988292777</v>
       </c>
       <c r="D23">
-        <v>6.701745420369736</v>
+        <v>6.289828587869665</v>
       </c>
       <c r="E23">
-        <v>8.202069966367748</v>
+        <v>8.20216956931846</v>
       </c>
       <c r="F23">
-        <v>12.51347916099554</v>
+        <v>12.38195102374842</v>
       </c>
       <c r="G23">
-        <v>6.398759800058613</v>
+        <v>6.385334339322647</v>
       </c>
       <c r="H23">
-        <v>5.45628292783505</v>
+        <v>5.603738300722782</v>
       </c>
       <c r="I23">
-        <v>4.701131389882895</v>
+        <v>4.660854581747908</v>
       </c>
       <c r="J23">
-        <v>6.550169114926682</v>
+        <v>6.501045813083455</v>
       </c>
       <c r="K23">
-        <v>5.861881565703981</v>
+        <v>5.86513056351356</v>
       </c>
       <c r="L23">
-        <v>4.544496575122513</v>
+        <v>4.418771474326787</v>
       </c>
       <c r="M23">
-        <v>5.746799033131405</v>
+        <v>5.669836253755376</v>
       </c>
       <c r="N23">
-        <v>13.08916145234035</v>
+        <v>13.0278848982843</v>
       </c>
       <c r="O23">
-        <v>4.597289077356479</v>
+        <v>4.593351932713943</v>
       </c>
       <c r="P23">
-        <v>5.163551992493653</v>
+        <v>5.169095496969784</v>
       </c>
       <c r="Q23">
-        <v>6.634847452641427</v>
+        <v>6.474225382863938</v>
       </c>
       <c r="R23">
-        <v>4.387822868800184</v>
+        <v>4.375562605861278</v>
       </c>
       <c r="S23">
-        <v>15.05188231085636</v>
+        <v>14.2951610397804</v>
       </c>
       <c r="T23">
-        <v>15.04201153718199</v>
+        <v>14.93894820478609</v>
       </c>
     </row>
     <row r="24">
@@ -1874,61 +1874,61 @@
         </is>
       </c>
       <c r="B24">
-        <v>2.428849694445925</v>
+        <v>2.362767055467035</v>
       </c>
       <c r="C24">
-        <v>2.488826339397811</v>
+        <v>2.495688666732358</v>
       </c>
       <c r="D24">
-        <v>2.92391027679907</v>
+        <v>2.744194727462816</v>
       </c>
       <c r="E24">
-        <v>1.852682587395271</v>
+        <v>1.852705085697919</v>
       </c>
       <c r="F24">
-        <v>2.478691660330642</v>
+        <v>2.452638338732485</v>
       </c>
       <c r="G24">
-        <v>1.516890263160893</v>
+        <v>1.513707622882905</v>
       </c>
       <c r="H24">
-        <v>2.538551463917524</v>
+        <v>2.607155504004423</v>
       </c>
       <c r="I24">
-        <v>1.984437739366676</v>
+        <v>1.967436126040934</v>
       </c>
       <c r="J24">
-        <v>2.596698107258174</v>
+        <v>2.577224047477352</v>
       </c>
       <c r="K24">
-        <v>3.294550877376582</v>
+        <v>3.296376910274751</v>
       </c>
       <c r="L24">
-        <v>3.466470943847097</v>
+        <v>3.37056980240793</v>
       </c>
       <c r="M24">
-        <v>2.485016068170616</v>
+        <v>2.451736020913371</v>
       </c>
       <c r="N24">
-        <v>1.853474106145485</v>
+        <v>1.844797117426975</v>
       </c>
       <c r="O24">
-        <v>2.482873252359628</v>
+        <v>2.480746905514968</v>
       </c>
       <c r="P24">
-        <v>3.229908930345514</v>
+        <v>3.233376507439516</v>
       </c>
       <c r="Q24">
-        <v>2.100558385329797</v>
+        <v>2.049706268842053</v>
       </c>
       <c r="R24">
-        <v>2.965440978070678</v>
+        <v>2.957155072461436</v>
       </c>
       <c r="S24">
-        <v>0.9603426611934319</v>
+        <v>0.9120622066802703</v>
       </c>
       <c r="T24">
-        <v>3.151751919202063</v>
+        <v>3.130157064359998</v>
       </c>
     </row>
     <row r="25">
@@ -1938,61 +1938,61 @@
         </is>
       </c>
       <c r="B25">
-        <v>25.09679663132268</v>
+        <v>24.41397852400763</v>
       </c>
       <c r="C25">
-        <v>26.06650154427668</v>
+        <v>26.13837351992709</v>
       </c>
       <c r="D25">
-        <v>25.29882816459787</v>
+        <v>23.74385815158449</v>
       </c>
       <c r="E25">
-        <v>25.26326593300505</v>
+        <v>25.26357272090639</v>
       </c>
       <c r="F25">
-        <v>24.61173087693718</v>
+        <v>24.35303902353474</v>
       </c>
       <c r="G25">
-        <v>22.60321051525191</v>
+        <v>22.55578593224497</v>
       </c>
       <c r="H25">
-        <v>25.60676812371133</v>
+        <v>26.2987878727</v>
       </c>
       <c r="I25">
-        <v>24.63108665188687</v>
+        <v>24.42006052456584</v>
       </c>
       <c r="J25">
-        <v>24.12048981316428</v>
+        <v>23.9395970635407</v>
       </c>
       <c r="K25">
-        <v>25.5553998442545</v>
+        <v>25.5695641423875</v>
       </c>
       <c r="L25">
-        <v>29.68723535570505</v>
+        <v>28.86592751758839</v>
       </c>
       <c r="M25">
-        <v>24.47134725668015</v>
+        <v>24.14361996204325</v>
       </c>
       <c r="N25">
-        <v>24.24198760320166</v>
+        <v>24.12849939624489</v>
       </c>
       <c r="O25">
-        <v>23.08357686545537</v>
+        <v>23.06380795828918</v>
       </c>
       <c r="P25">
-        <v>23.65705127497517</v>
+        <v>23.68244909605366</v>
       </c>
       <c r="Q25">
-        <v>22.34899747005586</v>
+        <v>21.80795379773101</v>
       </c>
       <c r="R25">
-        <v>27.32212182752531</v>
+        <v>27.24577954852491</v>
       </c>
       <c r="S25">
-        <v>33.87906518029968</v>
+        <v>32.17582244051221</v>
       </c>
       <c r="T25">
-        <v>27.32546873724978</v>
+        <v>27.13824285589878</v>
       </c>
     </row>
     <row r="26">
@@ -2002,61 +2002,61 @@
         </is>
       </c>
       <c r="B26">
-        <v>5.477158777455807</v>
+        <v>5.328139631912001</v>
       </c>
       <c r="C26">
-        <v>6.219644811199392</v>
+        <v>6.236793954120066</v>
       </c>
       <c r="D26">
-        <v>5.580317039487319</v>
+        <v>5.237327806821873</v>
       </c>
       <c r="E26">
-        <v>4.743729136563241</v>
+        <v>4.743786742682345</v>
       </c>
       <c r="F26">
-        <v>5.764728604311836</v>
+        <v>5.704136022080695</v>
       </c>
       <c r="G26">
-        <v>4.70228621607712</v>
+        <v>4.692420185637496</v>
       </c>
       <c r="H26">
-        <v>5.225647670103091</v>
+        <v>5.36687015360812</v>
       </c>
       <c r="I26">
-        <v>4.764911121945534</v>
+        <v>4.724087882788279</v>
       </c>
       <c r="J26">
-        <v>5.788054221882149</v>
+        <v>5.744646436581074</v>
       </c>
       <c r="K26">
-        <v>5.580426053205866</v>
+        <v>5.583519051899231</v>
       </c>
       <c r="L26">
-        <v>5.781575168389384</v>
+        <v>5.62162585193859</v>
       </c>
       <c r="M26">
-        <v>5.08008740508563</v>
+        <v>5.012053418876179</v>
       </c>
       <c r="N26">
-        <v>5.399061043313202</v>
+        <v>5.373785485587283</v>
       </c>
       <c r="O26">
-        <v>4.77870820281179</v>
+        <v>4.774615689793277</v>
       </c>
       <c r="P26">
-        <v>6.299676840710897</v>
+        <v>6.306440070134251</v>
       </c>
       <c r="Q26">
-        <v>5.580993449926615</v>
+        <v>5.445883980456454</v>
       </c>
       <c r="R26">
-        <v>5.65815149179899</v>
+        <v>5.642341732127314</v>
       </c>
       <c r="S26">
-        <v>6.168712694817112</v>
+        <v>5.858585627987898</v>
       </c>
       <c r="T26">
-        <v>5.856528111680925</v>
+        <v>5.816400945047123</v>
       </c>
     </row>
     <row r="27">
@@ -2066,61 +2066,61 @@
         </is>
       </c>
       <c r="B27">
-        <v>9.570805578667366</v>
+        <v>9.310409025007221</v>
       </c>
       <c r="C27">
-        <v>10.17723377631186</v>
+        <v>10.20529499875544</v>
       </c>
       <c r="D27">
-        <v>8.620468397627027</v>
+        <v>8.090618960758746</v>
       </c>
       <c r="E27">
-        <v>11.31285328752911</v>
+        <v>11.31299066669962</v>
       </c>
       <c r="F27">
-        <v>13.43786341928426</v>
+        <v>13.29661915608775</v>
       </c>
       <c r="G27">
-        <v>9.182301272777924</v>
+        <v>9.163035566757458</v>
       </c>
       <c r="H27">
-        <v>8.038615999999996</v>
+        <v>8.255858605535412</v>
       </c>
       <c r="I27">
-        <v>8.825015837679876</v>
+        <v>8.749407768003842</v>
       </c>
       <c r="J27">
-        <v>10.76412861142877</v>
+        <v>10.68340252183002</v>
       </c>
       <c r="K27">
-        <v>10.28377587422166</v>
+        <v>10.28947574463273</v>
       </c>
       <c r="L27">
-        <v>8.66750280096767</v>
+        <v>8.427713278567266</v>
       </c>
       <c r="M27">
-        <v>10.37789284181779</v>
+        <v>10.23890912713276</v>
       </c>
       <c r="N27">
-        <v>8.871235868825744</v>
+        <v>8.829705418900483</v>
       </c>
       <c r="O27">
-        <v>10.35533946182968</v>
+        <v>10.34647108992664</v>
       </c>
       <c r="P27">
-        <v>9.521618556132028</v>
+        <v>9.531840809178505</v>
       </c>
       <c r="Q27">
-        <v>9.00923628779468</v>
+        <v>8.791132979468586</v>
       </c>
       <c r="R27">
-        <v>7.794942386469559</v>
+        <v>7.773162099044725</v>
       </c>
       <c r="S27">
-        <v>12.57844161952676</v>
+        <v>11.94607058885389</v>
       </c>
       <c r="T27">
-        <v>11.71041139657651</v>
+        <v>11.63017518486541</v>
       </c>
     </row>
     <row r="28">
@@ -2130,61 +2130,61 @@
         </is>
       </c>
       <c r="B28">
-        <v>17.25478842788227</v>
+        <v>16.7853308254031</v>
       </c>
       <c r="C28">
-        <v>21.44958342245603</v>
+        <v>21.50872538037592</v>
       </c>
       <c r="D28">
-        <v>19.73192355757294</v>
+        <v>18.51911839397116</v>
       </c>
       <c r="E28">
-        <v>18.40690417159031</v>
+        <v>18.4071276983313</v>
       </c>
       <c r="F28">
-        <v>20.51536676460128</v>
+        <v>20.29973145320842</v>
       </c>
       <c r="G28">
-        <v>17.71692499505532</v>
+        <v>17.67975249783468</v>
       </c>
       <c r="H28">
-        <v>17.51498874226803</v>
+        <v>17.98832915189747</v>
       </c>
       <c r="I28">
-        <v>16.48262037709929</v>
+        <v>16.34140600050923</v>
       </c>
       <c r="J28">
-        <v>23.11723700474237</v>
+        <v>22.94386819681686</v>
       </c>
       <c r="K28">
-        <v>21.20196768742555</v>
+        <v>21.21371905868803</v>
       </c>
       <c r="L28">
-        <v>17.6000938719211</v>
+        <v>17.11318106662278</v>
       </c>
       <c r="M28">
-        <v>17.45891263298816</v>
+        <v>17.22509787221935</v>
       </c>
       <c r="N28">
-        <v>22.99906967319821</v>
+        <v>22.89140015279386</v>
       </c>
       <c r="O28">
-        <v>18.05361120128291</v>
+        <v>18.03814998546125</v>
       </c>
       <c r="P28">
-        <v>24.7700711999117</v>
+        <v>24.79666394087187</v>
       </c>
       <c r="Q28">
-        <v>20.34495895607376</v>
+        <v>19.8524307645233</v>
       </c>
       <c r="R28">
-        <v>22.09840824352832</v>
+        <v>22.0366618367799</v>
       </c>
       <c r="S28">
-        <v>23.00914015568682</v>
+        <v>21.8523741495895</v>
       </c>
       <c r="T28">
-        <v>20.38985129714834</v>
+        <v>20.25014617748756</v>
       </c>
     </row>
     <row r="29">
@@ -2194,61 +2194,61 @@
         </is>
       </c>
       <c r="B29">
-        <v>7.850699597922806</v>
+        <v>7.637102623006006</v>
       </c>
       <c r="C29">
-        <v>7.628688516967413</v>
+        <v>7.649722751822625</v>
       </c>
       <c r="D29">
-        <v>7.67563704416596</v>
+        <v>7.203860827623463</v>
       </c>
       <c r="E29">
-        <v>6.387446362356951</v>
+        <v>6.387523929179452</v>
       </c>
       <c r="F29">
-        <v>8.151727309989646</v>
+        <v>8.066045183169843</v>
       </c>
       <c r="G29">
-        <v>6.489287457685392</v>
+        <v>6.475672057718861</v>
       </c>
       <c r="H29">
-        <v>7.290419587628862</v>
+        <v>7.487442277438019</v>
       </c>
       <c r="I29">
-        <v>6.271404540032686</v>
+        <v>6.217674461792503</v>
       </c>
       <c r="J29">
-        <v>6.986301270516618</v>
+        <v>6.9339071750272</v>
       </c>
       <c r="K29">
-        <v>7.571153286199288</v>
+        <v>7.575349662425443</v>
       </c>
       <c r="L29">
-        <v>7.339410568339021</v>
+        <v>7.136363186031168</v>
       </c>
       <c r="M29">
-        <v>7.752516430900692</v>
+        <v>7.64869250940272</v>
       </c>
       <c r="N29">
-        <v>7.910336743992674</v>
+        <v>7.873304717238341</v>
       </c>
       <c r="O29">
-        <v>8.199983922681408</v>
+        <v>8.192961409581443</v>
       </c>
       <c r="P29">
-        <v>8.275546141958277</v>
+        <v>8.284430632159411</v>
       </c>
       <c r="Q29">
-        <v>6.83432185342666</v>
+        <v>6.66887073650823</v>
       </c>
       <c r="R29">
-        <v>7.385444432633973</v>
+        <v>7.36480834649918</v>
       </c>
       <c r="S29">
-        <v>9.180019721582564</v>
+        <v>8.718501617152002</v>
       </c>
       <c r="T29">
-        <v>8.759666313060617</v>
+        <v>8.699647717896765</v>
       </c>
     </row>
     <row r="30">
@@ -2258,61 +2258,61 @@
         </is>
       </c>
       <c r="B30">
-        <v>3.673299358971732</v>
+        <v>3.573358503860197</v>
       </c>
       <c r="C30">
-        <v>5.502210759407999</v>
+        <v>5.517381754144363</v>
       </c>
       <c r="D30">
-        <v>5.58702325571851</v>
+        <v>5.243621831426146</v>
       </c>
       <c r="E30">
-        <v>3.778610765455007</v>
+        <v>3.77865665152808</v>
       </c>
       <c r="F30">
-        <v>4.341624129252829</v>
+        <v>4.295989679632479</v>
       </c>
       <c r="G30">
-        <v>4.795021865353331</v>
+        <v>4.784961263018984</v>
       </c>
       <c r="H30">
-        <v>4.735450020618555</v>
+        <v>4.863424973130519</v>
       </c>
       <c r="I30">
-        <v>4.304728245037883</v>
+        <v>4.267847609459015</v>
       </c>
       <c r="J30">
-        <v>6.696042668673486</v>
+        <v>6.645825381242113</v>
       </c>
       <c r="K30">
-        <v>4.965027378581609</v>
+        <v>4.967779287315469</v>
       </c>
       <c r="L30">
-        <v>4.009901897317901</v>
+        <v>3.89896654685883</v>
       </c>
       <c r="M30">
-        <v>4.021004818907652</v>
+        <v>3.967154370168554</v>
       </c>
       <c r="N30">
-        <v>6.556210367620501</v>
+        <v>6.525517646741692</v>
       </c>
       <c r="O30">
-        <v>5.878461308447966</v>
+        <v>5.873426960583936</v>
       </c>
       <c r="P30">
-        <v>8.097877249144499</v>
+        <v>8.106570996945051</v>
       </c>
       <c r="Q30">
-        <v>6.090761363044431</v>
+        <v>5.943310995325203</v>
       </c>
       <c r="R30">
-        <v>6.897104043678763</v>
+        <v>6.877832456921294</v>
       </c>
       <c r="S30">
-        <v>4.588614013900012</v>
+        <v>4.357925136763965</v>
       </c>
       <c r="T30">
-        <v>6.44808770266962</v>
+        <v>6.40390734789623</v>
       </c>
     </row>
     <row r="31">
@@ -2322,61 +2322,61 @@
         </is>
       </c>
       <c r="B31">
-        <v>2.098576704114631</v>
+        <v>2.041479928210945</v>
       </c>
       <c r="C31">
-        <v>2.714789820276989</v>
+        <v>2.722275186409744</v>
       </c>
       <c r="D31">
-        <v>2.076691626258667</v>
+        <v>1.949049619123055</v>
       </c>
       <c r="E31">
-        <v>3.665870003353822</v>
+        <v>3.665914520344138</v>
       </c>
       <c r="F31">
-        <v>3.334492570423748</v>
+        <v>3.299443996736964</v>
       </c>
       <c r="G31">
-        <v>2.010744395417544</v>
+        <v>2.006525582589081</v>
       </c>
       <c r="H31">
-        <v>2.37437043298969</v>
+        <v>2.438537500973648</v>
       </c>
       <c r="I31">
-        <v>1.838309492488984</v>
+        <v>1.822559828720588</v>
       </c>
       <c r="J31">
-        <v>4.21842501345352</v>
+        <v>4.186788736343259</v>
       </c>
       <c r="K31">
-        <v>2.350533874646418</v>
+        <v>2.351836678076421</v>
       </c>
       <c r="L31">
-        <v>1.783160429437533</v>
+        <v>1.733828667157584</v>
       </c>
       <c r="M31">
-        <v>2.540841204490238</v>
+        <v>2.506813531010911</v>
       </c>
       <c r="N31">
-        <v>4.81467156043439</v>
+        <v>4.792131806210307</v>
       </c>
       <c r="O31">
-        <v>1.469013272492117</v>
+        <v>1.467755201129128</v>
       </c>
       <c r="P31">
-        <v>3.846571365492881</v>
+        <v>3.850700981232853</v>
       </c>
       <c r="Q31">
-        <v>3.388919927319006</v>
+        <v>3.306878051161106</v>
       </c>
       <c r="R31">
-        <v>1.781195421988193</v>
+        <v>1.776218483567449</v>
       </c>
       <c r="S31">
-        <v>1.64058537953878</v>
+        <v>1.558106269745462</v>
       </c>
       <c r="T31">
-        <v>1.995962614006565</v>
+        <v>1.98228687935973</v>
       </c>
     </row>
     <row r="32">
@@ -2386,61 +2386,61 @@
         </is>
       </c>
       <c r="B32">
-        <v>1.189140790546882</v>
+        <v>1.156787384020133</v>
       </c>
       <c r="C32">
-        <v>1.538972707273549</v>
+        <v>1.543216046517058</v>
       </c>
       <c r="D32">
-        <v>1.177313516142337</v>
+        <v>1.104950986083397</v>
       </c>
       <c r="E32">
-        <v>2.078164111597641</v>
+        <v>2.078189348065805</v>
       </c>
       <c r="F32">
-        <v>1.889769431259602</v>
+        <v>1.869906222161459</v>
       </c>
       <c r="G32">
-        <v>1.139323691107745</v>
+        <v>1.136933236401134</v>
       </c>
       <c r="H32">
-        <v>1.346284453608247</v>
+        <v>1.382667624852361</v>
       </c>
       <c r="I32">
-        <v>1.042273849276802</v>
+        <v>1.033344198014176</v>
       </c>
       <c r="J32">
-        <v>2.391284327492265</v>
+        <v>2.373350778029444</v>
       </c>
       <c r="K32">
-        <v>1.33196919563297</v>
+        <v>1.332707450909972</v>
       </c>
       <c r="L32">
-        <v>1.010869936212357</v>
+        <v>0.9829038628485016</v>
       </c>
       <c r="M32">
-        <v>1.440288517046256</v>
+        <v>1.420999760516543</v>
       </c>
       <c r="N32">
-        <v>2.729331477873058</v>
+        <v>2.716554186642468</v>
       </c>
       <c r="O32">
-        <v>0.8324408544121997</v>
+        <v>0.8317279473065057</v>
       </c>
       <c r="P32">
-        <v>2.180626724804063</v>
+        <v>2.182967809783413</v>
       </c>
       <c r="Q32">
-        <v>1.921102920824086</v>
+        <v>1.874595215921918</v>
       </c>
       <c r="R32">
-        <v>1.009665878317607</v>
+        <v>1.006844714036653</v>
       </c>
       <c r="S32">
-        <v>0.9296340295855023</v>
+        <v>0.8828974268154941</v>
       </c>
       <c r="T32">
-        <v>1.13110425519895</v>
+        <v>1.123354269531154</v>
       </c>
     </row>
     <row r="33">
@@ -2450,61 +2450,61 @@
         </is>
       </c>
       <c r="B33">
-        <v>3.170778732534644</v>
+        <v>3.084510147556673</v>
       </c>
       <c r="C33">
-        <v>4.405480864712271</v>
+        <v>4.417627896138762</v>
       </c>
       <c r="D33">
-        <v>4.344137847537866</v>
+        <v>4.077129271434306</v>
       </c>
       <c r="E33">
-        <v>4.011273229918599</v>
+        <v>4.011321941359912</v>
       </c>
       <c r="F33">
-        <v>4.517555326798102</v>
+        <v>4.470071679013191</v>
       </c>
       <c r="G33">
-        <v>3.252371699615713</v>
+        <v>3.245547785307887</v>
       </c>
       <c r="H33">
-        <v>5.283501938144327</v>
+        <v>5.426287926104679</v>
       </c>
       <c r="I33">
-        <v>3.387591844744741</v>
+        <v>3.358568748929112</v>
       </c>
       <c r="J33">
-        <v>6.960996674458499</v>
+        <v>6.90879235197927</v>
       </c>
       <c r="K33">
-        <v>3.122634807580436</v>
+        <v>3.124365554531945</v>
       </c>
       <c r="L33">
-        <v>2.921272735243054</v>
+        <v>2.840454694560443</v>
       </c>
       <c r="M33">
-        <v>4.347183115403731</v>
+        <v>4.288964393452755</v>
       </c>
       <c r="N33">
-        <v>5.417232358079335</v>
+        <v>5.391871731836567</v>
       </c>
       <c r="O33">
-        <v>2.846514242763414</v>
+        <v>2.844076471696113</v>
       </c>
       <c r="P33">
-        <v>6.222394855944366</v>
+        <v>6.229075116700201</v>
       </c>
       <c r="Q33">
-        <v>7.620065102397882</v>
+        <v>7.435592039931449</v>
       </c>
       <c r="R33">
-        <v>6.614719403607464</v>
+        <v>6.596236843672796</v>
       </c>
       <c r="S33">
-        <v>2.653970222600453</v>
+        <v>2.520544005283072</v>
       </c>
       <c r="T33">
-        <v>3.227570287048603</v>
+        <v>3.20545594758656</v>
       </c>
     </row>
     <row r="34">
@@ -2514,61 +2514,61 @@
         </is>
       </c>
       <c r="B34">
-        <v>2.051959224618109</v>
+        <v>1.996130788239392</v>
       </c>
       <c r="C34">
-        <v>1.957005146900029</v>
+        <v>1.962401107920223</v>
       </c>
       <c r="D34">
-        <v>3.163843790848332</v>
+        <v>2.969380941082344</v>
       </c>
       <c r="E34">
-        <v>2.12986688147844</v>
+        <v>2.129892745806212</v>
       </c>
       <c r="F34">
-        <v>2.644186261411365</v>
+        <v>2.61639343984485</v>
       </c>
       <c r="G34">
-        <v>1.4867143772853</v>
+        <v>1.483595050084167</v>
       </c>
       <c r="H34">
-        <v>2.028026639175257</v>
+        <v>2.082833808865868</v>
       </c>
       <c r="I34">
-        <v>1.616291437840555</v>
+        <v>1.602443907377522</v>
       </c>
       <c r="J34">
-        <v>2.345140652327459</v>
+        <v>2.327553159530277</v>
       </c>
       <c r="K34">
-        <v>2.446380887010641</v>
+        <v>2.447736814464003</v>
       </c>
       <c r="L34">
-        <v>1.859152400166784</v>
+        <v>1.807718293210881</v>
       </c>
       <c r="M34">
-        <v>2.025654946454866</v>
+        <v>1.998526794967895</v>
       </c>
       <c r="N34">
-        <v>2.400794106901388</v>
+        <v>2.389554854455411</v>
       </c>
       <c r="O34">
-        <v>2.234024009478449</v>
+        <v>2.232110778547739</v>
       </c>
       <c r="P34">
-        <v>2.845092449497738</v>
+        <v>2.848146893948325</v>
       </c>
       <c r="Q34">
-        <v>2.777627408783615</v>
+        <v>2.710384225476982</v>
       </c>
       <c r="R34">
-        <v>2.629958371490246</v>
+        <v>2.622609856721767</v>
       </c>
       <c r="S34">
-        <v>1.213456230810305</v>
+        <v>1.152450695262667</v>
       </c>
       <c r="T34">
-        <v>1.475813346222169</v>
+        <v>1.465701517689129</v>
       </c>
     </row>
     <row r="35">
@@ -2578,61 +2578,61 @@
         </is>
       </c>
       <c r="B35">
-        <v>100.5017549071042</v>
+        <v>97.76736537223178</v>
       </c>
       <c r="C35">
-        <v>94.8102415147448</v>
+        <v>95.07165746878003</v>
       </c>
       <c r="D35">
-        <v>95.83704588967024</v>
+        <v>89.94650694752421</v>
       </c>
       <c r="E35">
-        <v>79.21941486777477</v>
+        <v>79.2203768794995</v>
       </c>
       <c r="F35">
-        <v>88.82810892331378</v>
+        <v>87.89444406867571</v>
       </c>
       <c r="G35">
-        <v>80.28478436505563</v>
+        <v>80.11633606353028</v>
       </c>
       <c r="H35">
-        <v>88.80551962886594</v>
+        <v>91.2054778393466</v>
       </c>
       <c r="I35">
-        <v>93.45506891613846</v>
+        <v>92.65439529785206</v>
       </c>
       <c r="J35">
-        <v>80.53113270213913</v>
+        <v>79.9271856787731</v>
       </c>
       <c r="K35">
-        <v>93.93767902268161</v>
+        <v>93.98974478176611</v>
       </c>
       <c r="L35">
-        <v>104.4677526911208</v>
+        <v>101.5776154625236</v>
       </c>
       <c r="M35">
-        <v>82.88995990932263</v>
+        <v>81.77987381440084</v>
       </c>
       <c r="N35">
-        <v>90.25401303301611</v>
+        <v>89.8314913207941</v>
       </c>
       <c r="O35">
-        <v>96.44031996936091</v>
+        <v>96.35772792811601</v>
       </c>
       <c r="P35">
-        <v>97.59439921624906</v>
+        <v>97.69917495777096</v>
       </c>
       <c r="Q35">
-        <v>98.81275451370838</v>
+        <v>96.42061072084871</v>
       </c>
       <c r="R35">
-        <v>100.6833986770454</v>
+        <v>100.4020735237124</v>
       </c>
       <c r="S35">
-        <v>99.9733460465058</v>
+        <v>94.94726652159059</v>
       </c>
       <c r="T35">
-        <v>100.3561891520359</v>
+        <v>99.66857877127039</v>
       </c>
     </row>
     <row r="36">
@@ -2642,61 +2642,61 @@
         </is>
       </c>
       <c r="B36">
-        <v>7.8562304853207</v>
+        <v>7.642483029443309</v>
       </c>
       <c r="C36">
-        <v>12.98240898894052</v>
+        <v>13.01820479303614</v>
       </c>
       <c r="D36">
-        <v>6.908892988399843</v>
+        <v>6.484244014534973</v>
       </c>
       <c r="E36">
-        <v>6.512394722902216</v>
+        <v>6.512473807052103</v>
       </c>
       <c r="F36">
-        <v>6.337995938686052</v>
+        <v>6.271377791249201</v>
       </c>
       <c r="G36">
-        <v>5.297707964207718</v>
+        <v>5.286592658666254</v>
       </c>
       <c r="H36">
-        <v>11.57476268041236</v>
+        <v>11.88756921366969</v>
       </c>
       <c r="I36">
-        <v>9.742959576353559</v>
+        <v>9.659487050065902</v>
       </c>
       <c r="J36">
-        <v>7.013094372225216</v>
+        <v>6.960499340607362</v>
       </c>
       <c r="K36">
-        <v>6.767103349143864</v>
+        <v>6.770854073840726</v>
       </c>
       <c r="L36">
-        <v>12.58285654865732</v>
+        <v>12.23474738370862</v>
       </c>
       <c r="M36">
-        <v>8.47505319526609</v>
+        <v>8.361552854379459</v>
       </c>
       <c r="N36">
-        <v>9.494148539008757</v>
+        <v>9.449701940325941</v>
       </c>
       <c r="O36">
-        <v>6.132126988288134</v>
+        <v>6.126875399686014</v>
       </c>
       <c r="P36">
-        <v>13.37137680759466</v>
+        <v>13.38573209776946</v>
       </c>
       <c r="Q36">
-        <v>8.758999584300661</v>
+        <v>8.546954220416605</v>
       </c>
       <c r="R36">
-        <v>13.67594443467809</v>
+        <v>13.63773170829407</v>
       </c>
       <c r="S36">
-        <v>7.506864581247495</v>
+        <v>7.129463005125717</v>
       </c>
       <c r="T36">
-        <v>7.075793259724687</v>
+        <v>7.027312055539396</v>
       </c>
     </row>
     <row r="37">
@@ -2706,61 +2706,61 @@
         </is>
       </c>
       <c r="B37">
-        <v>25.48000811531951</v>
+        <v>24.78676382716361</v>
       </c>
       <c r="C37">
-        <v>25.70173192514314</v>
+        <v>25.77259813816217</v>
       </c>
       <c r="D37">
-        <v>25.36067438095218</v>
+        <v>23.80190304515722</v>
       </c>
       <c r="E37">
-        <v>25.51172646604333</v>
+        <v>25.5120362711589</v>
       </c>
       <c r="F37">
-        <v>27.24697148423608</v>
+        <v>26.96058083629243</v>
       </c>
       <c r="G37">
-        <v>28.87317080242689</v>
+        <v>28.81259099742666</v>
       </c>
       <c r="H37">
-        <v>24.37541039175257</v>
+        <v>25.03415284996917</v>
       </c>
       <c r="I37">
-        <v>27.58271577114015</v>
+        <v>27.34640164613039</v>
       </c>
       <c r="J37">
-        <v>21.07947276923854</v>
+        <v>20.92138627019233</v>
       </c>
       <c r="K37">
-        <v>29.75441181449665</v>
+        <v>29.77090345079586</v>
       </c>
       <c r="L37">
-        <v>28.31584537231206</v>
+        <v>27.53247752183588</v>
       </c>
       <c r="M37">
-        <v>32.27490381221592</v>
+        <v>31.84266905210658</v>
       </c>
       <c r="N37">
-        <v>18.91997293449686</v>
+        <v>18.83139959475458</v>
       </c>
       <c r="O37">
-        <v>29.97429267478451</v>
+        <v>29.94862251921401</v>
       </c>
       <c r="P37">
-        <v>25.28953361298158</v>
+        <v>25.316684040243</v>
       </c>
       <c r="Q37">
-        <v>22.80800308046489</v>
+        <v>22.25584740719207</v>
       </c>
       <c r="R37">
-        <v>27.88286853444752</v>
+        <v>27.80495944149985</v>
       </c>
       <c r="S37">
-        <v>38.58027751009544</v>
+        <v>36.64068510344702</v>
       </c>
       <c r="T37">
-        <v>29.76135420655196</v>
+        <v>29.55743837165449</v>
       </c>
     </row>
     <row r="38">
@@ -2770,61 +2770,61 @@
         </is>
       </c>
       <c r="B38">
-        <v>4.300660015246964</v>
+        <v>4.18365031974856</v>
       </c>
       <c r="C38">
-        <v>5.254457942872615</v>
+        <v>5.268945820069515</v>
       </c>
       <c r="D38">
-        <v>4.592267848091915</v>
+        <v>4.310008181792389</v>
       </c>
       <c r="E38">
-        <v>3.640018618413422</v>
+        <v>3.640062821473935</v>
       </c>
       <c r="F38">
-        <v>3.738537947837043</v>
+        <v>3.699242486840124</v>
       </c>
       <c r="G38">
-        <v>3.364979273736828</v>
+        <v>3.357919093556836</v>
       </c>
       <c r="H38">
-        <v>4.790958845360823</v>
+        <v>4.920433917012351</v>
       </c>
       <c r="I38">
-        <v>4.28858147742709</v>
+        <v>4.251839178815883</v>
       </c>
       <c r="J38">
-        <v>3.858950898863179</v>
+        <v>3.830010514809421</v>
       </c>
       <c r="K38">
-        <v>4.793871999359782</v>
+        <v>4.796529043766215</v>
       </c>
       <c r="L38">
-        <v>4.771588859743646</v>
+        <v>4.639581170788382</v>
       </c>
       <c r="M38">
-        <v>5.035427296029932</v>
+        <v>4.967991410798146</v>
       </c>
       <c r="N38">
-        <v>3.356605263599942</v>
+        <v>3.340891407167754</v>
       </c>
       <c r="O38">
-        <v>5.148771109160896</v>
+        <v>5.144361672154221</v>
       </c>
       <c r="P38">
-        <v>5.581034054531407</v>
+        <v>5.587025760881551</v>
       </c>
       <c r="Q38">
-        <v>4.143204847850978</v>
+        <v>4.042902596303504</v>
       </c>
       <c r="R38">
-        <v>4.979945646841426</v>
+        <v>4.966030900308271</v>
       </c>
       <c r="S38">
-        <v>4.206151965692162</v>
+        <v>3.994691060266299</v>
       </c>
       <c r="T38">
-        <v>6.064587818794683</v>
+        <v>6.023035089715362</v>
       </c>
     </row>
     <row r="39">
@@ -2834,61 +2834,61 @@
         </is>
       </c>
       <c r="B39">
-        <v>3.064111618432432</v>
+        <v>2.980745166265831</v>
       </c>
       <c r="C39">
-        <v>4.622567208842625</v>
+        <v>4.635312802543108</v>
       </c>
       <c r="D39">
-        <v>3.61837622429569</v>
+        <v>3.395975942038592</v>
       </c>
       <c r="E39">
-        <v>5.048201003639053</v>
+        <v>5.048262307153632</v>
       </c>
       <c r="F39">
-        <v>3.46867738211082</v>
+        <v>3.432218403044287</v>
       </c>
       <c r="G39">
-        <v>2.513430494271931</v>
+        <v>2.508156978236351</v>
       </c>
       <c r="H39">
-        <v>3.177293855670102</v>
+        <v>3.263159830081298</v>
       </c>
       <c r="I39">
-        <v>2.890271402332262</v>
+        <v>2.865509085120644</v>
       </c>
       <c r="J39">
-        <v>4.560781313063369</v>
+        <v>4.526577518756438</v>
       </c>
       <c r="K39">
-        <v>3.428432418456765</v>
+        <v>3.430332656339945</v>
       </c>
       <c r="L39">
-        <v>2.880625867178571</v>
+        <v>2.800932336438912</v>
       </c>
       <c r="M39">
-        <v>2.299995616368439</v>
+        <v>2.269193416018665</v>
       </c>
       <c r="N39">
-        <v>4.82557434929407</v>
+        <v>4.802983553959878</v>
       </c>
       <c r="O39">
-        <v>3.629185248599379</v>
+        <v>3.626077193609173</v>
       </c>
       <c r="P39">
-        <v>4.184381278286788</v>
+        <v>4.188873561191993</v>
       </c>
       <c r="Q39">
-        <v>2.944213557109634</v>
+        <v>2.872937513645872</v>
       </c>
       <c r="R39">
-        <v>3.803745237199719</v>
+        <v>3.793116978458401</v>
       </c>
       <c r="S39">
-        <v>2.584177878036977</v>
+        <v>2.454260414681309</v>
       </c>
       <c r="T39">
-        <v>1.66888570155231</v>
+        <v>1.657450999393979</v>
       </c>
     </row>
     <row r="40">
@@ -2898,61 +2898,61 @@
         </is>
       </c>
       <c r="B40">
-        <v>8.06482395289836</v>
+        <v>7.845401215078735</v>
       </c>
       <c r="C40">
-        <v>7.610127231038051</v>
+        <v>7.631110287706269</v>
       </c>
       <c r="D40">
-        <v>8.446851910752871</v>
+        <v>7.927673657114802</v>
       </c>
       <c r="E40">
-        <v>9.511873470014637</v>
+        <v>9.511988978742107</v>
       </c>
       <c r="F40">
-        <v>6.540764098568737</v>
+        <v>6.472014671891376</v>
       </c>
       <c r="G40">
-        <v>7.635971120957915</v>
+        <v>7.619949824070906</v>
       </c>
       <c r="H40">
-        <v>7.566400082474225</v>
+        <v>7.770881111104038</v>
       </c>
       <c r="I40">
-        <v>8.146851598026496</v>
+        <v>8.077053680992295</v>
       </c>
       <c r="J40">
-        <v>10.7321257399435</v>
+        <v>10.65163965738705</v>
       </c>
       <c r="K40">
-        <v>8.580589678320905</v>
+        <v>8.585345543269264</v>
       </c>
       <c r="L40">
-        <v>8.797396053260691</v>
+        <v>8.554012988216506</v>
       </c>
       <c r="M40">
-        <v>7.96066443917814</v>
+        <v>7.854052939909263</v>
       </c>
       <c r="N40">
-        <v>9.529037463359732</v>
+        <v>9.484427533124567</v>
       </c>
       <c r="O40">
-        <v>8.99309054192852</v>
+        <v>8.985388807786675</v>
       </c>
       <c r="P40">
-        <v>7.783172259631309</v>
+        <v>7.791528145332173</v>
       </c>
       <c r="Q40">
-        <v>8.357190934690264</v>
+        <v>8.154872898738853</v>
       </c>
       <c r="R40">
-        <v>7.818273311147816</v>
+        <v>7.796427833472663</v>
       </c>
       <c r="S40">
-        <v>7.093693901431718</v>
+        <v>6.737064148763275</v>
       </c>
       <c r="T40">
-        <v>6.984987540094531</v>
+        <v>6.937128509349444</v>
       </c>
     </row>
     <row r="41">
@@ -2962,61 +2962,61 @@
         </is>
       </c>
       <c r="B41">
-        <v>1.409586159691454</v>
+        <v>1.371235012021207</v>
       </c>
       <c r="C41">
-        <v>1.503464160278249</v>
+        <v>1.507609593424897</v>
       </c>
       <c r="D41">
-        <v>0.9448313534610657</v>
+        <v>0.8867581331352831</v>
       </c>
       <c r="E41">
-        <v>0.8825375581041817</v>
+        <v>0.8825482753188924</v>
       </c>
       <c r="F41">
-        <v>0.9497302782740565</v>
+        <v>0.9397477424196049</v>
       </c>
       <c r="G41">
-        <v>2.092440086446588</v>
+        <v>2.088049865044201</v>
       </c>
       <c r="H41">
-        <v>1.257939422680412</v>
+        <v>1.291935080364372</v>
       </c>
       <c r="I41">
-        <v>0.7758521836986882</v>
+        <v>0.7692050924024968</v>
       </c>
       <c r="J41">
-        <v>0.6564309918606218</v>
+        <v>0.6515080567139652</v>
       </c>
       <c r="K41">
-        <v>0.9485811461760788</v>
+        <v>0.9491069053596431</v>
       </c>
       <c r="L41">
-        <v>0.8906965871521473</v>
+        <v>0.866055151880498</v>
       </c>
       <c r="M41">
-        <v>0.7337017916293219</v>
+        <v>0.7238758469962456</v>
       </c>
       <c r="N41">
-        <v>0.9834315551430752</v>
+        <v>0.9788276470112538</v>
       </c>
       <c r="O41">
-        <v>1.424862600368037</v>
+        <v>1.423642339893006</v>
       </c>
       <c r="P41">
-        <v>0.6110853847002983</v>
+        <v>0.6117414359166524</v>
       </c>
       <c r="Q41">
-        <v>0.8222063114803493</v>
+        <v>0.8023016368850784</v>
       </c>
       <c r="R41">
-        <v>0.8640487277395302</v>
+        <v>0.8616344405381395</v>
       </c>
       <c r="S41">
-        <v>0.7397988523728473</v>
+        <v>0.7026060603786966</v>
       </c>
       <c r="T41">
-        <v>0.9812307373627682</v>
+        <v>0.9745076398972524</v>
       </c>
     </row>
     <row r="42">
@@ -3026,61 +3026,61 @@
         </is>
       </c>
       <c r="B42">
-        <v>6.257804027329773</v>
+        <v>6.087545569062759</v>
       </c>
       <c r="C42">
-        <v>6.419783894263808</v>
+        <v>6.437484871548608</v>
       </c>
       <c r="D42">
-        <v>6.8686556910127</v>
+        <v>6.446479866909337</v>
       </c>
       <c r="E42">
-        <v>7.688632737690376</v>
+        <v>7.688726105646364</v>
       </c>
       <c r="F42">
-        <v>4.711377832568318</v>
+        <v>4.661856932568213</v>
       </c>
       <c r="G42">
-        <v>5.827625960071785</v>
+        <v>5.815398815131897</v>
       </c>
       <c r="H42">
-        <v>5.25301117525773</v>
+        <v>5.39497315411325</v>
       </c>
       <c r="I42">
-        <v>4.68579196065264</v>
+        <v>4.645646572636933</v>
       </c>
       <c r="J42">
-        <v>5.38466919060272</v>
+        <v>5.344286610346415</v>
       </c>
       <c r="K42">
-        <v>6.263526188944533</v>
+        <v>6.266997801709143</v>
       </c>
       <c r="L42">
-        <v>4.88734407097076</v>
+        <v>4.752133973264915</v>
       </c>
       <c r="M42">
-        <v>6.66711628045775</v>
+        <v>6.577828348791971</v>
       </c>
       <c r="N42">
-        <v>4.627870444638551</v>
+        <v>4.606205194767667</v>
       </c>
       <c r="O42">
-        <v>7.643685453918001</v>
+        <v>7.637139358006314</v>
       </c>
       <c r="P42">
-        <v>5.72922425212496</v>
+        <v>5.735375053033438</v>
       </c>
       <c r="Q42">
-        <v>5.035477436309653</v>
+        <v>4.913574285723137</v>
       </c>
       <c r="R42">
-        <v>4.254273437883273</v>
+        <v>4.24238633292894</v>
       </c>
       <c r="S42">
-        <v>6.025405747313441</v>
+        <v>5.722483321952277</v>
       </c>
       <c r="T42">
-        <v>6.619119834788557</v>
+        <v>6.573767619360801</v>
       </c>
     </row>
   </sheetData>

--- a/DATOS/PONDERACIONES/IPC_INQUILINOS_CCAA/alquiler_ajustado_ponderaciones_IPC_CCAA_2022.xlsx
+++ b/DATOS/PONDERACIONES/IPC_INQUILINOS_CCAA/alquiler_ajustado_ponderaciones_IPC_CCAA_2022.xlsx
@@ -466,61 +466,61 @@
         </is>
       </c>
       <c r="B2">
-        <v>173.86344535275</v>
+        <v>168.9729652270855</v>
       </c>
       <c r="C2">
-        <v>167.8634278705515</v>
+        <v>167.4400079564606</v>
       </c>
       <c r="D2">
-        <v>152.375664664564</v>
+        <v>143.0095464796305</v>
       </c>
       <c r="E2">
-        <v>136.6360589144274</v>
+        <v>136.5903346403836</v>
       </c>
       <c r="F2">
-        <v>156.5004913418085</v>
+        <v>154.5846324531734</v>
       </c>
       <c r="G2">
-        <v>164.2510268069336</v>
+        <v>163.7888295848638</v>
       </c>
       <c r="H2">
-        <v>181.2621126597938</v>
+        <v>180.8175381443299</v>
       </c>
       <c r="I2">
-        <v>184.9967458703977</v>
+        <v>182.8021828298903</v>
       </c>
       <c r="J2">
-        <v>157.8694207840038</v>
+        <v>156.2463599404682</v>
       </c>
       <c r="K2">
-        <v>156.48013666206</v>
+        <v>156.1382281333009</v>
       </c>
       <c r="L2">
-        <v>221.0297158865584</v>
+        <v>214.4275891798542</v>
       </c>
       <c r="M2">
-        <v>175.1402001755511</v>
+        <v>172.615953990391</v>
       </c>
       <c r="N2">
-        <v>135.1378873579533</v>
+        <v>133.4162861468298</v>
       </c>
       <c r="O2">
-        <v>173.1412758017922</v>
+        <v>172.9932918053805</v>
       </c>
       <c r="P2">
-        <v>156.7884159399493</v>
+        <v>156.3358457519226</v>
       </c>
       <c r="Q2">
-        <v>151.4346734104607</v>
+        <v>147.7613009040184</v>
       </c>
       <c r="R2">
-        <v>172.043847606744</v>
+        <v>171.563003466828</v>
       </c>
       <c r="S2">
-        <v>243.8628269861333</v>
+        <v>231.1704920592211</v>
       </c>
       <c r="T2">
-        <v>205.3796159712763</v>
+        <v>203.9733736737158</v>
       </c>
     </row>
     <row r="3">
@@ -530,61 +530,61 @@
         </is>
       </c>
       <c r="B3">
-        <v>13.72608226802687</v>
+        <v>13.33999114692417</v>
       </c>
       <c r="C3">
-        <v>11.76139917976125</v>
+        <v>11.73173214213752</v>
       </c>
       <c r="D3">
-        <v>9.814920021915739</v>
+        <v>9.211623549980402</v>
       </c>
       <c r="E3">
-        <v>11.80331150737057</v>
+        <v>11.79936161409734</v>
       </c>
       <c r="F3">
-        <v>16.01570274602813</v>
+        <v>15.81964057267239</v>
       </c>
       <c r="G3">
-        <v>10.30837701398907</v>
+        <v>10.27936956537497</v>
       </c>
       <c r="H3">
-        <v>10.21675101030927</v>
+        <v>10.19169278350515</v>
       </c>
       <c r="I3">
-        <v>12.47176330257787</v>
+        <v>12.32381437155739</v>
       </c>
       <c r="J3">
-        <v>11.55452511183237</v>
+        <v>11.43573264916588</v>
       </c>
       <c r="K3">
-        <v>12.37111081015363</v>
+        <v>12.34407997808482</v>
       </c>
       <c r="L3">
-        <v>15.90883070941196</v>
+        <v>15.43363616067105</v>
       </c>
       <c r="M3">
-        <v>12.75843615487597</v>
+        <v>12.57455242195644</v>
       </c>
       <c r="N3">
-        <v>10.06109355971208</v>
+        <v>9.932919357818969</v>
       </c>
       <c r="O3">
-        <v>13.63453029140908</v>
+        <v>13.62287684671557</v>
       </c>
       <c r="P3">
-        <v>9.814812065349379</v>
+        <v>9.786481583692094</v>
       </c>
       <c r="Q3">
-        <v>8.484454172467224</v>
+        <v>8.278645555540802</v>
       </c>
       <c r="R3">
-        <v>9.414430364998122</v>
+        <v>9.388118039770404</v>
       </c>
       <c r="S3">
-        <v>21.04564886196769</v>
+        <v>19.95028542584435</v>
       </c>
       <c r="T3">
-        <v>19.71542046688552</v>
+        <v>19.58042820855643</v>
       </c>
     </row>
     <row r="4">
@@ -594,61 +594,61 @@
         </is>
       </c>
       <c r="B4">
-        <v>10.35856196948148</v>
+        <v>10.06719341101634</v>
       </c>
       <c r="C4">
-        <v>8.310614021763506</v>
+        <v>8.289651269365457</v>
       </c>
       <c r="D4">
-        <v>8.159974883085276</v>
+        <v>7.658403393245931</v>
       </c>
       <c r="E4">
-        <v>10.2385846244503</v>
+        <v>10.2351583557705</v>
       </c>
       <c r="F4">
-        <v>8.653429411464089</v>
+        <v>8.547495241462531</v>
       </c>
       <c r="G4">
-        <v>9.188189250509746</v>
+        <v>9.162333975020788</v>
       </c>
       <c r="H4">
-        <v>8.316160123711336</v>
+        <v>8.295763402061857</v>
       </c>
       <c r="I4">
-        <v>9.828537444690772</v>
+        <v>9.711944339677602</v>
       </c>
       <c r="J4">
-        <v>9.622444777512449</v>
+        <v>9.523516097975245</v>
       </c>
       <c r="K4">
-        <v>8.440622612646168</v>
+        <v>8.422179882975415</v>
       </c>
       <c r="L4">
-        <v>10.2297563387504</v>
+        <v>9.924194947349964</v>
       </c>
       <c r="M4">
-        <v>11.2144723846647</v>
+        <v>11.05284136501759</v>
       </c>
       <c r="N4">
-        <v>7.756970847366519</v>
+        <v>7.658150222991189</v>
       </c>
       <c r="O4">
-        <v>12.99635239434283</v>
+        <v>12.9852444008434</v>
       </c>
       <c r="P4">
-        <v>8.136119880781546</v>
+        <v>8.112634948669832</v>
       </c>
       <c r="Q4">
-        <v>8.293559315801785</v>
+        <v>8.092381262684192</v>
       </c>
       <c r="R4">
-        <v>9.740258795849618</v>
+        <v>9.713035815031644</v>
       </c>
       <c r="S4">
-        <v>12.68545654785743</v>
+        <v>12.02521625951141</v>
       </c>
       <c r="T4">
-        <v>9.40764887546999</v>
+        <v>9.343234334101224</v>
       </c>
     </row>
     <row r="5">
@@ -658,61 +658,61 @@
         </is>
       </c>
       <c r="B5">
-        <v>18.46684289479185</v>
+        <v>17.94740231901403</v>
       </c>
       <c r="C5">
-        <v>14.68520521985148</v>
+        <v>14.64816315290767</v>
       </c>
       <c r="D5">
-        <v>12.34539894648497</v>
+        <v>11.58656080899448</v>
       </c>
       <c r="E5">
-        <v>12.67938621923965</v>
+        <v>12.67514315386729</v>
       </c>
       <c r="F5">
-        <v>12.5298795268684</v>
+        <v>12.37649035307566</v>
       </c>
       <c r="G5">
-        <v>13.96039520215226</v>
+        <v>13.92111108924979</v>
       </c>
       <c r="H5">
-        <v>13.87095167010309</v>
+        <v>13.83693092783505</v>
       </c>
       <c r="I5">
-        <v>16.94845462267072</v>
+        <v>16.74739999366288</v>
       </c>
       <c r="J5">
-        <v>11.90283543404413</v>
+        <v>11.78046198119871</v>
       </c>
       <c r="K5">
-        <v>15.0441774883114</v>
+        <v>15.01130601528522</v>
       </c>
       <c r="L5">
-        <v>20.58233690926088</v>
+        <v>19.96754538383196</v>
       </c>
       <c r="M5">
-        <v>13.12289454484836</v>
+        <v>12.93375797620285</v>
       </c>
       <c r="N5">
-        <v>14.31754233053089</v>
+        <v>14.13514271856076</v>
       </c>
       <c r="O5">
-        <v>21.10241579632392</v>
+        <v>21.08437954350656</v>
       </c>
       <c r="P5">
-        <v>12.11415029252677</v>
+        <v>12.07918276483792</v>
       </c>
       <c r="Q5">
-        <v>11.19058538025255</v>
+        <v>10.9191337520287</v>
       </c>
       <c r="R5">
-        <v>15.0693637982208</v>
+        <v>15.02724653930435</v>
       </c>
       <c r="S5">
-        <v>22.8267494952276</v>
+        <v>21.63868506791483</v>
       </c>
       <c r="T5">
-        <v>23.48958828957196</v>
+        <v>23.32875415591725</v>
       </c>
     </row>
     <row r="6">
@@ -722,61 +722,61 @@
         </is>
       </c>
       <c r="B6">
-        <v>38.56213706487748</v>
+        <v>37.47745037564092</v>
       </c>
       <c r="C6">
-        <v>39.45322376150459</v>
+        <v>39.35370666699733</v>
       </c>
       <c r="D6">
-        <v>36.79253764972164</v>
+        <v>34.5310003057533</v>
       </c>
       <c r="E6">
-        <v>28.87312460232134</v>
+        <v>28.86346241891012</v>
       </c>
       <c r="F6">
-        <v>27.14409646194266</v>
+        <v>26.81180192385714</v>
       </c>
       <c r="G6">
-        <v>38.79367728333212</v>
+        <v>38.68451309591243</v>
       </c>
       <c r="H6">
-        <v>36.38329826804122</v>
+        <v>36.29406237113403</v>
       </c>
       <c r="I6">
-        <v>41.36398192695348</v>
+        <v>40.87329293932824</v>
       </c>
       <c r="J6">
-        <v>30.64088881508141</v>
+        <v>30.32586880297323</v>
       </c>
       <c r="K6">
-        <v>34.12914330740654</v>
+        <v>34.0545712535666</v>
       </c>
       <c r="L6">
-        <v>44.99431569224934</v>
+        <v>43.6503417741263</v>
       </c>
       <c r="M6">
-        <v>43.95192732638606</v>
+        <v>43.31846062500708</v>
       </c>
       <c r="N6">
-        <v>30.06771111722365</v>
+        <v>29.68466082032201</v>
       </c>
       <c r="O6">
-        <v>41.03684563009264</v>
+        <v>41.00177140305838</v>
       </c>
       <c r="P6">
-        <v>44.26345595540348</v>
+        <v>44.13568936968761</v>
       </c>
       <c r="Q6">
-        <v>35.92112130556148</v>
+        <v>35.04977753446372</v>
       </c>
       <c r="R6">
-        <v>37.11467407523999</v>
+        <v>37.01094253364622</v>
       </c>
       <c r="S6">
-        <v>47.68957432252034</v>
+        <v>45.2074738018956</v>
       </c>
       <c r="T6">
-        <v>54.52398578880302</v>
+        <v>54.15065791648621</v>
       </c>
     </row>
     <row r="7">
@@ -786,61 +786,61 @@
         </is>
       </c>
       <c r="B7">
-        <v>11.49555439313395</v>
+        <v>11.17220419045589</v>
       </c>
       <c r="C7">
-        <v>10.57912596730412</v>
+        <v>10.55244110410874</v>
       </c>
       <c r="D7">
-        <v>11.38342948487752</v>
+        <v>10.68372099704302</v>
       </c>
       <c r="E7">
-        <v>9.521208692354225</v>
+        <v>9.518022488368716</v>
       </c>
       <c r="F7">
-        <v>10.79516810022497</v>
+        <v>10.66301504062878</v>
       </c>
       <c r="G7">
-        <v>11.96584274549723</v>
+        <v>11.93217124045882</v>
       </c>
       <c r="H7">
-        <v>11.57867175257732</v>
+        <v>11.55027319587629</v>
       </c>
       <c r="I7">
-        <v>13.34288141518025</v>
+        <v>13.1845986612331</v>
       </c>
       <c r="J7">
-        <v>10.55052805058523</v>
+        <v>10.44205771559263</v>
       </c>
       <c r="K7">
-        <v>9.580897783550691</v>
+        <v>9.559963556784009</v>
       </c>
       <c r="L7">
-        <v>13.1298220123946</v>
+        <v>12.73763606484176</v>
       </c>
       <c r="M7">
-        <v>14.98984660376601</v>
+        <v>14.77380218296619</v>
       </c>
       <c r="N7">
-        <v>9.200500092388062</v>
+        <v>9.083289497996859</v>
       </c>
       <c r="O7">
-        <v>11.78822945712937</v>
+        <v>11.77815404733695</v>
       </c>
       <c r="P7">
-        <v>12.18744866983111</v>
+        <v>12.15226956617728</v>
       </c>
       <c r="Q7">
-        <v>10.72657503577364</v>
+        <v>10.46637897276301</v>
       </c>
       <c r="R7">
-        <v>10.98564746488201</v>
+        <v>10.95494375603015</v>
       </c>
       <c r="S7">
-        <v>13.76956430007676</v>
+        <v>13.05289942722934</v>
       </c>
       <c r="T7">
-        <v>15.54452862639742</v>
+        <v>15.43809462832657</v>
       </c>
     </row>
     <row r="8">
@@ -850,61 +850,61 @@
         </is>
       </c>
       <c r="B8">
-        <v>228.89</v>
+        <v>250.58</v>
       </c>
       <c r="C8">
-        <v>219</v>
+        <v>220.97</v>
       </c>
       <c r="D8">
-        <v>273.76</v>
+        <v>318.4</v>
       </c>
       <c r="E8">
-        <v>312.7</v>
+        <v>312.93</v>
       </c>
       <c r="F8">
-        <v>285.24</v>
+        <v>293.99</v>
       </c>
       <c r="G8">
-        <v>289.26</v>
+        <v>291.26</v>
       </c>
       <c r="H8">
-        <v>241.64</v>
+        <v>243.5</v>
       </c>
       <c r="I8">
-        <v>210.13</v>
+        <v>219.5</v>
       </c>
       <c r="J8">
-        <v>291.9</v>
+        <v>299.18</v>
       </c>
       <c r="K8">
-        <v>258.58</v>
+        <v>260.2</v>
       </c>
       <c r="L8">
-        <v>133.24</v>
+        <v>159.13</v>
       </c>
       <c r="M8">
-        <v>224.99</v>
+        <v>236.16</v>
       </c>
       <c r="N8">
-        <v>307.67</v>
+        <v>316.49</v>
       </c>
       <c r="O8">
-        <v>216.1</v>
+        <v>216.77</v>
       </c>
       <c r="P8">
-        <v>220.51</v>
+        <v>222.76</v>
       </c>
       <c r="Q8">
-        <v>300</v>
+        <v>316.98</v>
       </c>
       <c r="R8">
-        <v>212.85</v>
+        <v>215.05</v>
       </c>
       <c r="S8">
-        <v>107.73</v>
+        <v>154.17</v>
       </c>
       <c r="T8">
-        <v>157.3</v>
+        <v>163.07</v>
       </c>
     </row>
     <row r="9">
@@ -914,61 +914,61 @@
         </is>
       </c>
       <c r="B9">
-        <v>8.587097748613633</v>
+        <v>8.345557436378764</v>
       </c>
       <c r="C9">
-        <v>7.711810797433682</v>
+        <v>7.692358470582278</v>
       </c>
       <c r="D9">
-        <v>8.222566234576387</v>
+        <v>7.717147424387622</v>
       </c>
       <c r="E9">
-        <v>8.965403916135642</v>
+        <v>8.962403708219579</v>
       </c>
       <c r="F9">
-        <v>10.61327313327138</v>
+        <v>10.48334680846848</v>
       </c>
       <c r="G9">
-        <v>9.325820729991106</v>
+        <v>9.299578163848798</v>
       </c>
       <c r="H9">
-        <v>7.073075175257729</v>
+        <v>7.055727319587629</v>
       </c>
       <c r="I9">
-        <v>7.393604888982921</v>
+        <v>7.305896686608139</v>
       </c>
       <c r="J9">
-        <v>7.123243790360556</v>
+        <v>7.050009480526032</v>
       </c>
       <c r="K9">
-        <v>5.758427647596565</v>
+        <v>5.745845504156804</v>
       </c>
       <c r="L9">
-        <v>9.580290077285298</v>
+        <v>9.29412815229924</v>
       </c>
       <c r="M9">
-        <v>8.124152338399892</v>
+        <v>8.007061227807865</v>
       </c>
       <c r="N9">
-        <v>6.079395068157193</v>
+        <v>6.001946070567683</v>
       </c>
       <c r="O9">
-        <v>8.775548139280779</v>
+        <v>8.76804767078567</v>
       </c>
       <c r="P9">
-        <v>11.23297632188984</v>
+        <v>11.20055230525812</v>
       </c>
       <c r="Q9">
-        <v>6.113640147363885</v>
+        <v>5.965340704932115</v>
       </c>
       <c r="R9">
-        <v>4.831110437687038</v>
+        <v>4.817608001095649</v>
       </c>
       <c r="S9">
-        <v>6.972720504188358</v>
+        <v>6.609811137948872</v>
       </c>
       <c r="T9">
-        <v>6.73108416870147</v>
+        <v>6.684996171011419</v>
       </c>
     </row>
     <row r="10">
@@ -978,61 +978,61 @@
         </is>
       </c>
       <c r="B10">
-        <v>26.12001079993279</v>
+        <v>25.38529975449109</v>
       </c>
       <c r="C10">
-        <v>31.74464101379775</v>
+        <v>31.66456810368611</v>
       </c>
       <c r="D10">
-        <v>25.87556276048026</v>
+        <v>24.28506220745668</v>
       </c>
       <c r="E10">
-        <v>25.99284946354521</v>
+        <v>25.98415114348611</v>
       </c>
       <c r="F10">
-        <v>22.2232412289073</v>
+        <v>21.95118716774979</v>
       </c>
       <c r="G10">
-        <v>25.60755115291457</v>
+        <v>25.53549230958814</v>
       </c>
       <c r="H10">
-        <v>26.59654519587627</v>
+        <v>26.53131288659793</v>
       </c>
       <c r="I10">
-        <v>24.10631670453604</v>
+        <v>23.8203504220826</v>
       </c>
       <c r="J10">
-        <v>25.77198683236918</v>
+        <v>25.50702416588188</v>
       </c>
       <c r="K10">
-        <v>25.46944180935643</v>
+        <v>25.41379117175405</v>
       </c>
       <c r="L10">
-        <v>28.19655565081847</v>
+        <v>27.35432847628378</v>
       </c>
       <c r="M10">
-        <v>19.85381098109996</v>
+        <v>19.56766361698997</v>
       </c>
       <c r="N10">
-        <v>32.24608833138758</v>
+        <v>31.83528640299673</v>
       </c>
       <c r="O10">
-        <v>30.5610952442882</v>
+        <v>30.53497465006231</v>
       </c>
       <c r="P10">
-        <v>25.18516309747213</v>
+        <v>25.11246605585606</v>
       </c>
       <c r="Q10">
-        <v>28.7993847241217</v>
+        <v>28.10079393467085</v>
       </c>
       <c r="R10">
-        <v>30.56994744566728</v>
+        <v>30.48450771450998</v>
       </c>
       <c r="S10">
-        <v>31.10132986667334</v>
+        <v>29.48259813859965</v>
       </c>
       <c r="T10">
-        <v>23.27623892888752</v>
+        <v>23.11686560668546</v>
       </c>
     </row>
     <row r="11">
@@ -1042,61 +1042,61 @@
         </is>
       </c>
       <c r="B11">
-        <v>46.30933005578258</v>
+        <v>45.00672813269777</v>
       </c>
       <c r="C11">
-        <v>58.50517324934619</v>
+        <v>58.3575993808427</v>
       </c>
       <c r="D11">
-        <v>50.81970659996183</v>
+        <v>47.69595728482868</v>
       </c>
       <c r="E11">
-        <v>41.31553979294067</v>
+        <v>41.30171384480685</v>
       </c>
       <c r="F11">
-        <v>31.33811729833971</v>
+        <v>30.95448009653703</v>
       </c>
       <c r="G11">
-        <v>46.40904048222865</v>
+        <v>46.27844690234787</v>
       </c>
       <c r="H11">
-        <v>62.24181063917523</v>
+        <v>62.08915257731959</v>
       </c>
       <c r="I11">
-        <v>66.13473811867372</v>
+        <v>65.3502007945926</v>
       </c>
       <c r="J11">
-        <v>49.41243357325442</v>
+        <v>48.90442267590475</v>
       </c>
       <c r="K11">
-        <v>47.28224402796032</v>
+        <v>47.17893249694511</v>
       </c>
       <c r="L11">
-        <v>59.74382703425691</v>
+        <v>57.95928727478843</v>
       </c>
       <c r="M11">
-        <v>51.26023517257205</v>
+        <v>50.52143589659157</v>
       </c>
       <c r="N11">
-        <v>43.75507225166508</v>
+        <v>43.19765059254344</v>
       </c>
       <c r="O11">
-        <v>40.73341010167623</v>
+        <v>40.69859522124746</v>
       </c>
       <c r="P11">
-        <v>53.94840241748538</v>
+        <v>53.79268020752842</v>
       </c>
       <c r="Q11">
-        <v>45.4229664182344</v>
+        <v>44.32113503283207</v>
       </c>
       <c r="R11">
-        <v>64.23084015388137</v>
+        <v>64.05132183038708</v>
       </c>
       <c r="S11">
-        <v>41.60740413496195</v>
+        <v>39.44186248498198</v>
       </c>
       <c r="T11">
-        <v>42.71571580116878</v>
+        <v>42.42323961726853</v>
       </c>
     </row>
     <row r="12">
@@ -1106,61 +1106,61 @@
         </is>
       </c>
       <c r="B12">
-        <v>9.434903774033438</v>
+        <v>9.169516134320833</v>
       </c>
       <c r="C12">
-        <v>10.83010683356635</v>
+        <v>10.8027888944343</v>
       </c>
       <c r="D12">
-        <v>9.730719751457457</v>
+        <v>9.132598841420746</v>
       </c>
       <c r="E12">
-        <v>9.111177003438451</v>
+        <v>9.108128013607532</v>
       </c>
       <c r="F12">
-        <v>7.725317797295171</v>
+        <v>7.630745450316696</v>
       </c>
       <c r="G12">
-        <v>8.475743944959166</v>
+        <v>8.45189346814638</v>
       </c>
       <c r="H12">
-        <v>9.379427752577316</v>
+        <v>9.356423195876289</v>
       </c>
       <c r="I12">
-        <v>9.265822593454574</v>
+        <v>9.155904812426472</v>
       </c>
       <c r="J12">
-        <v>8.101192002724341</v>
+        <v>8.017903374310507</v>
       </c>
       <c r="K12">
-        <v>9.074277861054085</v>
+        <v>9.054450596973119</v>
       </c>
       <c r="L12">
-        <v>10.23329084901688</v>
+        <v>9.927623882289014</v>
       </c>
       <c r="M12">
-        <v>11.01589439975633</v>
+        <v>10.85712542845882</v>
       </c>
       <c r="N12">
-        <v>8.419860410035021</v>
+        <v>8.312594844746059</v>
       </c>
       <c r="O12">
-        <v>10.33206001652789</v>
+        <v>10.32322919600095</v>
       </c>
       <c r="P12">
-        <v>11.6050452588586</v>
+        <v>11.57154726423078</v>
       </c>
       <c r="Q12">
-        <v>10.43487053570061</v>
+        <v>10.18175039042033</v>
       </c>
       <c r="R12">
-        <v>10.87060187077889</v>
+        <v>10.84021970204903</v>
       </c>
       <c r="S12">
-        <v>8.534207893221863</v>
+        <v>8.090027752052462</v>
       </c>
       <c r="T12">
-        <v>11.63018498408773</v>
+        <v>11.55055265068535</v>
       </c>
     </row>
     <row r="13">
@@ -1170,61 +1170,61 @@
         </is>
       </c>
       <c r="B13">
-        <v>4.019374884725575</v>
+        <v>3.906316772070185</v>
       </c>
       <c r="C13">
-        <v>4.415972026324519</v>
+        <v>4.404833146821498</v>
       </c>
       <c r="D13">
-        <v>3.975295954822386</v>
+        <v>3.730945311201446</v>
       </c>
       <c r="E13">
-        <v>3.471984616300828</v>
+        <v>3.470822741629288</v>
       </c>
       <c r="F13">
-        <v>3.651317820240446</v>
+        <v>3.606618857054056</v>
       </c>
       <c r="G13">
-        <v>2.881429102510866</v>
+        <v>2.873320851666644</v>
       </c>
       <c r="H13">
-        <v>3.797272701030926</v>
+        <v>3.787959278350515</v>
       </c>
       <c r="I13">
-        <v>3.999554337193862</v>
+        <v>3.952108777621393</v>
       </c>
       <c r="J13">
-        <v>3.110232556672947</v>
+        <v>3.078256150780304</v>
       </c>
       <c r="K13">
-        <v>3.459620732003854</v>
+        <v>3.45206147330319</v>
       </c>
       <c r="L13">
-        <v>4.077941219947579</v>
+        <v>3.956133685930731</v>
       </c>
       <c r="M13">
-        <v>3.859909425528171</v>
+        <v>3.804277642347116</v>
       </c>
       <c r="N13">
-        <v>2.885604784861795</v>
+        <v>2.848843364437315</v>
       </c>
       <c r="O13">
-        <v>4.060256356429033</v>
+        <v>4.056786051850889</v>
       </c>
       <c r="P13">
-        <v>4.536532177944586</v>
+        <v>4.523437465503918</v>
       </c>
       <c r="Q13">
-        <v>3.737821388190667</v>
+        <v>3.647152520802841</v>
       </c>
       <c r="R13">
-        <v>3.70961702384262</v>
+        <v>3.699249041307583</v>
       </c>
       <c r="S13">
-        <v>3.779022816963689</v>
+        <v>3.582335917684554</v>
       </c>
       <c r="T13">
-        <v>5.408670776029274</v>
+        <v>5.371637394781277</v>
       </c>
     </row>
     <row r="14">
@@ -1234,61 +1234,61 @@
         </is>
       </c>
       <c r="B14">
-        <v>8.078256108007526</v>
+        <v>7.851028637241119</v>
       </c>
       <c r="C14">
-        <v>7.422093334449306</v>
+        <v>7.403371793003894</v>
       </c>
       <c r="D14">
-        <v>6.930501907367012</v>
+        <v>6.504502781534143</v>
       </c>
       <c r="E14">
-        <v>7.976588442165377</v>
+        <v>7.973919134233328</v>
       </c>
       <c r="F14">
-        <v>5.339064562793401</v>
+        <v>5.273704421033309</v>
       </c>
       <c r="G14">
-        <v>6.525351321292807</v>
+        <v>6.506989187963338</v>
       </c>
       <c r="H14">
-        <v>7.515582144329893</v>
+        <v>7.497148969072165</v>
       </c>
       <c r="I14">
-        <v>6.778413043011642</v>
+        <v>6.698002684075338</v>
       </c>
       <c r="J14">
-        <v>6.310519705199787</v>
+        <v>6.245641039116103</v>
       </c>
       <c r="K14">
-        <v>8.348579053153539</v>
+        <v>8.330337438325088</v>
       </c>
       <c r="L14">
-        <v>7.714068656585561</v>
+        <v>7.483650504480019</v>
       </c>
       <c r="M14">
-        <v>7.172732515124043</v>
+        <v>7.069353949435941</v>
       </c>
       <c r="N14">
-        <v>5.68180670107422</v>
+        <v>5.609422816072164</v>
       </c>
       <c r="O14">
-        <v>8.55961121561937</v>
+        <v>8.552295308597476</v>
       </c>
       <c r="P14">
-        <v>7.829382106192739</v>
+        <v>7.806782573499651</v>
       </c>
       <c r="Q14">
-        <v>6.31883424422898</v>
+        <v>6.165557379276111</v>
       </c>
       <c r="R14">
-        <v>6.242229123399454</v>
+        <v>6.224782761115926</v>
       </c>
       <c r="S14">
-        <v>7.451030705596714</v>
+        <v>7.063226715808971</v>
       </c>
       <c r="T14">
-        <v>7.049344991871245</v>
+        <v>7.001077849824139</v>
       </c>
     </row>
     <row r="15">
@@ -1298,61 +1298,61 @@
         </is>
       </c>
       <c r="B15">
-        <v>1.65057482488534</v>
+        <v>1.604146989749285</v>
       </c>
       <c r="C15">
-        <v>1.853707555640976</v>
+        <v>1.849031750410998</v>
       </c>
       <c r="D15">
-        <v>1.441836489705964</v>
+        <v>1.353210717371096</v>
       </c>
       <c r="E15">
-        <v>1.333500606508922</v>
+        <v>1.333054360125251</v>
       </c>
       <c r="F15">
-        <v>1.822677025416066</v>
+        <v>1.800364047671941</v>
       </c>
       <c r="G15">
-        <v>1.803193180370785</v>
+        <v>1.798119051489982</v>
       </c>
       <c r="H15">
-        <v>1.745791628865979</v>
+        <v>1.741509793814433</v>
       </c>
       <c r="I15">
-        <v>1.399117413475366</v>
+        <v>1.382520087125126</v>
       </c>
       <c r="J15">
-        <v>1.50115794850666</v>
+        <v>1.485724492970536</v>
       </c>
       <c r="K15">
-        <v>1.701664814752116</v>
+        <v>1.697946683328768</v>
       </c>
       <c r="L15">
-        <v>1.648849039311416</v>
+        <v>1.599598149067551</v>
       </c>
       <c r="M15">
-        <v>2.481826060380923</v>
+        <v>2.446056203095914</v>
       </c>
       <c r="N15">
-        <v>1.160783587260526</v>
+        <v>1.145995680858033</v>
       </c>
       <c r="O15">
-        <v>2.118429522462676</v>
+        <v>2.116618898939204</v>
       </c>
       <c r="P15">
-        <v>2.175049674356994</v>
+        <v>2.168771387570372</v>
       </c>
       <c r="Q15">
-        <v>1.547892751613006</v>
+        <v>1.510345296009593</v>
       </c>
       <c r="R15">
-        <v>1.223666773642295</v>
+        <v>1.220246755981096</v>
       </c>
       <c r="S15">
-        <v>1.531709322019757</v>
+        <v>1.451988406921639</v>
       </c>
       <c r="T15">
-        <v>2.484373960366829</v>
+        <v>2.467363354277692</v>
       </c>
     </row>
     <row r="16">
@@ -1362,61 +1362,61 @@
         </is>
       </c>
       <c r="B16">
-        <v>1.500450738371116</v>
+        <v>1.45824563596644</v>
       </c>
       <c r="C16">
-        <v>1.493780011097713</v>
+        <v>1.490012089686877</v>
       </c>
       <c r="D16">
-        <v>1.638552165820886</v>
+        <v>1.537834815244982</v>
       </c>
       <c r="E16">
-        <v>1.645871507872078</v>
+        <v>1.645320728813719</v>
       </c>
       <c r="F16">
-        <v>1.707874464306015</v>
+        <v>1.686966884751091</v>
       </c>
       <c r="G16">
-        <v>1.363802842133496</v>
+        <v>1.359965143841198</v>
       </c>
       <c r="H16">
-        <v>1.534701731958762</v>
+        <v>1.53093762886598</v>
       </c>
       <c r="I16">
-        <v>1.309502853235455</v>
+        <v>1.293968598567198</v>
       </c>
       <c r="J16">
-        <v>1.207178082537334</v>
+        <v>1.194767043925737</v>
       </c>
       <c r="K16">
-        <v>1.271874640261751</v>
+        <v>1.269095598804515</v>
       </c>
       <c r="L16">
-        <v>1.397898810391564</v>
+        <v>1.35614376839489</v>
       </c>
       <c r="M16">
-        <v>1.6723615837464</v>
+        <v>1.648258309091302</v>
       </c>
       <c r="N16">
-        <v>1.289436495804742</v>
+        <v>1.273009604159143</v>
       </c>
       <c r="O16">
-        <v>1.546076263835966</v>
+        <v>1.544754831131833</v>
       </c>
       <c r="P16">
-        <v>1.362393752069765</v>
+        <v>1.358461198807815</v>
       </c>
       <c r="Q16">
-        <v>1.286931617969242</v>
+        <v>1.255714333864788</v>
       </c>
       <c r="R16">
-        <v>1.45697602042485</v>
+        <v>1.452903928390378</v>
       </c>
       <c r="S16">
-        <v>1.244164862418235</v>
+        <v>1.179409781320918</v>
       </c>
       <c r="T16">
-        <v>1.206041014117041</v>
+        <v>1.197783203921889</v>
       </c>
     </row>
     <row r="17">
@@ -1426,61 +1426,61 @@
         </is>
       </c>
       <c r="B17">
-        <v>22.59920590778866</v>
+        <v>21.96352905735235</v>
       </c>
       <c r="C17">
-        <v>22.92560916005609</v>
+        <v>22.86778143912739</v>
       </c>
       <c r="D17">
-        <v>18.91972625846208</v>
+        <v>17.75678207998424</v>
       </c>
       <c r="E17">
-        <v>22.8612414156263</v>
+        <v>22.85359106566909</v>
       </c>
       <c r="F17">
-        <v>21.54262604518343</v>
+        <v>21.27890398757618</v>
       </c>
       <c r="G17">
-        <v>18.15263534721022</v>
+        <v>18.10155440242813</v>
       </c>
       <c r="H17">
-        <v>21.39044288659793</v>
+        <v>21.3379793814433</v>
       </c>
       <c r="I17">
-        <v>20.79299999080095</v>
+        <v>20.54633862891381</v>
       </c>
       <c r="J17">
-        <v>19.72865389143012</v>
+        <v>19.52582293488497</v>
       </c>
       <c r="K17">
-        <v>23.30071298197231</v>
+        <v>23.24980100895998</v>
       </c>
       <c r="L17">
-        <v>23.99402294397758</v>
+        <v>23.27732483375148</v>
       </c>
       <c r="M17">
-        <v>21.07239395676257</v>
+        <v>20.76868350077228</v>
       </c>
       <c r="N17">
-        <v>22.35507827788649</v>
+        <v>22.07028375733855</v>
       </c>
       <c r="O17">
-        <v>23.2738261253355</v>
+        <v>23.25393396625401</v>
       </c>
       <c r="P17">
-        <v>20.84143752069765</v>
+        <v>20.78127865474482</v>
       </c>
       <c r="Q17">
-        <v>19.02299419961535</v>
+        <v>18.56155071174468</v>
       </c>
       <c r="R17">
-        <v>18.70898804802865</v>
+        <v>18.65669842888914</v>
       </c>
       <c r="S17">
-        <v>30.91614751243158</v>
+        <v>29.30705397518689</v>
       </c>
       <c r="T17">
-        <v>28.76866255311936</v>
+        <v>28.57168239062797</v>
       </c>
     </row>
     <row r="18">
@@ -1490,61 +1490,61 @@
         </is>
       </c>
       <c r="B18">
-        <v>23.53866663865925</v>
+        <v>22.87656437128816</v>
       </c>
       <c r="C18">
-        <v>23.26697541867</v>
+        <v>23.20828663304287</v>
       </c>
       <c r="D18">
-        <v>21.70727680522694</v>
+        <v>20.37298946690169</v>
       </c>
       <c r="E18">
-        <v>21.11914530825385</v>
+        <v>21.1120779382249</v>
       </c>
       <c r="F18">
-        <v>24.74442474627218</v>
+        <v>24.44150668072586</v>
       </c>
       <c r="G18">
-        <v>20.62484999735939</v>
+        <v>20.56681231832806</v>
       </c>
       <c r="H18">
-        <v>20.94246321649484</v>
+        <v>20.89109845360825</v>
       </c>
       <c r="I18">
-        <v>23.52664774730851</v>
+        <v>23.24755791050969</v>
       </c>
       <c r="J18">
-        <v>21.21343827778152</v>
+        <v>20.99534220284542</v>
       </c>
       <c r="K18">
-        <v>23.9967448574744</v>
+        <v>23.94431205734881</v>
       </c>
       <c r="L18">
-        <v>23.96397960671253</v>
+        <v>23.24817888676954</v>
       </c>
       <c r="M18">
-        <v>23.50636990029811</v>
+        <v>23.16757923722753</v>
       </c>
       <c r="N18">
-        <v>21.3890911849189</v>
+        <v>21.11660294339971</v>
       </c>
       <c r="O18">
-        <v>23.18793299956683</v>
+        <v>23.16811425341336</v>
       </c>
       <c r="P18">
-        <v>25.2257958935865</v>
+        <v>25.15298156529418</v>
       </c>
       <c r="Q18">
-        <v>18.25798484893363</v>
+        <v>17.8150983021695</v>
       </c>
       <c r="R18">
-        <v>24.8611115312914</v>
+        <v>24.79162738548838</v>
       </c>
       <c r="S18">
-        <v>27.87506241865238</v>
+        <v>26.42424831673008</v>
       </c>
       <c r="T18">
-        <v>21.77045087909811</v>
+        <v>21.62138774681807</v>
       </c>
     </row>
     <row r="19">
@@ -1554,61 +1554,61 @@
         </is>
       </c>
       <c r="B19">
-        <v>9.339298434727011</v>
+        <v>9.076600009017021</v>
       </c>
       <c r="C19">
-        <v>10.83091384599806</v>
+        <v>10.80359387125207</v>
       </c>
       <c r="D19">
-        <v>10.91175894328379</v>
+        <v>10.24104276236813</v>
       </c>
       <c r="E19">
-        <v>9.483149708969748</v>
+        <v>9.479976241149199</v>
       </c>
       <c r="F19">
-        <v>9.842455937246756</v>
+        <v>9.721965857428479</v>
       </c>
       <c r="G19">
-        <v>9.554715864315725</v>
+        <v>9.527829194466507</v>
       </c>
       <c r="H19">
-        <v>9.480281814432985</v>
+        <v>9.457029896907217</v>
       </c>
       <c r="I19">
-        <v>9.141492482851454</v>
+        <v>9.033049594066824</v>
       </c>
       <c r="J19">
-        <v>9.719197644793493</v>
+        <v>9.61927424576214</v>
       </c>
       <c r="K19">
-        <v>10.74323298111047</v>
+        <v>10.71975905616995</v>
       </c>
       <c r="L19">
-        <v>9.01830294491549</v>
+        <v>8.748927496990042</v>
       </c>
       <c r="M19">
-        <v>11.19214233013685</v>
+        <v>11.03083314725195</v>
       </c>
       <c r="N19">
-        <v>9.898278579407538</v>
+        <v>9.772178573528301</v>
       </c>
       <c r="O19">
-        <v>8.371770174218739</v>
+        <v>8.364614815095477</v>
       </c>
       <c r="P19">
-        <v>13.98166547080252</v>
+        <v>13.94130735548442</v>
       </c>
       <c r="Q19">
-        <v>8.696797889432148</v>
+        <v>8.485838420628493</v>
       </c>
       <c r="R19">
-        <v>13.72341079867868</v>
+        <v>13.68505533433631</v>
       </c>
       <c r="S19">
-        <v>9.987749789330529</v>
+        <v>9.467917115121478</v>
       </c>
       <c r="T19">
-        <v>8.333849200620168</v>
+        <v>8.27678700780235</v>
       </c>
     </row>
     <row r="20">
@@ -1618,61 +1618,61 @@
         </is>
       </c>
       <c r="B20">
-        <v>0.5941753318878775</v>
+        <v>0.5774622002352623</v>
       </c>
       <c r="C20">
-        <v>0.8513981154554765</v>
+        <v>0.8492505427442762</v>
       </c>
       <c r="D20">
-        <v>1.4165018950548</v>
+        <v>1.329433371432793</v>
       </c>
       <c r="E20">
-        <v>1.036927773720454</v>
+        <v>1.036580773301488</v>
       </c>
       <c r="F20">
-        <v>0.6552691637385367</v>
+        <v>0.6472474429053726</v>
       </c>
       <c r="G20">
-        <v>1.418266636152858</v>
+        <v>1.414275678457631</v>
       </c>
       <c r="H20">
-        <v>0.5245974845360823</v>
+        <v>0.5233108247422681</v>
       </c>
       <c r="I20">
-        <v>0.6563661033788071</v>
+        <v>0.6485798215999582</v>
       </c>
       <c r="J20">
-        <v>1.721456784777345</v>
+        <v>1.703758429469932</v>
       </c>
       <c r="K20">
-        <v>1.317516074720905</v>
+        <v>1.314637306895586</v>
       </c>
       <c r="L20">
-        <v>1.392597044991849</v>
+        <v>1.351000365986313</v>
       </c>
       <c r="M20">
-        <v>1.049512562808899</v>
+        <v>1.03438623498529</v>
       </c>
       <c r="N20">
-        <v>1.238556814459572</v>
+        <v>1.222778109068308</v>
       </c>
       <c r="O20">
-        <v>0.7320984177665633</v>
+        <v>0.7314726926231733</v>
       </c>
       <c r="P20">
-        <v>1.586272491444973</v>
+        <v>1.581693711594363</v>
       </c>
       <c r="Q20">
-        <v>0.9215860308679742</v>
+        <v>0.8992309868620623</v>
       </c>
       <c r="R20">
-        <v>0.696709681771353</v>
+        <v>0.6947624527808213</v>
       </c>
       <c r="S20">
-        <v>0.7370071585903083</v>
+        <v>0.698648127753304</v>
       </c>
       <c r="T20">
-        <v>0.5536504070654253</v>
+        <v>0.5498595409816858</v>
       </c>
     </row>
     <row r="21">
@@ -1682,61 +1682,61 @@
         </is>
       </c>
       <c r="B21">
-        <v>26.72129727276081</v>
+        <v>25.96967307148449</v>
       </c>
       <c r="C21">
-        <v>24.87938625722928</v>
+        <v>24.81663031494151</v>
       </c>
       <c r="D21">
-        <v>22.54853437467295</v>
+        <v>21.16253721879418</v>
       </c>
       <c r="E21">
-        <v>22.77004347430878</v>
+        <v>22.76242364308647</v>
       </c>
       <c r="F21">
-        <v>23.58223518282692</v>
+        <v>23.29354449245569</v>
       </c>
       <c r="G21">
-        <v>19.85573290614001</v>
+        <v>19.79985949840683</v>
       </c>
       <c r="H21">
-        <v>24.53333690721648</v>
+        <v>24.47316494845361</v>
       </c>
       <c r="I21">
-        <v>26.09721315094704</v>
+        <v>25.78762943815332</v>
       </c>
       <c r="J21">
-        <v>21.06235495425805</v>
+        <v>20.8458121720705</v>
       </c>
       <c r="K21">
-        <v>24.68516982723331</v>
+        <v>24.6312328210558</v>
       </c>
       <c r="L21">
-        <v>27.83161746580474</v>
+        <v>27.00029094382671</v>
       </c>
       <c r="M21">
-        <v>24.91794834723713</v>
+        <v>24.5588130031272</v>
       </c>
       <c r="N21">
-        <v>20.05749723885673</v>
+        <v>19.80197295759388</v>
       </c>
       <c r="O21">
-        <v>24.99971603564044</v>
+        <v>24.97834875697751</v>
       </c>
       <c r="P21">
-        <v>28.99667871729773</v>
+        <v>28.91297972550318</v>
       </c>
       <c r="Q21">
-        <v>19.63071190810083</v>
+        <v>19.15452692495861</v>
       </c>
       <c r="R21">
-        <v>24.14670252735033</v>
+        <v>24.07921507824893</v>
       </c>
       <c r="S21">
-        <v>18.99933731936657</v>
+        <v>18.01047831355961</v>
       </c>
       <c r="T21">
-        <v>21.77662214159725</v>
+        <v>21.62751675444048</v>
       </c>
     </row>
     <row r="22">
@@ -1746,61 +1746,61 @@
         </is>
       </c>
       <c r="B22">
-        <v>72.49176087063444</v>
+        <v>70.45269213428804</v>
       </c>
       <c r="C22">
-        <v>65.66256650619417</v>
+        <v>65.49693877761899</v>
       </c>
       <c r="D22">
-        <v>65.77009798469592</v>
+        <v>61.72738872324402</v>
       </c>
       <c r="E22">
-        <v>70.61736652885696</v>
+        <v>70.59373493522736</v>
       </c>
       <c r="F22">
-        <v>72.30995860463517</v>
+        <v>71.42474939064645</v>
       </c>
       <c r="G22">
-        <v>73.09041157398444</v>
+        <v>72.88473745525189</v>
       </c>
       <c r="H22">
-        <v>65.73652115463914</v>
+        <v>65.57529175257731</v>
       </c>
       <c r="I22">
-        <v>78.89795057662644</v>
+        <v>77.96200694425279</v>
       </c>
       <c r="J22">
-        <v>63.62468552401456</v>
+        <v>62.97055798466299</v>
       </c>
       <c r="K22">
-        <v>70.92450707780196</v>
+        <v>70.76953728811993</v>
       </c>
       <c r="L22">
-        <v>75.82673237429286</v>
+        <v>73.56179848120777</v>
       </c>
       <c r="M22">
-        <v>82.56856662451108</v>
+        <v>81.3785292195798</v>
       </c>
       <c r="N22">
-        <v>61.05852502456682</v>
+        <v>60.28066448014917</v>
       </c>
       <c r="O22">
-        <v>78.7503497584818</v>
+        <v>78.68304176723525</v>
       </c>
       <c r="P22">
-        <v>63.42460784854843</v>
+        <v>63.24153254590279</v>
       </c>
       <c r="Q22">
-        <v>57.42217383177762</v>
+        <v>56.02927595797249</v>
       </c>
       <c r="R22">
-        <v>67.00239310272931</v>
+        <v>66.815128585387</v>
       </c>
       <c r="S22">
-        <v>61.08970447870776</v>
+        <v>57.91016703377386</v>
       </c>
       <c r="T22">
-        <v>66.9079464067139</v>
+        <v>66.44982506962273</v>
       </c>
     </row>
     <row r="23">
@@ -1810,61 +1810,61 @@
         </is>
       </c>
       <c r="B23">
-        <v>6.855139866302161</v>
+        <v>6.662316554841936</v>
       </c>
       <c r="C23">
-        <v>6.899149278700349</v>
+        <v>6.881746815090822</v>
       </c>
       <c r="D23">
-        <v>6.701745420369736</v>
+        <v>6.289807334385343</v>
       </c>
       <c r="E23">
-        <v>8.202069966367748</v>
+        <v>8.199325202665923</v>
       </c>
       <c r="F23">
-        <v>12.51347916099554</v>
+        <v>12.36029075837268</v>
       </c>
       <c r="G23">
-        <v>6.398759800058613</v>
+        <v>6.380753891287307</v>
       </c>
       <c r="H23">
-        <v>5.45628292783505</v>
+        <v>5.442900515463918</v>
       </c>
       <c r="I23">
-        <v>4.701131389882895</v>
+        <v>4.645363224079406</v>
       </c>
       <c r="J23">
-        <v>6.550169114926682</v>
+        <v>6.482826605172877</v>
       </c>
       <c r="K23">
-        <v>5.861881565703981</v>
+        <v>5.849073375829899</v>
       </c>
       <c r="L23">
-        <v>4.544496575122513</v>
+        <v>4.408753097885537</v>
       </c>
       <c r="M23">
-        <v>5.746799033131405</v>
+        <v>5.663972043544073</v>
       </c>
       <c r="N23">
-        <v>13.08916145234035</v>
+        <v>12.92241090851062</v>
       </c>
       <c r="O23">
-        <v>4.597289077356479</v>
+        <v>4.593359770452756</v>
       </c>
       <c r="P23">
-        <v>5.163551992493653</v>
+        <v>5.148647385656989</v>
       </c>
       <c r="Q23">
-        <v>6.634847452641427</v>
+        <v>6.473905010147353</v>
       </c>
       <c r="R23">
-        <v>4.387822868800184</v>
+        <v>4.375559373518013</v>
       </c>
       <c r="S23">
-        <v>15.05188231085636</v>
+        <v>14.26847659900213</v>
       </c>
       <c r="T23">
-        <v>15.04201153718199</v>
+        <v>14.93901829335911</v>
       </c>
     </row>
     <row r="24">
@@ -1874,61 +1874,61 @@
         </is>
       </c>
       <c r="B24">
-        <v>2.428849694445925</v>
+        <v>2.360530323834037</v>
       </c>
       <c r="C24">
-        <v>2.488826339397811</v>
+        <v>2.482548505993695</v>
       </c>
       <c r="D24">
-        <v>2.92391027679907</v>
+        <v>2.744185454761851</v>
       </c>
       <c r="E24">
-        <v>1.852682587395271</v>
+        <v>1.852062600497118</v>
       </c>
       <c r="F24">
-        <v>2.478691660330642</v>
+        <v>2.448347835791085</v>
       </c>
       <c r="G24">
-        <v>1.516890263160893</v>
+        <v>1.51262178168198</v>
       </c>
       <c r="H24">
-        <v>2.538551463917524</v>
+        <v>2.532325257731959</v>
       </c>
       <c r="I24">
-        <v>1.984437739366676</v>
+        <v>1.960896926805286</v>
       </c>
       <c r="J24">
-        <v>2.596698107258174</v>
+        <v>2.570001366372932</v>
       </c>
       <c r="K24">
-        <v>3.294550877376582</v>
+        <v>3.287352295707149</v>
       </c>
       <c r="L24">
-        <v>3.466470943847097</v>
+        <v>3.362927941474812</v>
       </c>
       <c r="M24">
-        <v>2.485016068170616</v>
+        <v>2.449200234205292</v>
       </c>
       <c r="N24">
-        <v>1.853474106145485</v>
+        <v>1.829861606880391</v>
       </c>
       <c r="O24">
-        <v>2.482873252359628</v>
+        <v>2.480751138468722</v>
       </c>
       <c r="P24">
-        <v>3.229908930345514</v>
+        <v>3.220585789454319</v>
       </c>
       <c r="Q24">
-        <v>2.100558385329797</v>
+        <v>2.049604840497083</v>
       </c>
       <c r="R24">
-        <v>2.965440978070678</v>
+        <v>2.957152887933149</v>
       </c>
       <c r="S24">
-        <v>0.9603426611934319</v>
+        <v>0.9103596816179416</v>
       </c>
       <c r="T24">
-        <v>3.151751919202063</v>
+        <v>3.13017175001517</v>
       </c>
     </row>
     <row r="25">
@@ -1938,61 +1938,61 @@
         </is>
       </c>
       <c r="B25">
-        <v>25.09679663132268</v>
+        <v>24.39086684318169</v>
       </c>
       <c r="C25">
-        <v>26.06650154427668</v>
+        <v>26.00075121387689</v>
       </c>
       <c r="D25">
-        <v>25.29882816459787</v>
+        <v>23.74377792050825</v>
       </c>
       <c r="E25">
-        <v>25.26326593300505</v>
+        <v>25.25481176282523</v>
       </c>
       <c r="F25">
-        <v>24.61173087693718</v>
+        <v>24.31043723267449</v>
       </c>
       <c r="G25">
-        <v>22.60321051525191</v>
+        <v>22.53960579196279</v>
       </c>
       <c r="H25">
-        <v>25.60676812371133</v>
+        <v>25.54396340206186</v>
       </c>
       <c r="I25">
-        <v>24.63108665188687</v>
+        <v>24.3388951748993</v>
       </c>
       <c r="J25">
-        <v>24.12048981316428</v>
+        <v>23.87250624327324</v>
       </c>
       <c r="K25">
-        <v>25.5553998442545</v>
+        <v>25.49956138865889</v>
       </c>
       <c r="L25">
-        <v>29.68723535570505</v>
+        <v>28.80048178682878</v>
       </c>
       <c r="M25">
-        <v>24.47134725668015</v>
+        <v>24.1186486478143</v>
       </c>
       <c r="N25">
-        <v>24.24198760320166</v>
+        <v>23.93315463242149</v>
       </c>
       <c r="O25">
-        <v>23.08357686545537</v>
+        <v>23.06384731257892</v>
       </c>
       <c r="P25">
-        <v>23.65705127497517</v>
+        <v>23.58876513228098</v>
       </c>
       <c r="Q25">
-        <v>22.34899747005586</v>
+        <v>21.80687464571079</v>
       </c>
       <c r="R25">
-        <v>27.32212182752531</v>
+        <v>27.24575942135042</v>
       </c>
       <c r="S25">
-        <v>33.87906518029968</v>
+        <v>32.11576058979108</v>
       </c>
       <c r="T25">
-        <v>27.32546873724978</v>
+        <v>27.13837017950215</v>
       </c>
     </row>
     <row r="26">
@@ -2002,61 +2002,61 @@
         </is>
       </c>
       <c r="B26">
-        <v>5.477158777455807</v>
+        <v>5.323095707487816</v>
       </c>
       <c r="C26">
-        <v>6.219644811199392</v>
+        <v>6.203956334530936</v>
       </c>
       <c r="D26">
-        <v>5.580317039487319</v>
+        <v>5.23731010976338</v>
       </c>
       <c r="E26">
-        <v>4.743729136563241</v>
+        <v>4.742141681737968</v>
       </c>
       <c r="F26">
-        <v>5.764728604311836</v>
+        <v>5.694157538096982</v>
       </c>
       <c r="G26">
-        <v>4.70228621607712</v>
+        <v>4.689054130599793</v>
       </c>
       <c r="H26">
-        <v>5.225647670103091</v>
+        <v>5.212830927835052</v>
       </c>
       <c r="I26">
-        <v>4.764911121945534</v>
+        <v>4.708386355575588</v>
       </c>
       <c r="J26">
-        <v>5.788054221882149</v>
+        <v>5.728547041066864</v>
       </c>
       <c r="K26">
-        <v>5.580426053205866</v>
+        <v>5.568232842601627</v>
       </c>
       <c r="L26">
-        <v>5.781575168389384</v>
+        <v>5.608880326553581</v>
       </c>
       <c r="M26">
-        <v>5.08008740508563</v>
+        <v>5.006869541684117</v>
       </c>
       <c r="N26">
-        <v>5.399061043313202</v>
+        <v>5.330279221924527</v>
       </c>
       <c r="O26">
-        <v>4.77870820281179</v>
+        <v>4.774623836826481</v>
       </c>
       <c r="P26">
-        <v>6.299676840710897</v>
+        <v>6.281492806417192</v>
       </c>
       <c r="Q26">
-        <v>5.580993449926615</v>
+        <v>5.445614494526966</v>
       </c>
       <c r="R26">
-        <v>5.65815149179899</v>
+        <v>5.642337563980965</v>
       </c>
       <c r="S26">
-        <v>6.168712694817112</v>
+        <v>5.847649544036176</v>
       </c>
       <c r="T26">
-        <v>5.856528111680925</v>
+        <v>5.816428233664552</v>
       </c>
     </row>
     <row r="27">
@@ -2066,61 +2066,61 @@
         </is>
       </c>
       <c r="B27">
-        <v>9.570805578667366</v>
+        <v>9.301595254587408</v>
       </c>
       <c r="C27">
-        <v>10.17723377631186</v>
+        <v>10.15156264886073</v>
       </c>
       <c r="D27">
-        <v>8.620468397627027</v>
+        <v>8.090591622359801</v>
       </c>
       <c r="E27">
-        <v>11.31285328752911</v>
+        <v>11.30906752257038</v>
       </c>
       <c r="F27">
-        <v>13.43786341928426</v>
+        <v>13.27335882344966</v>
       </c>
       <c r="G27">
-        <v>9.182301272777924</v>
+        <v>9.156462565873067</v>
       </c>
       <c r="H27">
-        <v>8.038615999999996</v>
+        <v>8.0189</v>
       </c>
       <c r="I27">
-        <v>8.825015837679876</v>
+        <v>8.720327220060446</v>
       </c>
       <c r="J27">
-        <v>10.76412861142877</v>
+        <v>10.65346224186062</v>
       </c>
       <c r="K27">
-        <v>10.28377587422166</v>
+        <v>10.2613058613865</v>
       </c>
       <c r="L27">
-        <v>8.66750280096767</v>
+        <v>8.408605704289176</v>
       </c>
       <c r="M27">
-        <v>10.37789284181779</v>
+        <v>10.22831920658327</v>
       </c>
       <c r="N27">
-        <v>8.871235868825744</v>
+        <v>8.758219965480459</v>
       </c>
       <c r="O27">
-        <v>10.35533946182968</v>
+        <v>10.34648874434094</v>
       </c>
       <c r="P27">
-        <v>9.521618556132028</v>
+        <v>9.494134378334623</v>
       </c>
       <c r="Q27">
-        <v>9.00923628779468</v>
+        <v>8.790697956127888</v>
       </c>
       <c r="R27">
-        <v>7.794942386469559</v>
+        <v>7.773156356805285</v>
       </c>
       <c r="S27">
-        <v>12.57844161952676</v>
+        <v>11.92377113995127</v>
       </c>
       <c r="T27">
-        <v>11.71041139657651</v>
+        <v>11.63022974977664</v>
       </c>
     </row>
     <row r="28">
@@ -2130,61 +2130,61 @@
         </is>
       </c>
       <c r="B28">
-        <v>17.25478842788227</v>
+        <v>16.76944086268306</v>
       </c>
       <c r="C28">
-        <v>21.44958342245603</v>
+        <v>21.39547883943139</v>
       </c>
       <c r="D28">
-        <v>19.73192355757294</v>
+        <v>18.51905581741809</v>
       </c>
       <c r="E28">
-        <v>18.40690417159031</v>
+        <v>18.40074443354365</v>
       </c>
       <c r="F28">
-        <v>20.51536676460128</v>
+        <v>20.2642202829987</v>
       </c>
       <c r="G28">
-        <v>17.71692499505532</v>
+        <v>17.66707012549667</v>
       </c>
       <c r="H28">
-        <v>17.51498874226803</v>
+        <v>17.47203041237113</v>
       </c>
       <c r="I28">
-        <v>16.48262037709929</v>
+        <v>16.28709180539329</v>
       </c>
       <c r="J28">
-        <v>23.11723700474237</v>
+        <v>22.8795679108368</v>
       </c>
       <c r="K28">
-        <v>21.20196768742555</v>
+        <v>21.1556414652389</v>
       </c>
       <c r="L28">
-        <v>17.6000938719211</v>
+        <v>17.07438152900722</v>
       </c>
       <c r="M28">
-        <v>17.45891263298816</v>
+        <v>17.2072822616246</v>
       </c>
       <c r="N28">
-        <v>22.99906967319821</v>
+        <v>22.70607096663111</v>
       </c>
       <c r="O28">
-        <v>18.05361120128291</v>
+        <v>18.03818076435874</v>
       </c>
       <c r="P28">
-        <v>24.7700711999117</v>
+        <v>24.6985723221842</v>
       </c>
       <c r="Q28">
-        <v>20.34495895607376</v>
+        <v>19.85144838025357</v>
       </c>
       <c r="R28">
-        <v>22.09840824352832</v>
+        <v>22.03664555771778</v>
       </c>
       <c r="S28">
-        <v>23.00914015568682</v>
+        <v>21.81158283690428</v>
       </c>
       <c r="T28">
-        <v>20.38985129714834</v>
+        <v>20.2502411844338</v>
       </c>
     </row>
     <row r="29">
@@ -2194,61 +2194,61 @@
         </is>
       </c>
       <c r="B29">
-        <v>7.850699597922806</v>
+        <v>7.629872900980805</v>
       </c>
       <c r="C29">
-        <v>7.628688516967413</v>
+        <v>7.609445858352268</v>
       </c>
       <c r="D29">
-        <v>7.67563704416596</v>
+        <v>7.203836485601892</v>
       </c>
       <c r="E29">
-        <v>6.387446362356951</v>
+        <v>6.385308849388319</v>
       </c>
       <c r="F29">
-        <v>8.151727309989646</v>
+        <v>8.051934912594142</v>
       </c>
       <c r="G29">
-        <v>6.489287457685392</v>
+        <v>6.471026806933539</v>
       </c>
       <c r="H29">
-        <v>7.290419587628862</v>
+        <v>7.272538659793814</v>
       </c>
       <c r="I29">
-        <v>6.271404540032686</v>
+        <v>6.197008676738593</v>
       </c>
       <c r="J29">
-        <v>6.986301270516618</v>
+        <v>6.914474871350733</v>
       </c>
       <c r="K29">
-        <v>7.571153286199288</v>
+        <v>7.55461034384051</v>
       </c>
       <c r="L29">
-        <v>7.339410568339021</v>
+        <v>7.120183400940554</v>
       </c>
       <c r="M29">
-        <v>7.752516430900692</v>
+        <v>7.640781603565354</v>
       </c>
       <c r="N29">
-        <v>7.910336743992674</v>
+        <v>7.809562301050703</v>
       </c>
       <c r="O29">
-        <v>8.199983922681408</v>
+        <v>8.192975389414162</v>
       </c>
       <c r="P29">
-        <v>8.275546141958277</v>
+        <v>8.251658755565369</v>
       </c>
       <c r="Q29">
-        <v>6.83432185342666</v>
+        <v>6.668540731896395</v>
       </c>
       <c r="R29">
-        <v>7.385444432633973</v>
+        <v>7.364802905921407</v>
       </c>
       <c r="S29">
-        <v>9.180019721582564</v>
+        <v>8.70222699531104</v>
       </c>
       <c r="T29">
-        <v>8.759666313060617</v>
+        <v>8.699688533748455</v>
       </c>
     </row>
     <row r="30">
@@ -2258,61 +2258,61 @@
         </is>
       </c>
       <c r="B30">
-        <v>3.673299358971732</v>
+        <v>3.569975756507625</v>
       </c>
       <c r="C30">
-        <v>5.502210759407999</v>
+        <v>5.488331943535996</v>
       </c>
       <c r="D30">
-        <v>5.58702325571851</v>
+        <v>5.243604113099989</v>
       </c>
       <c r="E30">
-        <v>3.778610765455007</v>
+        <v>3.777346280548772</v>
       </c>
       <c r="F30">
-        <v>4.341624129252829</v>
+        <v>4.2884745250067</v>
       </c>
       <c r="G30">
-        <v>4.795021865353331</v>
+        <v>4.781528824676421</v>
       </c>
       <c r="H30">
-        <v>4.735450020618555</v>
+        <v>4.723835567010309</v>
       </c>
       <c r="I30">
-        <v>4.304728245037883</v>
+        <v>4.253662495413256</v>
       </c>
       <c r="J30">
-        <v>6.696042668673486</v>
+        <v>6.627200427990044</v>
       </c>
       <c r="K30">
-        <v>4.965027378581609</v>
+        <v>4.954178811840351</v>
       </c>
       <c r="L30">
-        <v>4.009901897317901</v>
+        <v>3.89012668835399</v>
       </c>
       <c r="M30">
-        <v>4.021004818907652</v>
+        <v>3.963051213370693</v>
       </c>
       <c r="N30">
-        <v>6.556210367620501</v>
+        <v>6.472686938847501</v>
       </c>
       <c r="O30">
-        <v>5.878461308447966</v>
+        <v>5.87343698254331</v>
       </c>
       <c r="P30">
-        <v>8.097877249144499</v>
+        <v>8.074502704492769</v>
       </c>
       <c r="Q30">
-        <v>6.090761363044431</v>
+        <v>5.943016894552296</v>
       </c>
       <c r="R30">
-        <v>6.897104043678763</v>
+        <v>6.877827376085428</v>
       </c>
       <c r="S30">
-        <v>4.588614013900012</v>
+        <v>4.349790300443866</v>
       </c>
       <c r="T30">
-        <v>6.44808770266962</v>
+        <v>6.403937392898168</v>
       </c>
     </row>
     <row r="31">
@@ -2322,61 +2322,61 @@
         </is>
       </c>
       <c r="B31">
-        <v>2.098576704114631</v>
+        <v>2.039547345511777</v>
       </c>
       <c r="C31">
-        <v>2.714789820276989</v>
+        <v>2.707942014968479</v>
       </c>
       <c r="D31">
-        <v>2.076691626258667</v>
+        <v>1.949043033236819</v>
       </c>
       <c r="E31">
-        <v>3.665870003353822</v>
+        <v>3.664643246332476</v>
       </c>
       <c r="F31">
-        <v>3.334492570423748</v>
+        <v>3.29367214120106</v>
       </c>
       <c r="G31">
-        <v>2.010744395417544</v>
+        <v>2.005086223947196</v>
       </c>
       <c r="H31">
-        <v>2.37437043298969</v>
+        <v>2.368546907216495</v>
       </c>
       <c r="I31">
-        <v>1.838309492488984</v>
+        <v>1.816502157174791</v>
       </c>
       <c r="J31">
-        <v>4.21842501345352</v>
+        <v>4.175055243508678</v>
       </c>
       <c r="K31">
-        <v>2.350533874646418</v>
+        <v>2.345397966690161</v>
       </c>
       <c r="L31">
-        <v>1.783160429437533</v>
+        <v>1.729897676751509</v>
       </c>
       <c r="M31">
-        <v>2.540841204490238</v>
+        <v>2.504220778619403</v>
       </c>
       <c r="N31">
-        <v>4.81467156043439</v>
+        <v>4.753334621166945</v>
       </c>
       <c r="O31">
-        <v>1.469013272492117</v>
+        <v>1.467757705592552</v>
       </c>
       <c r="P31">
-        <v>3.846571365492881</v>
+        <v>3.835468226809435</v>
       </c>
       <c r="Q31">
-        <v>3.388919927319006</v>
+        <v>3.30671441251061</v>
       </c>
       <c r="R31">
-        <v>1.781195421988193</v>
+        <v>1.776217171428104</v>
       </c>
       <c r="S31">
-        <v>1.64058537953878</v>
+        <v>1.55519778943065</v>
       </c>
       <c r="T31">
-        <v>1.995962614006565</v>
+        <v>1.982296179590026</v>
       </c>
     </row>
     <row r="32">
@@ -2386,61 +2386,61 @@
         </is>
       </c>
       <c r="B32">
-        <v>1.189140790546882</v>
+        <v>1.155692302332539</v>
       </c>
       <c r="C32">
-        <v>1.538972707273549</v>
+        <v>1.535090791481834</v>
       </c>
       <c r="D32">
-        <v>1.177313516142337</v>
+        <v>1.104947252427045</v>
       </c>
       <c r="E32">
-        <v>2.078164111597641</v>
+        <v>2.077468668929713</v>
       </c>
       <c r="F32">
-        <v>1.889769431259602</v>
+        <v>1.866635116911399</v>
       </c>
       <c r="G32">
-        <v>1.139323691107745</v>
+        <v>1.136117670084283</v>
       </c>
       <c r="H32">
-        <v>1.346284453608247</v>
+        <v>1.342982474226804</v>
       </c>
       <c r="I32">
-        <v>1.042273849276802</v>
+        <v>1.029909655209774</v>
       </c>
       <c r="J32">
-        <v>2.391284327492265</v>
+        <v>2.366699452609982</v>
       </c>
       <c r="K32">
-        <v>1.33196919563297</v>
+        <v>1.329058847791092</v>
       </c>
       <c r="L32">
-        <v>1.010869936212357</v>
+        <v>0.9806753925687446</v>
       </c>
       <c r="M32">
-        <v>1.440288517046256</v>
+        <v>1.419530045884069</v>
       </c>
       <c r="N32">
-        <v>2.729331477873058</v>
+        <v>2.694560915229752</v>
       </c>
       <c r="O32">
-        <v>0.8324408544121997</v>
+        <v>0.8317293665024459</v>
       </c>
       <c r="P32">
-        <v>2.180626724804063</v>
+        <v>2.174332339846194</v>
       </c>
       <c r="Q32">
-        <v>1.921102920824086</v>
+        <v>1.874502452830381</v>
       </c>
       <c r="R32">
-        <v>1.009665878317607</v>
+        <v>1.006843970253961</v>
       </c>
       <c r="S32">
-        <v>0.9296340295855023</v>
+        <v>0.8812493429615539</v>
       </c>
       <c r="T32">
-        <v>1.13110425519895</v>
+        <v>1.123359539935514</v>
       </c>
     </row>
     <row r="33">
@@ -2450,61 +2450,61 @@
         </is>
       </c>
       <c r="B33">
-        <v>3.170778732534644</v>
+        <v>3.0815901722661</v>
       </c>
       <c r="C33">
-        <v>4.405480864712271</v>
+        <v>4.394368448190526</v>
       </c>
       <c r="D33">
-        <v>4.344137847537866</v>
+        <v>4.077115494714982</v>
       </c>
       <c r="E33">
-        <v>4.011273229918599</v>
+        <v>4.009930886192597</v>
       </c>
       <c r="F33">
-        <v>4.517555326798102</v>
+        <v>4.462251995456835</v>
       </c>
       <c r="G33">
-        <v>3.252371699615713</v>
+        <v>3.243219627973155</v>
       </c>
       <c r="H33">
-        <v>5.283501938144327</v>
+        <v>5.270543298969072</v>
       </c>
       <c r="I33">
-        <v>3.387591844744741</v>
+        <v>3.34740581972131</v>
       </c>
       <c r="J33">
-        <v>6.960996674458499</v>
+        <v>6.889430432698775</v>
       </c>
       <c r="K33">
-        <v>3.122634807580436</v>
+        <v>3.115811861897448</v>
       </c>
       <c r="L33">
-        <v>2.921272735243054</v>
+        <v>2.83401472712611</v>
       </c>
       <c r="M33">
-        <v>4.347183115403731</v>
+        <v>4.284528394304572</v>
       </c>
       <c r="N33">
-        <v>5.417232358079335</v>
+        <v>5.348219041599825</v>
       </c>
       <c r="O33">
-        <v>2.846514242763414</v>
+        <v>2.844081324607207</v>
       </c>
       <c r="P33">
-        <v>6.222394855944366</v>
+        <v>6.204433896309379</v>
       </c>
       <c r="Q33">
-        <v>7.620065102397882</v>
+        <v>7.435224094628286</v>
       </c>
       <c r="R33">
-        <v>6.614719403607464</v>
+        <v>6.59623197085902</v>
       </c>
       <c r="S33">
-        <v>2.653970222600453</v>
+        <v>2.515838965091443</v>
       </c>
       <c r="T33">
-        <v>3.227570287048603</v>
+        <v>3.205470986519031</v>
       </c>
     </row>
     <row r="34">
@@ -2514,61 +2514,61 @@
         </is>
       </c>
       <c r="B34">
-        <v>2.051959224618109</v>
+        <v>1.994241135652894</v>
       </c>
       <c r="C34">
-        <v>1.957005146900029</v>
+        <v>1.952068783085185</v>
       </c>
       <c r="D34">
-        <v>3.163843790848332</v>
+        <v>2.969370907471667</v>
       </c>
       <c r="E34">
-        <v>2.12986688147844</v>
+        <v>2.129154136850563</v>
       </c>
       <c r="F34">
-        <v>2.644186261411365</v>
+        <v>2.611816473248415</v>
       </c>
       <c r="G34">
-        <v>1.4867143772853</v>
+        <v>1.482530809799903</v>
       </c>
       <c r="H34">
-        <v>2.028026639175257</v>
+        <v>2.023052577319588</v>
       </c>
       <c r="I34">
-        <v>1.616291437840555</v>
+        <v>1.59711783867542</v>
       </c>
       <c r="J34">
-        <v>2.345140652327459</v>
+        <v>2.321030182127001</v>
       </c>
       <c r="K34">
-        <v>2.446380887010641</v>
+        <v>2.441035553681411</v>
       </c>
       <c r="L34">
-        <v>1.859152400166784</v>
+        <v>1.803619777941118</v>
       </c>
       <c r="M34">
-        <v>2.025654946454866</v>
+        <v>1.996459754454891</v>
       </c>
       <c r="N34">
-        <v>2.400794106901388</v>
+        <v>2.370208975500365</v>
       </c>
       <c r="O34">
-        <v>2.234024009478449</v>
+        <v>2.232114587248126</v>
       </c>
       <c r="P34">
-        <v>2.845092449497738</v>
+        <v>2.836880082422637</v>
       </c>
       <c r="Q34">
-        <v>2.777627408783615</v>
+        <v>2.710250103924835</v>
       </c>
       <c r="R34">
-        <v>2.629958371490246</v>
+        <v>2.622607919330837</v>
       </c>
       <c r="S34">
-        <v>1.213456230810305</v>
+        <v>1.150299442664531</v>
       </c>
       <c r="T34">
-        <v>1.475813346222169</v>
+        <v>1.465708394272838</v>
       </c>
     </row>
     <row r="35">
@@ -2578,61 +2578,61 @@
         </is>
       </c>
       <c r="B35">
-        <v>100.5017549071042</v>
+        <v>97.67481314271895</v>
       </c>
       <c r="C35">
-        <v>94.8102415147448</v>
+        <v>94.57109148173063</v>
       </c>
       <c r="D35">
-        <v>95.83704588967024</v>
+        <v>89.9462030160818</v>
       </c>
       <c r="E35">
-        <v>79.21941486777477</v>
+        <v>79.19290466055874</v>
       </c>
       <c r="F35">
-        <v>88.82810892331378</v>
+        <v>87.74068663740101</v>
       </c>
       <c r="G35">
-        <v>80.28478436505563</v>
+        <v>80.05886550762517</v>
       </c>
       <c r="H35">
-        <v>88.80551962886594</v>
+        <v>88.58770979381443</v>
       </c>
       <c r="I35">
-        <v>93.45506891613846</v>
+        <v>92.34643838738791</v>
       </c>
       <c r="J35">
-        <v>80.53113270213913</v>
+        <v>79.70318940871786</v>
       </c>
       <c r="K35">
-        <v>93.93767902268161</v>
+        <v>93.73242553610618</v>
       </c>
       <c r="L35">
-        <v>104.4677526911208</v>
+        <v>101.3473155260773</v>
       </c>
       <c r="M35">
-        <v>82.88995990932263</v>
+        <v>81.69529035384963</v>
       </c>
       <c r="N35">
-        <v>90.25401303301611</v>
+        <v>89.10421395605688</v>
       </c>
       <c r="O35">
-        <v>96.44031996936091</v>
+        <v>96.35789234545551</v>
       </c>
       <c r="P35">
-        <v>97.59439921624906</v>
+        <v>97.31269271810723</v>
       </c>
       <c r="Q35">
-        <v>98.81275451370838</v>
+        <v>96.41583941136156</v>
       </c>
       <c r="R35">
-        <v>100.6833986770454</v>
+        <v>100.401999354058</v>
       </c>
       <c r="S35">
-        <v>99.9733460465058</v>
+        <v>94.77003069308171</v>
       </c>
       <c r="T35">
-        <v>100.3561891520359</v>
+        <v>99.66904638307044</v>
       </c>
     </row>
     <row r="36">
@@ -2642,61 +2642,61 @@
         </is>
       </c>
       <c r="B36">
-        <v>7.8562304853207</v>
+        <v>7.63524821401491</v>
       </c>
       <c r="C36">
-        <v>12.98240898894052</v>
+        <v>12.94966206741912</v>
       </c>
       <c r="D36">
-        <v>6.908892988399843</v>
+        <v>6.484222104116178</v>
       </c>
       <c r="E36">
-        <v>6.512394722902216</v>
+        <v>6.510215396863706</v>
       </c>
       <c r="F36">
-        <v>6.337995938686052</v>
+        <v>6.260407007487462</v>
       </c>
       <c r="G36">
-        <v>5.297707964207718</v>
+        <v>5.28280038066322</v>
       </c>
       <c r="H36">
-        <v>11.57476268041236</v>
+        <v>11.54637371134021</v>
       </c>
       <c r="I36">
-        <v>9.742959576353559</v>
+        <v>9.627381656910574</v>
       </c>
       <c r="J36">
-        <v>7.013094372225216</v>
+        <v>6.940992512276336</v>
       </c>
       <c r="K36">
-        <v>6.767103349143864</v>
+        <v>6.752317252969475</v>
       </c>
       <c r="L36">
-        <v>12.58285654865732</v>
+        <v>12.20700838302353</v>
       </c>
       <c r="M36">
-        <v>8.47505319526609</v>
+        <v>8.352904649839422</v>
       </c>
       <c r="N36">
-        <v>9.494148539008757</v>
+        <v>9.373196983949674</v>
       </c>
       <c r="O36">
-        <v>6.132126988288134</v>
+        <v>6.12688585411011</v>
       </c>
       <c r="P36">
-        <v>13.37137680759466</v>
+        <v>13.33278029215881</v>
       </c>
       <c r="Q36">
-        <v>8.758999584300661</v>
+        <v>8.546531280098623</v>
       </c>
       <c r="R36">
-        <v>13.67594443467809</v>
+        <v>13.6377216337427</v>
       </c>
       <c r="S36">
-        <v>7.506864581247495</v>
+        <v>7.11615460427513</v>
       </c>
       <c r="T36">
-        <v>7.075793259724687</v>
+        <v>7.027345025348742</v>
       </c>
     </row>
     <row r="37">
@@ -2706,61 +2706,61 @@
         </is>
       </c>
       <c r="B37">
-        <v>25.48000811531951</v>
+        <v>24.76329924625896</v>
       </c>
       <c r="C37">
-        <v>25.70173192514314</v>
+        <v>25.63690169224617</v>
       </c>
       <c r="D37">
-        <v>25.36067438095218</v>
+        <v>23.80182261794587</v>
       </c>
       <c r="E37">
-        <v>25.51172646604333</v>
+        <v>25.50318915033376</v>
       </c>
       <c r="F37">
-        <v>27.24697148423608</v>
+        <v>26.91341756335764</v>
       </c>
       <c r="G37">
-        <v>28.87317080242689</v>
+        <v>28.79192260814366</v>
       </c>
       <c r="H37">
-        <v>24.37541039175257</v>
+        <v>24.31562577319588</v>
       </c>
       <c r="I37">
-        <v>27.58271577114015</v>
+        <v>27.25550996920366</v>
       </c>
       <c r="J37">
-        <v>21.07947276923854</v>
+        <v>20.86275399821741</v>
       </c>
       <c r="K37">
-        <v>29.75441181449665</v>
+        <v>29.68939853303744</v>
       </c>
       <c r="L37">
-        <v>28.31584537231206</v>
+        <v>27.47005503047678</v>
       </c>
       <c r="M37">
-        <v>32.27490381221592</v>
+        <v>31.80973474912971</v>
       </c>
       <c r="N37">
-        <v>18.91997293449686</v>
+        <v>18.67894024592023</v>
       </c>
       <c r="O37">
-        <v>29.97429267478451</v>
+        <v>29.94867362121633</v>
       </c>
       <c r="P37">
-        <v>25.28953361298158</v>
+        <v>25.21653530558929</v>
       </c>
       <c r="Q37">
-        <v>22.80800308046489</v>
+        <v>22.2547460914559</v>
       </c>
       <c r="R37">
-        <v>27.88286853444752</v>
+        <v>27.80493890124446</v>
       </c>
       <c r="S37">
-        <v>38.58027751009544</v>
+        <v>36.5722887986417</v>
       </c>
       <c r="T37">
-        <v>29.76135420655196</v>
+        <v>29.55757704531807</v>
       </c>
     </row>
     <row r="38">
@@ -2770,61 +2770,61 @@
         </is>
       </c>
       <c r="B38">
-        <v>4.300660015246964</v>
+        <v>4.179689834947516</v>
       </c>
       <c r="C38">
-        <v>5.254457942872615</v>
+        <v>5.2412040604815</v>
       </c>
       <c r="D38">
-        <v>4.592267848091915</v>
+        <v>4.309993618169543</v>
       </c>
       <c r="E38">
-        <v>3.640018618413422</v>
+        <v>3.63880051237205</v>
       </c>
       <c r="F38">
-        <v>3.738537947837043</v>
+        <v>3.692771247065351</v>
       </c>
       <c r="G38">
-        <v>3.364979273736828</v>
+        <v>3.355510327923345</v>
       </c>
       <c r="H38">
-        <v>4.790958845360823</v>
+        <v>4.77920824742268</v>
       </c>
       <c r="I38">
-        <v>4.28858147742709</v>
+        <v>4.237707272249666</v>
       </c>
       <c r="J38">
-        <v>3.858950898863179</v>
+        <v>3.819276894423516</v>
       </c>
       <c r="K38">
-        <v>4.793871999359782</v>
+        <v>4.783397406498834</v>
       </c>
       <c r="L38">
-        <v>4.771588859743646</v>
+        <v>4.629062167719599</v>
       </c>
       <c r="M38">
-        <v>5.035427296029932</v>
+        <v>4.962853106152828</v>
       </c>
       <c r="N38">
-        <v>3.356605263599942</v>
+        <v>3.313843490421038</v>
       </c>
       <c r="O38">
-        <v>5.148771109160896</v>
+        <v>5.144370450093239</v>
       </c>
       <c r="P38">
-        <v>5.581034054531407</v>
+        <v>5.564924384589911</v>
       </c>
       <c r="Q38">
-        <v>4.143204847850978</v>
+        <v>4.04270253597025</v>
       </c>
       <c r="R38">
-        <v>4.979945646841426</v>
+        <v>4.966027231770536</v>
       </c>
       <c r="S38">
-        <v>4.206151965692162</v>
+        <v>3.987234264450674</v>
       </c>
       <c r="T38">
-        <v>6.064587818794683</v>
+        <v>6.023063347791426</v>
       </c>
     </row>
     <row r="39">
@@ -2834,61 +2834,61 @@
         </is>
       </c>
       <c r="B39">
-        <v>3.064111618432432</v>
+        <v>2.977923420894078</v>
       </c>
       <c r="C39">
-        <v>4.622567208842625</v>
+        <v>4.610907212169872</v>
       </c>
       <c r="D39">
-        <v>3.61837622429569</v>
+        <v>3.395964466952993</v>
       </c>
       <c r="E39">
-        <v>5.048201003639053</v>
+        <v>5.046511659494085</v>
       </c>
       <c r="F39">
-        <v>3.46867738211082</v>
+        <v>3.426214279679975</v>
       </c>
       <c r="G39">
-        <v>2.513430494271931</v>
+        <v>2.506357779933995</v>
       </c>
       <c r="H39">
-        <v>3.177293855670102</v>
+        <v>3.169501030927835</v>
       </c>
       <c r="I39">
-        <v>2.890271402332262</v>
+        <v>2.855984946282719</v>
       </c>
       <c r="J39">
-        <v>4.560781313063369</v>
+        <v>4.513891766446926</v>
       </c>
       <c r="K39">
-        <v>3.428432418456765</v>
+        <v>3.420941306107624</v>
       </c>
       <c r="L39">
-        <v>2.880625867178571</v>
+        <v>2.794581975327017</v>
       </c>
       <c r="M39">
-        <v>2.299995616368439</v>
+        <v>2.26684642986138</v>
       </c>
       <c r="N39">
-        <v>4.82557434929407</v>
+        <v>4.764098512972124</v>
       </c>
       <c r="O39">
-        <v>3.629185248599379</v>
+        <v>3.626083380865533</v>
       </c>
       <c r="P39">
-        <v>4.184381278286788</v>
+        <v>4.172303050373478</v>
       </c>
       <c r="Q39">
-        <v>2.944213557109634</v>
+        <v>2.872795348252888</v>
       </c>
       <c r="R39">
-        <v>3.803745237199719</v>
+        <v>3.793114176383051</v>
       </c>
       <c r="S39">
-        <v>2.584177878036977</v>
+        <v>2.449679104508744</v>
       </c>
       <c r="T39">
-        <v>1.66888570155231</v>
+        <v>1.657458775602438</v>
       </c>
     </row>
     <row r="40">
@@ -2898,61 +2898,61 @@
         </is>
       </c>
       <c r="B40">
-        <v>8.06482395289836</v>
+        <v>7.837974305586864</v>
       </c>
       <c r="C40">
-        <v>7.610127231038051</v>
+        <v>7.590931391543625</v>
       </c>
       <c r="D40">
-        <v>8.446851910752871</v>
+        <v>7.927646869312013</v>
       </c>
       <c r="E40">
-        <v>9.511873470014637</v>
+        <v>9.508690389994118</v>
       </c>
       <c r="F40">
-        <v>6.540764098568737</v>
+        <v>6.460692905633378</v>
       </c>
       <c r="G40">
-        <v>7.635971120957915</v>
+        <v>7.614483738452473</v>
       </c>
       <c r="H40">
-        <v>7.566400082474225</v>
+        <v>7.547842268041238</v>
       </c>
       <c r="I40">
-        <v>8.146851598026496</v>
+        <v>8.050207847189641</v>
       </c>
       <c r="J40">
-        <v>10.7321257399435</v>
+        <v>10.62178839297726</v>
       </c>
       <c r="K40">
-        <v>8.580589678320905</v>
+        <v>8.561841121121367</v>
       </c>
       <c r="L40">
-        <v>8.797396053260691</v>
+        <v>8.534619063299321</v>
       </c>
       <c r="M40">
-        <v>7.96066443917814</v>
+        <v>7.845929633452253</v>
       </c>
       <c r="N40">
-        <v>9.529037463359732</v>
+        <v>9.407641437726245</v>
       </c>
       <c r="O40">
-        <v>8.99309054192852</v>
+        <v>8.985404139755932</v>
       </c>
       <c r="P40">
-        <v>7.783172259631309</v>
+        <v>7.760706111785701</v>
       </c>
       <c r="Q40">
-        <v>8.357190934690264</v>
+        <v>8.154469360303061</v>
       </c>
       <c r="R40">
-        <v>7.818273311147816</v>
+        <v>7.796422074046214</v>
       </c>
       <c r="S40">
-        <v>7.093693901431718</v>
+        <v>6.724488229625551</v>
       </c>
       <c r="T40">
-        <v>6.984987540094531</v>
+        <v>6.937161056047605</v>
       </c>
     </row>
     <row r="41">
@@ -2962,61 +2962,61 @@
         </is>
       </c>
       <c r="B41">
-        <v>1.409586159691454</v>
+        <v>1.369936921834718</v>
       </c>
       <c r="C41">
-        <v>1.503464160278249</v>
+        <v>1.499671811500082</v>
       </c>
       <c r="D41">
-        <v>0.9448313534610657</v>
+        <v>0.886755136757907</v>
       </c>
       <c r="E41">
-        <v>0.8825375581041817</v>
+        <v>0.8822422232600612</v>
       </c>
       <c r="F41">
-        <v>0.9497302782740565</v>
+        <v>0.9381038023452158</v>
       </c>
       <c r="G41">
-        <v>2.092440086446588</v>
+        <v>2.086552025871844</v>
       </c>
       <c r="H41">
-        <v>1.257939422680412</v>
+        <v>1.25485412371134</v>
       </c>
       <c r="I41">
-        <v>0.7758521836986882</v>
+        <v>0.7666484730105287</v>
       </c>
       <c r="J41">
-        <v>0.6564309918606218</v>
+        <v>0.6496822026772501</v>
       </c>
       <c r="K41">
-        <v>0.9485811461760788</v>
+        <v>0.9465084998260944</v>
       </c>
       <c r="L41">
-        <v>0.8906965871521473</v>
+        <v>0.8640916046409918</v>
       </c>
       <c r="M41">
-        <v>0.7337017916293219</v>
+        <v>0.7231271551568899</v>
       </c>
       <c r="N41">
-        <v>0.9834315551430752</v>
+        <v>0.9709030408271251</v>
       </c>
       <c r="O41">
-        <v>1.424862600368037</v>
+        <v>1.423644769085672</v>
       </c>
       <c r="P41">
-        <v>0.6110853847002983</v>
+        <v>0.6093214850792951</v>
       </c>
       <c r="Q41">
-        <v>0.8222063114803493</v>
+        <v>0.8022619355247259</v>
       </c>
       <c r="R41">
-        <v>0.8640487277395302</v>
+        <v>0.8616338040260993</v>
       </c>
       <c r="S41">
-        <v>0.7397988523728473</v>
+        <v>0.7012945221766119</v>
       </c>
       <c r="T41">
-        <v>0.9812307373627682</v>
+        <v>0.9745122119627647</v>
       </c>
     </row>
     <row r="42">
@@ -3026,61 +3026,61 @@
         </is>
       </c>
       <c r="B42">
-        <v>6.257804027329773</v>
+        <v>6.081782747158614</v>
       </c>
       <c r="C42">
-        <v>6.419783894263808</v>
+        <v>6.403590585337173</v>
       </c>
       <c r="D42">
-        <v>6.8686556910127</v>
+        <v>6.446458084096519</v>
       </c>
       <c r="E42">
-        <v>7.688632737690376</v>
+        <v>7.68605979206304</v>
       </c>
       <c r="F42">
-        <v>4.711377832568318</v>
+        <v>4.653701751037492</v>
       </c>
       <c r="G42">
-        <v>5.827625960071785</v>
+        <v>5.811227203958235</v>
       </c>
       <c r="H42">
-        <v>5.25301117525773</v>
+        <v>5.240127319587629</v>
       </c>
       <c r="I42">
-        <v>4.68579196065264</v>
+        <v>4.630205762073995</v>
       </c>
       <c r="J42">
-        <v>5.38466919060272</v>
+        <v>5.329309224909188</v>
       </c>
       <c r="K42">
-        <v>6.263526188944533</v>
+        <v>6.249840407031324</v>
       </c>
       <c r="L42">
-        <v>4.88734407097076</v>
+        <v>4.741359786973538</v>
       </c>
       <c r="M42">
-        <v>6.66711628045775</v>
+        <v>6.571025018599563</v>
       </c>
       <c r="N42">
-        <v>4.627870444638551</v>
+        <v>4.568913274904882</v>
       </c>
       <c r="O42">
-        <v>7.643685453918001</v>
+        <v>7.637152389427474</v>
       </c>
       <c r="P42">
-        <v>5.72922425212496</v>
+        <v>5.712686830776024</v>
       </c>
       <c r="Q42">
-        <v>5.035477436309653</v>
+        <v>4.913331140783169</v>
       </c>
       <c r="R42">
-        <v>4.254273437883273</v>
+        <v>4.242383198966492</v>
       </c>
       <c r="S42">
-        <v>6.025405747313441</v>
+        <v>5.711801296973034</v>
       </c>
       <c r="T42">
-        <v>6.619119834788557</v>
+        <v>6.5737984612906</v>
       </c>
     </row>
   </sheetData>
